--- a/guestListClean.xlsx
+++ b/guestListClean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90401ea6d03969b8/Wedding Planning/Website/antonioParrellaTaraArdalich.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{0C9BC712-4A17-4D9F-A686-E20E30D9F9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B4C1C35-1984-4ED8-8F74-C2891764808F}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{0C9BC712-4A17-4D9F-A686-E20E30D9F9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A45C48F9-88F0-48D1-8A4D-66ED3CE2E3CD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{9E44B2A9-BD8D-43D7-940F-C76D874B60BA}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="194">
   <si>
     <t>Ardalich</t>
   </si>
@@ -48,9 +47,6 @@
     <t>Cerovsky</t>
   </si>
   <si>
-    <t xml:space="preserve">Sarah </t>
-  </si>
-  <si>
     <t>Paddick</t>
   </si>
   <si>
@@ -63,21 +59,12 @@
     <t>Parrella</t>
   </si>
   <si>
-    <t xml:space="preserve">Luca </t>
-  </si>
-  <si>
     <t>Ruby</t>
   </si>
   <si>
     <t>Dillon</t>
   </si>
   <si>
-    <t xml:space="preserve">Bonnie </t>
-  </si>
-  <si>
-    <t>Anne</t>
-  </si>
-  <si>
     <t>Jarrad</t>
   </si>
   <si>
@@ -87,9 +74,6 @@
     <t>Petar</t>
   </si>
   <si>
-    <t xml:space="preserve">David </t>
-  </si>
-  <si>
     <t>Brown</t>
   </si>
   <si>
@@ -108,9 +92,6 @@
     <t>Ciaramella </t>
   </si>
   <si>
-    <t xml:space="preserve">Tina </t>
-  </si>
-  <si>
     <t xml:space="preserve">Anastasi </t>
   </si>
   <si>
@@ -138,9 +119,6 @@
     <t>Robbie</t>
   </si>
   <si>
-    <t xml:space="preserve">Sam (Fuff) </t>
-  </si>
-  <si>
     <t>Condo</t>
   </si>
   <si>
@@ -150,30 +128,15 @@
     <t xml:space="preserve">Altamura </t>
   </si>
   <si>
-    <t xml:space="preserve">Deanna </t>
-  </si>
-  <si>
     <t>Benetti</t>
   </si>
   <si>
-    <t xml:space="preserve">Patricia </t>
-  </si>
-  <si>
     <t>Ella</t>
   </si>
   <si>
     <t>Langford</t>
   </si>
   <si>
-    <t xml:space="preserve">Ty </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johanna </t>
-  </si>
-  <si>
-    <t>Col</t>
-  </si>
-  <si>
     <t>Ellen</t>
   </si>
   <si>
@@ -189,9 +152,6 @@
     <t>Jovic</t>
   </si>
   <si>
-    <t xml:space="preserve">Michael </t>
-  </si>
-  <si>
     <t>Fairbrother</t>
   </si>
   <si>
@@ -204,9 +164,6 @@
     <t>Allan</t>
   </si>
   <si>
-    <t xml:space="preserve">Ella </t>
-  </si>
-  <si>
     <t xml:space="preserve">Dishnica </t>
   </si>
   <si>
@@ -228,9 +185,6 @@
     <t>Djendjinovic</t>
   </si>
   <si>
-    <t xml:space="preserve">Nathan </t>
-  </si>
-  <si>
     <t>Ellis</t>
   </si>
   <si>
@@ -276,9 +230,6 @@
     <t>Laczko</t>
   </si>
   <si>
-    <t xml:space="preserve">Angela </t>
-  </si>
-  <si>
     <t>Beck</t>
   </si>
   <si>
@@ -399,9 +350,6 @@
     <t>Rae</t>
   </si>
   <si>
-    <t xml:space="preserve">Sophie </t>
-  </si>
-  <si>
     <t>Ronan</t>
   </si>
   <si>
@@ -432,9 +380,6 @@
     <t>Schultz</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooper </t>
-  </si>
-  <si>
     <t>Zeena</t>
   </si>
   <si>
@@ -549,9 +494,6 @@
     <t>Andrijana</t>
   </si>
   <si>
-    <t>Terrian</t>
-  </si>
-  <si>
     <t>Mark</t>
   </si>
   <si>
@@ -628,6 +570,54 @@
   </si>
   <si>
     <t>LINK_CLEAN</t>
+  </si>
+  <si>
+    <t>Goldsworthy</t>
+  </si>
+  <si>
+    <t>Colin</t>
+  </si>
+  <si>
+    <t>Plavsic</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Gabe</t>
+  </si>
+  <si>
+    <t>Fienemann</t>
+  </si>
+  <si>
+    <t>Terriann</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Bonnie</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>Nathan</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Ty</t>
+  </si>
+  <si>
+    <t>Johanna</t>
+  </si>
+  <si>
+    <t>Henry</t>
   </si>
 </sst>
 </file>
@@ -698,6 +688,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -997,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4DAA24-DD25-4F41-919B-14913DE0CE7B}">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1013,27 +1007,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="E1" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C2" t="str">
         <f>_xlfn.CONCAT(A2," ",B2)</f>
@@ -1050,2122 +1044,2122 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="0">_xlfn.CONCAT(A3," ",B3)</f>
+        <f>_xlfn.CONCAT(A3," ",B3)</f>
         <v>Aimee Alley</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D66" si="1">HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C3&amp;"")</f>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C3&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Aimee Alley</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="2">D3</f>
+        <f>D3</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Aimee Alley</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A4," ",B4)</f>
         <v>Judy Altamura</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C4&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Judy Altamura</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="2"/>
+        <f>D4</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Judy Altamura</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A5," ",B5)</f>
         <v>Pat Altamura</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C5&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pat Altamura</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="2"/>
+        <f>D5</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pat Altamura</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A6," ",B6)</f>
         <v>Anthony Altamura</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C6&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony Altamura</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="2"/>
+        <f>D6</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony Altamura</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A7," ",B7)</f>
         <v>Sarah Altamura</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C7&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah Altamura</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="2"/>
+        <f>D7</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah Altamura</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>David  Altamura</v>
+        <f>_xlfn.CONCAT(A8," ",B8)</f>
+        <v>David Altamura</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David  Altamura</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C8&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David Altamura</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David  Altamura</v>
+        <f>D8</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David Altamura</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A9," ",B9)</f>
         <v xml:space="preserve">Michael Altamura </v>
       </c>
       <c r="D9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C9&amp;"")</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael Altamura </v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="2"/>
+        <f>D9</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael Altamura </v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A10," ",B10)</f>
         <v xml:space="preserve">Juvena Altamura </v>
       </c>
       <c r="D10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C10&amp;"")</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Juvena Altamura </v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="2"/>
+        <f>D10</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Juvena Altamura </v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A11," ",B11)</f>
         <v xml:space="preserve">Mathew Altamura </v>
       </c>
       <c r="D11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C11&amp;"")</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mathew Altamura </v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="2"/>
+        <f>D11</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mathew Altamura </v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A12," ",B12)</f>
         <v xml:space="preserve">Selina Altamura </v>
       </c>
       <c r="D12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C12&amp;"")</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Selina Altamura </v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="2"/>
+        <f>D12</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Selina Altamura </v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Tina  Anastasi </v>
+        <f>_xlfn.CONCAT(A13," ",B13)</f>
+        <v xml:space="preserve">Tina Anastasi </v>
       </c>
       <c r="D13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tina  Anastasi </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C13&amp;"")</f>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tina Anastasi </v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tina  Anastasi </v>
+        <f>D13</f>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tina Anastasi </v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A14," ",B14)</f>
         <v xml:space="preserve">Pino Anastasi </v>
       </c>
       <c r="D14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C14&amp;"")</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pino Anastasi </v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="2"/>
+        <f>D14</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pino Anastasi </v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A15," ",B15)</f>
         <v xml:space="preserve">Lidia Anastasi </v>
       </c>
       <c r="D15" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C15&amp;"")</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lidia Anastasi </v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="2"/>
+        <f>D15</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lidia Anastasi </v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A16," ",B16)</f>
         <v xml:space="preserve">Bettina Anastasi </v>
       </c>
       <c r="D16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C16&amp;"")</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bettina Anastasi </v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="2"/>
+        <f>D16</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bettina Anastasi </v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A17," ",B17)</f>
         <v xml:space="preserve">Giorgia Anastasi </v>
       </c>
       <c r="D17" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C17&amp;"")</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Giorgia Anastasi </v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="2"/>
+        <f>D17</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Giorgia Anastasi </v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A18," ",B18)</f>
         <v xml:space="preserve">Danny Anastasi </v>
       </c>
       <c r="D18" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C18&amp;"")</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Danny Anastasi </v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="2"/>
+        <f>D18</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Danny Anastasi </v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A19," ",B19)</f>
         <v xml:space="preserve">Marissa Anastasi </v>
       </c>
       <c r="D19" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C19&amp;"")</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa Anastasi </v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="2"/>
+        <f>D19</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa Anastasi </v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A20," ",B20)</f>
         <v xml:space="preserve">Robbie Anastasi </v>
       </c>
       <c r="D20" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C20&amp;"")</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Robbie Anastasi </v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="2"/>
+        <f>D20</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Robbie Anastasi </v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>Bonnie  Anne</v>
+        <f>_xlfn.CONCAT(A21," ",B21)</f>
+        <v>Mara Ardalic</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bonnie  Anne</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C21&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mara Ardalic</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bonnie  Anne</v>
+        <f>D21</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mara Ardalic</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>Mara Ardalic</v>
+        <f>_xlfn.CONCAT(A22," ",B22)</f>
+        <v>Jovo Ardalic</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mara Ardalic</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C22&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jovo Ardalic</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mara Ardalic</v>
+        <f>D22</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jovo Ardalic</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>Jovo Ardalic</v>
+        <f>_xlfn.CONCAT(A23," ",B23)</f>
+        <v>Natasa Ardalich</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jovo Ardalic</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C23&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Natasa Ardalich</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jovo Ardalic</v>
+        <f>D23</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Natasa Ardalich</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>Natasa Ardalich</v>
+        <f>_xlfn.CONCAT(A24," ",B24)</f>
+        <v>Emili Ardalich</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Natasa Ardalich</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C24&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emili Ardalich</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Natasa Ardalich</v>
+        <f>D24</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emili Ardalich</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>Emili Ardalich</v>
+        <f>_xlfn.CONCAT(A25," ",B25)</f>
+        <v>Petar Ardalich</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emili Ardalich</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C25&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Petar Ardalich</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emili Ardalich</v>
+        <f>D25</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Petar Ardalich</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>Petar Ardalich</v>
+        <f>_xlfn.CONCAT(A26," ",B26)</f>
+        <v>Rae Ardalich</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Petar Ardalich</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C26&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rae Ardalich</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Petar Ardalich</v>
+        <f>D26</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rae Ardalich</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>Rae Ardalich</v>
+        <f>_xlfn.CONCAT(A27," ",B27)</f>
+        <v>Sophie Ardalich</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rae Ardalich</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C27&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sophie Ardalich</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rae Ardalich</v>
+        <f>D27</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sophie Ardalich</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>Sophie  Ardalich</v>
+        <f>_xlfn.CONCAT(A28," ",B28)</f>
+        <v>Alana Armstrong</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sophie  Ardalich</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C28&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Alana Armstrong</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sophie  Ardalich</v>
+        <f>D28</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Alana Armstrong</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>Alana Armstrong</v>
+        <f>_xlfn.CONCAT(A29," ",B29)</f>
+        <v>Ben Armstrong</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Alana Armstrong</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C29&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben Armstrong</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Alana Armstrong</v>
+        <f>D29</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben Armstrong</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>Ben Armstrong</v>
+        <f>_xlfn.CONCAT(A30," ",B30)</f>
+        <v>Jack Bastian</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben Armstrong</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C30&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack Bastian</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben Armstrong</v>
+        <f>D30</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack Bastian</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>Jack Bastian</v>
+        <f>_xlfn.CONCAT(A31," ",B31)</f>
+        <v>Angela Beck</v>
       </c>
       <c r="D31" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack Bastian</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C31&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela Beck</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack Bastian</v>
+        <f>D31</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela Beck</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>Angela  Beck</v>
+        <f>_xlfn.CONCAT(A32," ",B32)</f>
+        <v>Marissa Beck</v>
       </c>
       <c r="D32" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela  Beck</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C32&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa Beck</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela  Beck</v>
+        <f>D32</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa Beck</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>Marissa Beck</v>
+        <f>_xlfn.CONCAT(A33," ",B33)</f>
+        <v>Deanna Benetti</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa Beck</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C33&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna Benetti</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa Beck</v>
+        <f>D33</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna Benetti</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>Deanna  Benetti</v>
+        <f>_xlfn.CONCAT(A34," ",B34)</f>
+        <v>Nathan Bennett</v>
       </c>
       <c r="D34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna  Benetti</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C34&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan Bennett</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna  Benetti</v>
+        <f>D34</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan Bennett</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v>Nathan  Bennett</v>
+        <f>_xlfn.CONCAT(A35," ",B35)</f>
+        <v>Jo Blackman</v>
       </c>
       <c r="D35" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan  Bennett</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C35&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jo Blackman</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan  Bennett</v>
+        <f>D35</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jo Blackman</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v>Jo Blackman</v>
+        <f>_xlfn.CONCAT(A36," ",B36)</f>
+        <v>John Brooks</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jo Blackman</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C36&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=John Brooks</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jo Blackman</v>
+        <f>D36</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=John Brooks</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v>John Brooks</v>
+        <f>_xlfn.CONCAT(A37," ",B37)</f>
+        <v>David Brown</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=John Brooks</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C37&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David Brown</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=John Brooks</v>
+        <f>D37</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David Brown</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v>David  Brown</v>
+        <f>_xlfn.CONCAT(A38," ",B38)</f>
+        <v>Angela Caretti</v>
       </c>
       <c r="D38" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David  Brown</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C38&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela Caretti</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David  Brown</v>
+        <f>D38</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela Caretti</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="0"/>
-        <v>Angela Caretti</v>
+        <f>_xlfn.CONCAT(A39," ",B39)</f>
+        <v>Michael Caretti</v>
       </c>
       <c r="D39" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela Caretti</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C39&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael Caretti</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela Caretti</v>
+        <f>D39</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael Caretti</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="0"/>
-        <v>Michael Caretti</v>
+        <f>_xlfn.CONCAT(A40," ",B40)</f>
+        <v>Carlo Caretti</v>
       </c>
       <c r="D40" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael Caretti</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C40&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carlo Caretti</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael Caretti</v>
+        <f>D40</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carlo Caretti</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B41" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="0"/>
-        <v>Carlo Caretti</v>
+        <f>_xlfn.CONCAT(A41," ",B41)</f>
+        <v>Max Caretti</v>
       </c>
       <c r="D41" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carlo Caretti</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C41&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Max Caretti</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carlo Caretti</v>
+        <f>D41</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Max Caretti</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="0"/>
-        <v>Max Caretti</v>
+        <f>_xlfn.CONCAT(A42," ",B42)</f>
+        <v>Francesco Carpenteri</v>
       </c>
       <c r="D42" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Max Caretti</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C42&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Francesco Carpenteri</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Max Caretti</v>
+        <f>D42</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Francesco Carpenteri</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="0"/>
-        <v>Francesco Carpenteri</v>
+        <f>_xlfn.CONCAT(A43," ",B43)</f>
+        <v>Jakub Cerovsky</v>
       </c>
       <c r="D43" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Francesco Carpenteri</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C43&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jakub Cerovsky</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Francesco Carpenteri</v>
+        <f>D43</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jakub Cerovsky</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="0"/>
-        <v>Jakub Cerovsky</v>
+        <f>_xlfn.CONCAT(A44," ",B44)</f>
+        <v>Yvette Chapman</v>
       </c>
       <c r="D44" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jakub Cerovsky</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C44&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Yvette Chapman</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jakub Cerovsky</v>
+        <f>D44</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Yvette Chapman</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="0"/>
-        <v>Yvette Chapman</v>
+        <f>_xlfn.CONCAT(A45," ",B45)</f>
+        <v>Theresa Chav</v>
       </c>
       <c r="D45" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Yvette Chapman</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C45&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Theresa Chav</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Yvette Chapman</v>
+        <f>D45</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Theresa Chav</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="0"/>
-        <v>Theresa Chav</v>
+        <f>_xlfn.CONCAT(A46," ",B46)</f>
+        <v>Maria Ciaramella </v>
       </c>
       <c r="D46" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Theresa Chav</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C46&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maria Ciaramella </v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Theresa Chav</v>
+        <f>D46</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maria Ciaramella </v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>193</v>
+        <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="0"/>
-        <v>Maria Ciaramella </v>
+        <f>_xlfn.CONCAT(A47," ",B47)</f>
+        <v>Joe Ciaramella </v>
       </c>
       <c r="D47" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maria Ciaramella </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C47&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Joe Ciaramella </v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maria Ciaramella </v>
+        <f>D47</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Joe Ciaramella </v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="0"/>
-        <v>Joe Ciaramella </v>
+        <f>_xlfn.CONCAT(A48," ",B48)</f>
+        <v>Enzo Ciaramella </v>
       </c>
       <c r="D48" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Joe Ciaramella </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C48&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Enzo Ciaramella </v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Joe Ciaramella </v>
+        <f>D48</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Enzo Ciaramella </v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="0"/>
-        <v>Enzo Ciaramella </v>
+        <f>_xlfn.CONCAT(A49," ",B49)</f>
+        <v>Linda Ciaramella </v>
       </c>
       <c r="D49" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Enzo Ciaramella </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C49&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Linda Ciaramella </v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Enzo Ciaramella </v>
+        <f>D49</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Linda Ciaramella </v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="0"/>
-        <v>Linda Ciaramella </v>
+        <f>_xlfn.CONCAT(A50," ",B50)</f>
+        <v>Allison Clark</v>
       </c>
       <c r="D50" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Linda Ciaramella </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C50&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Allison Clark</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Linda Ciaramella </v>
+        <f>D50</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Allison Clark</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="0"/>
-        <v>Allison Clark</v>
+        <f>_xlfn.CONCAT(A51," ",B51)</f>
+        <v>Deanna Condo</v>
       </c>
       <c r="D51" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Allison Clark</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C51&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna Condo</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Allison Clark</v>
+        <f>D51</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna Condo</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="0"/>
-        <v>Deanna Condo</v>
+        <f>_xlfn.CONCAT(A52," ",B52)</f>
+        <v>Sam Condo</v>
       </c>
       <c r="D52" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna Condo</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C52&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam Condo</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna Condo</v>
+        <f>D52</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam Condo</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="0"/>
-        <v>Sam Condo</v>
+        <f>_xlfn.CONCAT(A53," ",B53)</f>
+        <v>Katie Cooper</v>
       </c>
       <c r="D53" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam Condo</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C53&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Katie Cooper</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam Condo</v>
+        <f>D53</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Katie Cooper</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="0"/>
-        <v>Katie Cooper</v>
+        <f>_xlfn.CONCAT(A54," ",B54)</f>
+        <v>Indya Couzner</v>
       </c>
       <c r="D54" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Katie Cooper</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C54&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Indya Couzner</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Katie Cooper</v>
+        <f>D54</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Indya Couzner</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="0"/>
-        <v>Indya Couzner</v>
+        <f>_xlfn.CONCAT(A55," ",B55)</f>
+        <v>Angelo Dambrosio </v>
       </c>
       <c r="D55" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Indya Couzner</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C55&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angelo Dambrosio </v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Indya Couzner</v>
+        <f>D55</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angelo Dambrosio </v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="0"/>
-        <v>Angelo Dambrosio </v>
+        <f>_xlfn.CONCAT(A56," ",B56)</f>
+        <v>Georgia Dearden</v>
       </c>
       <c r="D56" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angelo Dambrosio </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C56&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia Dearden</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angelo Dambrosio </v>
+        <f>D56</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia Dearden</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" t="s">
         <v>83</v>
       </c>
-      <c r="B57" t="s">
-        <v>99</v>
-      </c>
       <c r="C57" t="str">
-        <f t="shared" si="0"/>
-        <v>Georgia Dearden</v>
+        <f>_xlfn.CONCAT(A57," ",B57)</f>
+        <v>Terriann Dearden</v>
       </c>
       <c r="D57" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia Dearden</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C57&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Terriann Dearden</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia Dearden</v>
+        <f>D57</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Terriann Dearden</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="0"/>
-        <v>Terrian Dearden</v>
+        <f>_xlfn.CONCAT(A58," ",B58)</f>
+        <v>Mark Dearden</v>
       </c>
       <c r="D58" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Terrian Dearden</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C58&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mark Dearden</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Terrian Dearden</v>
+        <f>D58</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mark Dearden</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="0"/>
-        <v>Mark Dearden</v>
+        <f>_xlfn.CONCAT(A59," ",B59)</f>
+        <v>Jarrod DeVroome</v>
       </c>
       <c r="D59" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mark Dearden</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C59&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrod DeVroome</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mark Dearden</v>
+        <f>D59</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrod DeVroome</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="0"/>
-        <v>Jarrod DeVroome</v>
+        <f>_xlfn.CONCAT(A60," ",B60)</f>
+        <v>Ruby Dillon</v>
       </c>
       <c r="D60" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrod DeVroome</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C60&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ruby Dillon</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrod DeVroome</v>
+        <f>D60</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ruby Dillon</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="0"/>
-        <v>Ruby Dillon</v>
+        <f>_xlfn.CONCAT(A61," ",B61)</f>
+        <v xml:space="preserve">Ella Dishnica </v>
       </c>
       <c r="D61" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ruby Dillon</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C61&amp;"")</f>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella Dishnica </v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ruby Dillon</v>
+        <f>D61</f>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella Dishnica </v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Ella  Dishnica </v>
+        <f>_xlfn.CONCAT(A62," ",B62)</f>
+        <v>Emilia Djendjinovic</v>
       </c>
       <c r="D62" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella  Dishnica </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C62&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emilia Djendjinovic</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella  Dishnica </v>
+        <f>D62</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emilia Djendjinovic</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>189</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="0"/>
-        <v>Emilia Djendjinovic</v>
+        <f>_xlfn.CONCAT(A63," ",B63)</f>
+        <v>Nathan Ellis</v>
       </c>
       <c r="D63" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emilia Djendjinovic</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C63&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan Ellis</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emilia Djendjinovic</v>
+        <f>D63</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan Ellis</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="0"/>
-        <v>Nathan  Ellis</v>
+        <f>_xlfn.CONCAT(A64," ",B64)</f>
+        <v xml:space="preserve">Patrizia Esposito </v>
       </c>
       <c r="D64" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan  Ellis</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C64&amp;"")</f>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patrizia Esposito </v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan  Ellis</v>
+        <f>D64</f>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patrizia Esposito </v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Patrizia Esposito </v>
+        <f>_xlfn.CONCAT(A65," ",B65)</f>
+        <v xml:space="preserve">Anthony Esposito </v>
       </c>
       <c r="D65" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patrizia Esposito </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C65&amp;"")</f>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony Esposito </v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patrizia Esposito </v>
+        <f>D65</f>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony Esposito </v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B66" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Anthony Esposito </v>
+        <f>_xlfn.CONCAT(A66," ",B66)</f>
+        <v xml:space="preserve">Julian Esposito </v>
       </c>
       <c r="D66" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony Esposito </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C66&amp;"")</f>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Julian Esposito </v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony Esposito </v>
+        <f>D66</f>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Julian Esposito </v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C130" si="3">_xlfn.CONCAT(A67," ",B67)</f>
-        <v xml:space="preserve">Julian Esposito </v>
+        <f>_xlfn.CONCAT(A67," ",B67)</f>
+        <v>Michael Fairbrother</v>
       </c>
       <c r="D67" s="2" t="str">
-        <f t="shared" ref="D67:D130" si="4">HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C67&amp;"")</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Julian Esposito </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C67&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael Fairbrother</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E130" si="5">D67</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Julian Esposito </v>
+        <f>D67</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael Fairbrother</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>182</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="3"/>
-        <v>Michael  Fairbrother</v>
+        <f>_xlfn.CONCAT(A68," ",B68)</f>
+        <v>Gabe Fienemann</v>
       </c>
       <c r="D68" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael  Fairbrother</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C68&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Gabe Fienemann</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael  Fairbrother</v>
+        <f>D68</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Gabe Fienemann</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="B69" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="3"/>
-        <v>Michael Fienemann </v>
+        <f>_xlfn.CONCAT(A69," ",B69)</f>
+        <v>Jesse Fienemann</v>
       </c>
       <c r="D69" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael Fienemann </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C69&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jesse Fienemann</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael Fienemann </v>
+        <f>D69</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jesse Fienemann</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="3"/>
-        <v>Loretta Fienemann </v>
+        <f>_xlfn.CONCAT(A70," ",B70)</f>
+        <v>Michael Fienemann </v>
       </c>
       <c r="D70" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Loretta Fienemann </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C70&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael Fienemann </v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Loretta Fienemann </v>
+        <f>D70</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael Fienemann </v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Maddie Fitzgerald </v>
+        <f>_xlfn.CONCAT(A71," ",B71)</f>
+        <v>Loretta Fienemann </v>
       </c>
       <c r="D71" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maddie Fitzgerald </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C71&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Loretta Fienemann </v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maddie Fitzgerald </v>
+        <f>D71</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Loretta Fienemann </v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Cooper  Fitzgerald </v>
+        <f>_xlfn.CONCAT(A72," ",B72)</f>
+        <v xml:space="preserve">Maddie Fitzgerald </v>
       </c>
       <c r="D72" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Cooper  Fitzgerald </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C72&amp;"")</f>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maddie Fitzgerald </v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Cooper  Fitzgerald </v>
+        <f>D72</f>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maddie Fitzgerald </v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="3"/>
-        <v>Osman Fofana</v>
+        <f>_xlfn.CONCAT(A73," ",B73)</f>
+        <v xml:space="preserve">Cooper Fitzgerald </v>
       </c>
       <c r="D73" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Osman Fofana</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C73&amp;"")</f>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Cooper Fitzgerald </v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Osman Fofana</v>
+        <f>D73</f>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Cooper Fitzgerald </v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="3"/>
-        <v>Betty Francesca </v>
+        <f>_xlfn.CONCAT(A74," ",B74)</f>
+        <v>Osman Fofana</v>
       </c>
       <c r="D74" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Betty Francesca </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C74&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Osman Fofana</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Betty Francesca </v>
+        <f>D74</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Osman Fofana</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="3"/>
-        <v>Vince Francesca </v>
+        <f>_xlfn.CONCAT(A75," ",B75)</f>
+        <v>Betty Francesca </v>
       </c>
       <c r="D75" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vince Francesca </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C75&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Betty Francesca </v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vince Francesca </v>
+        <f>D75</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Betty Francesca </v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="3"/>
-        <v>George Grant</v>
+        <f>_xlfn.CONCAT(A76," ",B76)</f>
+        <v>Vince Francesca </v>
       </c>
       <c r="D76" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=George Grant</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C76&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vince Francesca </v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=George Grant</v>
+        <f>D76</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vince Francesca </v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>83</v>
-      </c>
-      <c r="B77" t="s">
-        <v>84</v>
+        <v>179</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="3"/>
-        <v>Georgia Hayley</v>
+        <f>_xlfn.CONCAT(A77," ",B77)</f>
+        <v>Colin Goldsworthy</v>
       </c>
       <c r="D77" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia Hayley</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C77&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Colin Goldsworthy</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia Hayley</v>
+        <f>D77</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Colin Goldsworthy</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B78" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="3"/>
-        <v>Tyson Herraman</v>
+        <f>_xlfn.CONCAT(A78," ",B78)</f>
+        <v>George Grant</v>
       </c>
       <c r="D78" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson Herraman</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C78&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=George Grant</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson Herraman</v>
+        <f>D78</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=George Grant</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="3"/>
-        <v>Sanja Hogarth</v>
+        <f>_xlfn.CONCAT(A79," ",B79)</f>
+        <v>Georgia Hayley</v>
       </c>
       <c r="D79" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sanja Hogarth</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C79&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia Hayley</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sanja Hogarth</v>
+        <f>D79</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia Hayley</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="B80" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="3"/>
-        <v>Ben Hogarth</v>
+        <f>_xlfn.CONCAT(A80," ",B80)</f>
+        <v>Tyson Herraman</v>
       </c>
       <c r="D80" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben Hogarth</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C80&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson Herraman</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben Hogarth</v>
+        <f>D80</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson Herraman</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" si="3"/>
-        <v>Estela Hogarth</v>
+        <f>_xlfn.CONCAT(A81," ",B81)</f>
+        <v>Sanja Hogarth</v>
       </c>
       <c r="D81" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Estela Hogarth</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C81&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sanja Hogarth</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Estela Hogarth</v>
+        <f>D81</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sanja Hogarth</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" si="3"/>
-        <v>Noa Hogarth</v>
+        <f>_xlfn.CONCAT(A82," ",B82)</f>
+        <v>Ben Hogarth</v>
       </c>
       <c r="D82" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Noa Hogarth</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C82&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben Hogarth</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Noa Hogarth</v>
+        <f>D82</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben Hogarth</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" si="3"/>
-        <v>Oliver Hogarth</v>
+        <f>_xlfn.CONCAT(A83," ",B83)</f>
+        <v>Estela Hogarth</v>
       </c>
       <c r="D83" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Oliver Hogarth</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C83&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Estela Hogarth</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Oliver Hogarth</v>
+        <f>D83</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Estela Hogarth</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="3"/>
-        <v>Kyle Jordan</v>
+        <f>_xlfn.CONCAT(A84," ",B84)</f>
+        <v>Noa Hogarth</v>
       </c>
       <c r="D84" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Kyle Jordan</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C84&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Noa Hogarth</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Kyle Jordan</v>
+        <f>D84</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Noa Hogarth</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" si="3"/>
-        <v>Andrijana Jovic</v>
+        <f>_xlfn.CONCAT(A85," ",B85)</f>
+        <v>Oliver Hogarth</v>
       </c>
       <c r="D85" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andrijana Jovic</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C85&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Oliver Hogarth</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andrijana Jovic</v>
+        <f>D85</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Oliver Hogarth</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="B86" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" si="3"/>
-        <v>Andjela Jovic</v>
+        <f>_xlfn.CONCAT(A86," ",B86)</f>
+        <v>Kyle Jordan</v>
       </c>
       <c r="D86" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andjela Jovic</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C86&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Kyle Jordan</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andjela Jovic</v>
+        <f>D86</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Kyle Jordan</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" si="3"/>
-        <v>Hannah Justins</v>
+        <f>_xlfn.CONCAT(A87," ",B87)</f>
+        <v>Andrijana Jovic</v>
       </c>
       <c r="D87" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah Justins</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C87&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andrijana Jovic</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah Justins</v>
+        <f>D87</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andrijana Jovic</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="B88" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" si="3"/>
-        <v>Tyson Klingner</v>
+        <f>_xlfn.CONCAT(A88," ",B88)</f>
+        <v>Andjela Jovic</v>
       </c>
       <c r="D88" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson Klingner</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C88&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andjela Jovic</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson Klingner</v>
+        <f>D88</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andjela Jovic</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="3"/>
-        <v>Sarah  Lacanale</v>
+        <f>_xlfn.CONCAT(A89," ",B89)</f>
+        <v>Hannah Justins</v>
       </c>
       <c r="D89" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah  Lacanale</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C89&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah Justins</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah  Lacanale</v>
+        <f>D89</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah Justins</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="B90" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" si="3"/>
-        <v>Daniel Laczko</v>
+        <f>_xlfn.CONCAT(A90," ",B90)</f>
+        <v>Tyson Klingner</v>
       </c>
       <c r="D90" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel Laczko</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C90&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson Klingner</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel Laczko</v>
+        <f>D90</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson Klingner</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="B91" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" si="3"/>
-        <v>Ella Langford</v>
+        <f>_xlfn.CONCAT(A91," ",B91)</f>
+        <v>Sarah Lacanale</v>
       </c>
       <c r="D91" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella Langford</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C91&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah Lacanale</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella Langford</v>
+        <f>D91</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah Lacanale</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B92" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" si="3"/>
-        <v>Ty  Langford</v>
+        <f>_xlfn.CONCAT(A92," ",B92)</f>
+        <v>Daniel Laczko</v>
       </c>
       <c r="D92" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ty  Langford</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C92&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel Laczko</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ty  Langford</v>
+        <f>D92</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel Laczko</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B93" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" si="3"/>
-        <v>Johanna  Langford</v>
+        <f>_xlfn.CONCAT(A93," ",B93)</f>
+        <v>Ella Langford</v>
       </c>
       <c r="D93" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Johanna  Langford</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C93&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella Langford</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Johanna  Langford</v>
+        <f>D93</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella Langford</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="B94" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" si="3"/>
-        <v>Jack Lovett</v>
+        <f>_xlfn.CONCAT(A94," ",B94)</f>
+        <v>Ty Langford</v>
       </c>
       <c r="D94" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack Lovett</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C94&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ty Langford</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack Lovett</v>
+        <f>D94</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ty Langford</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="B95" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" si="3"/>
-        <v>Isaac Mackenzie</v>
+        <f>_xlfn.CONCAT(A95," ",B95)</f>
+        <v>Jack Lovett</v>
       </c>
       <c r="D95" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Isaac Mackenzie</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C95&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack Lovett</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Isaac Mackenzie</v>
+        <f>D95</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack Lovett</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="B96" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C96" t="str">
-        <f t="shared" si="3"/>
-        <v>Daniel Mackenzie</v>
+        <f>_xlfn.CONCAT(A96," ",B96)</f>
+        <v>Isaac Mackenzie</v>
       </c>
       <c r="D96" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel Mackenzie</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C96&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Isaac Mackenzie</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel Mackenzie</v>
+        <f>D96</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Isaac Mackenzie</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="B97" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" si="3"/>
-        <v>Hannah Mackenzie</v>
+        <f>_xlfn.CONCAT(A97," ",B97)</f>
+        <v>Daniel Mackenzie</v>
       </c>
       <c r="D97" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah Mackenzie</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C97&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel Mackenzie</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah Mackenzie</v>
+        <f>D97</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel Mackenzie</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" si="3"/>
-        <v>Jacob Mackenzie</v>
+        <f>_xlfn.CONCAT(A98," ",B98)</f>
+        <v>Hannah Mackenzie</v>
       </c>
       <c r="D98" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jacob Mackenzie</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C98&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah Mackenzie</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jacob Mackenzie</v>
+        <f>D98</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah Mackenzie</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" si="3"/>
-        <v>Jarrad Majda</v>
+        <f>_xlfn.CONCAT(A99," ",B99)</f>
+        <v>Jacob Mackenzie</v>
       </c>
       <c r="D99" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrad Majda</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C99&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jacob Mackenzie</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrad Majda</v>
+        <f>D99</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jacob Mackenzie</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>87</v>
+        <v>186</v>
       </c>
       <c r="B100" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="C100" t="str">
-        <f t="shared" si="3"/>
-        <v>Dan Malone</v>
+        <f>_xlfn.CONCAT(A100," ",B100)</f>
+        <v>Bonnie Majda</v>
       </c>
       <c r="D100" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Dan Malone</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C100&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bonnie Majda</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Dan Malone</v>
+        <f>D100</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bonnie Majda</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="C101" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Tiana Marcellino </v>
+        <f>_xlfn.CONCAT(A101," ",B101)</f>
+        <v>Jarrad Majda</v>
       </c>
       <c r="D101" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tiana Marcellino </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C101&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrad Majda</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tiana Marcellino </v>
+        <f>D101</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrad Majda</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>77</v>
-      </c>
-      <c r="B102" t="s">
-        <v>91</v>
+        <v>193</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C102" t="str">
-        <f t="shared" si="3"/>
-        <v>Daniel Markos</v>
+        <f>_xlfn.CONCAT(A102," ",B102)</f>
+        <v>Henry Majda</v>
       </c>
       <c r="D102" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel Markos</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C102&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Henry Majda</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel Markos</v>
+        <f>D102</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Henry Majda</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="B103" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C103" t="str">
-        <f t="shared" si="3"/>
-        <v>Lachlan McCarthy</v>
+        <f>_xlfn.CONCAT(A103," ",B103)</f>
+        <v>Dan Malone</v>
       </c>
       <c r="D103" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lachlan McCarthy</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C103&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Dan Malone</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lachlan McCarthy</v>
+        <f>D103</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Dan Malone</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="C104" t="str">
-        <f t="shared" si="3"/>
-        <v>Tony Nicolas</v>
+        <f>_xlfn.CONCAT(A104," ",B104)</f>
+        <v xml:space="preserve">Tiana Marcellino </v>
       </c>
       <c r="D104" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tony Nicolas</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C104&amp;"")</f>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tiana Marcellino </v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tony Nicolas</v>
+        <f>D104</f>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tiana Marcellino </v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="B105" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="C105" t="str">
-        <f t="shared" si="3"/>
-        <v>Ronan O'Brien</v>
+        <f>_xlfn.CONCAT(A105," ",B105)</f>
+        <v>Daniel Markos</v>
       </c>
       <c r="D105" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ronan O'Brien</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C105&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel Markos</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ronan O'Brien</v>
+        <f>D105</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel Markos</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C106" t="str">
-        <f t="shared" si="3"/>
-        <v>Sarah  Paddick</v>
+        <f>_xlfn.CONCAT(A106," ",B106)</f>
+        <v>Lachlan McCarthy</v>
       </c>
       <c r="D106" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah  Paddick</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C106&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lachlan McCarthy</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah  Paddick</v>
+        <f>D106</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lachlan McCarthy</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C107" t="str">
-        <f t="shared" si="3"/>
-        <v>Patricia  Paddick</v>
+        <f>_xlfn.CONCAT(A107," ",B107)</f>
+        <v>Tony Nicolas</v>
       </c>
       <c r="D107" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patricia  Paddick</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C107&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tony Nicolas</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patricia  Paddick</v>
+        <f>D107</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tony Nicolas</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="C108" t="str">
-        <f t="shared" si="3"/>
-        <v>Jake Pajer</v>
+        <f>_xlfn.CONCAT(A108," ",B108)</f>
+        <v>Ronan O'Brien</v>
       </c>
       <c r="D108" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jake Pajer</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C108&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ronan O'Brien</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jake Pajer</v>
+        <f>D108</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ronan O'Brien</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -3173,458 +3167,524 @@
         <v>192</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C109" t="str">
-        <f t="shared" si="3"/>
-        <v>Rino Parrella</v>
+        <f>_xlfn.CONCAT(A109," ",B109)</f>
+        <v>Johanna Paddick</v>
       </c>
       <c r="D109" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rino Parrella</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C109&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Johanna Paddick</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rino Parrella</v>
+        <f>D109</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Johanna Paddick</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C110" t="str">
-        <f t="shared" si="3"/>
-        <v>Carolyn Parrella</v>
+        <f>_xlfn.CONCAT(A110," ",B110)</f>
+        <v>Sarah Paddick</v>
       </c>
       <c r="D110" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carolyn Parrella</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C110&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah Paddick</v>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carolyn Parrella</v>
+        <f>D110</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah Paddick</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C111" t="str">
-        <f t="shared" si="3"/>
-        <v>Luca  Parrella</v>
+        <f>_xlfn.CONCAT(A111," ",B111)</f>
+        <v>Patricia Paddick</v>
       </c>
       <c r="D111" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Luca  Parrella</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C111&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patricia Paddick</v>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Luca  Parrella</v>
+        <f>D111</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patricia Paddick</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C112" t="str">
-        <f t="shared" si="3"/>
-        <v>Sam (Fuff)  Parrella</v>
+        <f>_xlfn.CONCAT(A112," ",B112)</f>
+        <v>Jake Pajer</v>
       </c>
       <c r="D112" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam (Fuff)  Parrella</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C112&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jake Pajer</v>
       </c>
       <c r="E112" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam (Fuff)  Parrella</v>
+        <f>D112</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jake Pajer</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="C113" t="str">
-        <f t="shared" si="3"/>
-        <v>Sonita Phin</v>
+        <f>_xlfn.CONCAT(A113," ",B113)</f>
+        <v>Rino Parrella</v>
       </c>
       <c r="D113" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sonita Phin</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C113&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rino Parrella</v>
       </c>
       <c r="E113" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sonita Phin</v>
+        <f>D113</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rino Parrella</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C114" t="str">
-        <f t="shared" si="3"/>
-        <v>Feza Ramadhani</v>
+        <f>_xlfn.CONCAT(A114," ",B114)</f>
+        <v>Carolyn Parrella</v>
       </c>
       <c r="D114" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Feza Ramadhani</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C114&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carolyn Parrella</v>
       </c>
       <c r="E114" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Feza Ramadhani</v>
+        <f>D114</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carolyn Parrella</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="B115" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="C115" t="str">
-        <f t="shared" si="3"/>
-        <v>Chloe Robinson</v>
+        <f>_xlfn.CONCAT(A115," ",B115)</f>
+        <v>Luca Parrella</v>
       </c>
       <c r="D115" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Chloe Robinson</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C115&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Luca Parrella</v>
       </c>
       <c r="E115" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Chloe Robinson</v>
+        <f>D115</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Luca Parrella</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="B116" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C116" t="str">
-        <f t="shared" si="3"/>
-        <v>Bojan Ruvidic</v>
+        <f>_xlfn.CONCAT(A116," ",B116)</f>
+        <v>Sam Parrella</v>
       </c>
       <c r="D116" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bojan Ruvidic</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C116&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam Parrella</v>
       </c>
       <c r="E116" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bojan Ruvidic</v>
+        <f>D116</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam Parrella</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="B117" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="C117" t="str">
-        <f t="shared" si="3"/>
-        <v>Zeena Saad</v>
+        <f>_xlfn.CONCAT(A117," ",B117)</f>
+        <v>Sonita Phin</v>
       </c>
       <c r="D117" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Zeena Saad</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C117&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sonita Phin</v>
       </c>
       <c r="E117" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Zeena Saad</v>
+        <f>D117</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sonita Phin</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>129</v>
-      </c>
-      <c r="B118" t="s">
-        <v>130</v>
+        <v>162</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="C118" t="str">
-        <f t="shared" si="3"/>
-        <v>Brea Schultz</v>
+        <f>_xlfn.CONCAT(A118," ",B118)</f>
+        <v>Vlasta Plavsic</v>
       </c>
       <c r="D118" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Brea Schultz</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C118&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vlasta Plavsic</v>
       </c>
       <c r="E118" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Brea Schultz</v>
+        <f>D118</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vlasta Plavsic</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>113</v>
-      </c>
-      <c r="B119" t="s">
-        <v>114</v>
+        <v>161</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="C119" t="str">
-        <f t="shared" si="3"/>
-        <v>Bridget Smart</v>
+        <f>_xlfn.CONCAT(A119," ",B119)</f>
+        <v>Ivica Plavsic</v>
       </c>
       <c r="D119" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bridget Smart</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C119&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ivica Plavsic</v>
       </c>
       <c r="E119" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bridget Smart</v>
+        <f>D119</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ivica Plavsic</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B120" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="C120" t="str">
-        <f t="shared" si="3"/>
-        <v>Iva Sorsa-Sunic</v>
+        <f>_xlfn.CONCAT(A120," ",B120)</f>
+        <v>Feza Ramadhani</v>
       </c>
       <c r="D120" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Iva Sorsa-Sunic</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C120&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Feza Ramadhani</v>
       </c>
       <c r="E120" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Iva Sorsa-Sunic</v>
+        <f>D120</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Feza Ramadhani</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="B121" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="C121" t="str">
-        <f t="shared" si="3"/>
-        <v>Duane Stewart</v>
+        <f>_xlfn.CONCAT(A121," ",B121)</f>
+        <v>Chloe Robinson</v>
       </c>
       <c r="D121" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Duane Stewart</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C121&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Chloe Robinson</v>
       </c>
       <c r="E121" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Duane Stewart</v>
+        <f>D121</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Chloe Robinson</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="C122" t="str">
-        <f t="shared" si="3"/>
-        <v>Nicki Stewart</v>
+        <f>_xlfn.CONCAT(A122," ",B122)</f>
+        <v>Bojan Ruvidic</v>
       </c>
       <c r="D122" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nicki Stewart</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C122&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bojan Ruvidic</v>
       </c>
       <c r="E122" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nicki Stewart</v>
+        <f>D122</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bojan Ruvidic</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="B123" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="C123" t="str">
-        <f t="shared" si="3"/>
-        <v>Ellen Veronica</v>
+        <f>_xlfn.CONCAT(A123," ",B123)</f>
+        <v>Zeena Saad</v>
       </c>
       <c r="D123" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ellen Veronica</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C123&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Zeena Saad</v>
       </c>
       <c r="E123" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ellen Veronica</v>
+        <f>D123</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Zeena Saad</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B124" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C124" t="str">
-        <f t="shared" si="3"/>
-        <v>Elie Walsh</v>
+        <f>_xlfn.CONCAT(A124," ",B124)</f>
+        <v>Brea Schultz</v>
       </c>
       <c r="D124" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Elie Walsh</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C124&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Brea Schultz</v>
       </c>
       <c r="E124" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Elie Walsh</v>
+        <f>D124</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Brea Schultz</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B125" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C125" t="str">
-        <f t="shared" si="3"/>
-        <v>Josh Watts</v>
+        <f>_xlfn.CONCAT(A125," ",B125)</f>
+        <v>Bridget Smart</v>
       </c>
       <c r="D125" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Josh Watts</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C125&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bridget Smart</v>
       </c>
       <c r="E125" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Josh Watts</v>
+        <f>D125</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bridget Smart</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="C126" t="str">
-        <f t="shared" si="3"/>
-        <v>David White</v>
+        <f>_xlfn.CONCAT(A126," ",B126)</f>
+        <v>Iva Sorsa-Sunic</v>
       </c>
       <c r="D126" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David White</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C126&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Iva Sorsa-Sunic</v>
       </c>
       <c r="E126" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David White</v>
+        <f>D126</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Iva Sorsa-Sunic</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C127" t="str">
-        <f t="shared" si="3"/>
-        <v>Peter Zille</v>
+        <f>_xlfn.CONCAT(A127," ",B127)</f>
+        <v>Duane Stewart</v>
       </c>
       <c r="D127" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Peter Zille</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C127&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Duane Stewart</v>
       </c>
       <c r="E127" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Peter Zille</v>
+        <f>D127</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Duane Stewart</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B128" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C128" t="str">
-        <f t="shared" si="3"/>
-        <v>Megan Zille</v>
+        <f>_xlfn.CONCAT(A128," ",B128)</f>
+        <v>Nicki Stewart</v>
       </c>
       <c r="D128" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Megan Zille</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C128&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nicki Stewart</v>
       </c>
       <c r="E128" t="str">
-        <f t="shared" si="5"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Megan Zille</v>
+        <f>D128</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nicki Stewart</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>44</v>
-      </c>
-      <c r="B129" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="B129" t="s">
+        <v>34</v>
+      </c>
       <c r="C129" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Col </v>
+        <f>_xlfn.CONCAT(A129," ",B129)</f>
+        <v>Ellen Veronica</v>
       </c>
       <c r="D129" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Col </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C129&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ellen Veronica</v>
       </c>
       <c r="E129" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Col </v>
+        <f>D129</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ellen Veronica</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>181</v>
-      </c>
-      <c r="B130" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="B130" t="s">
+        <v>86</v>
+      </c>
       <c r="C130" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Vlasta </v>
+        <f>_xlfn.CONCAT(A130," ",B130)</f>
+        <v>Elie Walsh</v>
       </c>
       <c r="D130" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vlasta </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C130&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Elie Walsh</v>
       </c>
       <c r="E130" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vlasta </v>
+        <f>D130</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Elie Walsh</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>180</v>
-      </c>
-      <c r="B131" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="B131" t="s">
+        <v>55</v>
+      </c>
       <c r="C131" t="str">
-        <f t="shared" ref="C131" si="6">_xlfn.CONCAT(A131," ",B131)</f>
-        <v xml:space="preserve">Ivica </v>
+        <f>_xlfn.CONCAT(A131," ",B131)</f>
+        <v>Josh Watts</v>
       </c>
       <c r="D131" s="2" t="str">
-        <f t="shared" ref="D131" si="7">HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C131&amp;"")</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ivica </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C131&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Josh Watts</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" ref="E131" si="8">D131</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ivica </v>
+        <f>D131</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Josh Watts</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>110</v>
+      </c>
+      <c r="B132" t="s">
+        <v>111</v>
+      </c>
+      <c r="C132" t="str">
+        <f>_xlfn.CONCAT(A132," ",B132)</f>
+        <v>David White</v>
+      </c>
+      <c r="D132" s="2" t="str">
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C132&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David White</v>
+      </c>
+      <c r="E132" t="str">
+        <f>D132</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David White</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>169</v>
+      </c>
+      <c r="B133" t="s">
+        <v>109</v>
+      </c>
+      <c r="C133" t="str">
+        <f>_xlfn.CONCAT(A133," ",B133)</f>
+        <v>Peter Zille</v>
+      </c>
+      <c r="D133" s="2" t="str">
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C133&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Peter Zille</v>
+      </c>
+      <c r="E133" t="str">
+        <f>D133</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Peter Zille</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>168</v>
+      </c>
+      <c r="B134" t="s">
+        <v>109</v>
+      </c>
+      <c r="C134" t="str">
+        <f>_xlfn.CONCAT(A134," ",B134)</f>
+        <v>Megan Zille</v>
+      </c>
+      <c r="D134" s="2" t="str">
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C134&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Megan Zille</v>
+      </c>
+      <c r="E134" t="str">
+        <f>D134</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Megan Zille</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B131">
-    <sortCondition ref="B2:B131"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E134">
+    <sortCondition ref="B2:B134"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/guestListClean.xlsx
+++ b/guestListClean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90401ea6d03969b8/Wedding Planning/Website/antonioParrellaTaraArdalich.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{0C9BC712-4A17-4D9F-A686-E20E30D9F9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A45C48F9-88F0-48D1-8A4D-66ED3CE2E3CD}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{0C9BC712-4A17-4D9F-A686-E20E30D9F9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC274C7D-4D79-4B55-9881-C774D415D890}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{9E44B2A9-BD8D-43D7-940F-C76D874B60BA}"/>
   </bookViews>
@@ -688,10 +688,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -993,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4DAA24-DD25-4F41-919B-14913DE0CE7B}">
   <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1030,16 +1026,16 @@
         <v>41</v>
       </c>
       <c r="C2" t="str">
-        <f>_xlfn.CONCAT(A2," ",B2)</f>
+        <f t="shared" ref="C2:C33" si="0">_xlfn.CONCAT(A2," ",B2)</f>
         <v>Will Allan</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C2&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Will Allan</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A2&amp;"&amp;entry.876592536="&amp;B2&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Will&amp;entry.876592536=Allan</v>
       </c>
       <c r="E2" t="str">
-        <f>D2</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Will Allan</v>
+        <f t="shared" ref="E2:E33" si="1">D2</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Will&amp;entry.876592536=Allan</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1050,16 +1046,16 @@
         <v>59</v>
       </c>
       <c r="C3" t="str">
-        <f>_xlfn.CONCAT(A3," ",B3)</f>
+        <f t="shared" si="0"/>
         <v>Aimee Alley</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C3&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Aimee Alley</v>
+        <f t="shared" ref="D3:D66" si="2">HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A3&amp;"&amp;entry.876592536="&amp;B3&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Aimee&amp;entry.876592536=Alley</v>
       </c>
       <c r="E3" t="str">
-        <f>D3</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Aimee Alley</v>
+        <f t="shared" si="1"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Aimee&amp;entry.876592536=Alley</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1070,16 +1066,16 @@
         <v>23</v>
       </c>
       <c r="C4" t="str">
-        <f>_xlfn.CONCAT(A4," ",B4)</f>
+        <f t="shared" si="0"/>
         <v>Judy Altamura</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C4&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Judy Altamura</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Judy&amp;entry.876592536=Altamura</v>
       </c>
       <c r="E4" t="str">
-        <f>D4</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Judy Altamura</v>
+        <f t="shared" si="1"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Judy&amp;entry.876592536=Altamura</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1090,16 +1086,16 @@
         <v>23</v>
       </c>
       <c r="C5" t="str">
-        <f>_xlfn.CONCAT(A5," ",B5)</f>
+        <f t="shared" si="0"/>
         <v>Pat Altamura</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C5&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pat Altamura</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pat&amp;entry.876592536=Altamura</v>
       </c>
       <c r="E5" t="str">
-        <f>D5</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pat Altamura</v>
+        <f t="shared" si="1"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pat&amp;entry.876592536=Altamura</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1110,16 +1106,16 @@
         <v>23</v>
       </c>
       <c r="C6" t="str">
-        <f>_xlfn.CONCAT(A6," ",B6)</f>
+        <f t="shared" si="0"/>
         <v>Anthony Altamura</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C6&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony Altamura</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony&amp;entry.876592536=Altamura</v>
       </c>
       <c r="E6" t="str">
-        <f>D6</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony Altamura</v>
+        <f t="shared" si="1"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony&amp;entry.876592536=Altamura</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1130,16 +1126,16 @@
         <v>23</v>
       </c>
       <c r="C7" t="str">
-        <f>_xlfn.CONCAT(A7," ",B7)</f>
+        <f t="shared" si="0"/>
         <v>Sarah Altamura</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C7&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah Altamura</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah&amp;entry.876592536=Altamura</v>
       </c>
       <c r="E7" t="str">
-        <f>D7</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah Altamura</v>
+        <f t="shared" si="1"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah&amp;entry.876592536=Altamura</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1150,16 +1146,16 @@
         <v>23</v>
       </c>
       <c r="C8" t="str">
-        <f>_xlfn.CONCAT(A8," ",B8)</f>
+        <f t="shared" si="0"/>
         <v>David Altamura</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C8&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David Altamura</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David&amp;entry.876592536=Altamura</v>
       </c>
       <c r="E8" t="str">
-        <f>D8</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David Altamura</v>
+        <f t="shared" si="1"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David&amp;entry.876592536=Altamura</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1170,16 +1166,16 @@
         <v>29</v>
       </c>
       <c r="C9" t="str">
-        <f>_xlfn.CONCAT(A9," ",B9)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Michael Altamura </v>
       </c>
       <c r="D9" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C9&amp;"")</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael Altamura </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Altamura </v>
       </c>
       <c r="E9" t="str">
-        <f>D9</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael Altamura </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Altamura </v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1190,16 +1186,16 @@
         <v>29</v>
       </c>
       <c r="C10" t="str">
-        <f>_xlfn.CONCAT(A10," ",B10)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Juvena Altamura </v>
       </c>
       <c r="D10" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C10&amp;"")</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Juvena Altamura </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Juvena&amp;entry.876592536=Altamura </v>
       </c>
       <c r="E10" t="str">
-        <f>D10</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Juvena Altamura </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Juvena&amp;entry.876592536=Altamura </v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -1210,16 +1206,16 @@
         <v>29</v>
       </c>
       <c r="C11" t="str">
-        <f>_xlfn.CONCAT(A11," ",B11)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Mathew Altamura </v>
       </c>
       <c r="D11" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C11&amp;"")</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mathew Altamura </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mathew&amp;entry.876592536=Altamura </v>
       </c>
       <c r="E11" t="str">
-        <f>D11</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mathew Altamura </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mathew&amp;entry.876592536=Altamura </v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -1230,16 +1226,16 @@
         <v>29</v>
       </c>
       <c r="C12" t="str">
-        <f>_xlfn.CONCAT(A12," ",B12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Selina Altamura </v>
       </c>
       <c r="D12" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C12&amp;"")</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Selina Altamura </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Selina&amp;entry.876592536=Altamura </v>
       </c>
       <c r="E12" t="str">
-        <f>D12</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Selina Altamura </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Selina&amp;entry.876592536=Altamura </v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -1250,16 +1246,16 @@
         <v>18</v>
       </c>
       <c r="C13" t="str">
-        <f>_xlfn.CONCAT(A13," ",B13)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Tina Anastasi </v>
       </c>
       <c r="D13" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C13&amp;"")</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tina Anastasi </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tina&amp;entry.876592536=Anastasi </v>
       </c>
       <c r="E13" t="str">
-        <f>D13</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tina Anastasi </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tina&amp;entry.876592536=Anastasi </v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -1270,16 +1266,16 @@
         <v>18</v>
       </c>
       <c r="C14" t="str">
-        <f>_xlfn.CONCAT(A14," ",B14)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Pino Anastasi </v>
       </c>
       <c r="D14" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C14&amp;"")</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pino Anastasi </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pino&amp;entry.876592536=Anastasi </v>
       </c>
       <c r="E14" t="str">
-        <f>D14</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pino Anastasi </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pino&amp;entry.876592536=Anastasi </v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1290,16 +1286,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="str">
-        <f>_xlfn.CONCAT(A15," ",B15)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Lidia Anastasi </v>
       </c>
       <c r="D15" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C15&amp;"")</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lidia Anastasi </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lidia&amp;entry.876592536=Anastasi </v>
       </c>
       <c r="E15" t="str">
-        <f>D15</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lidia Anastasi </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lidia&amp;entry.876592536=Anastasi </v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -1310,16 +1306,16 @@
         <v>18</v>
       </c>
       <c r="C16" t="str">
-        <f>_xlfn.CONCAT(A16," ",B16)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Bettina Anastasi </v>
       </c>
       <c r="D16" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C16&amp;"")</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bettina Anastasi </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bettina&amp;entry.876592536=Anastasi </v>
       </c>
       <c r="E16" t="str">
-        <f>D16</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bettina Anastasi </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bettina&amp;entry.876592536=Anastasi </v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1330,16 +1326,16 @@
         <v>18</v>
       </c>
       <c r="C17" t="str">
-        <f>_xlfn.CONCAT(A17," ",B17)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Giorgia Anastasi </v>
       </c>
       <c r="D17" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C17&amp;"")</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Giorgia Anastasi </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Giorgia&amp;entry.876592536=Anastasi </v>
       </c>
       <c r="E17" t="str">
-        <f>D17</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Giorgia Anastasi </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Giorgia&amp;entry.876592536=Anastasi </v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -1350,16 +1346,16 @@
         <v>18</v>
       </c>
       <c r="C18" t="str">
-        <f>_xlfn.CONCAT(A18," ",B18)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Danny Anastasi </v>
       </c>
       <c r="D18" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C18&amp;"")</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Danny Anastasi </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Danny&amp;entry.876592536=Anastasi </v>
       </c>
       <c r="E18" t="str">
-        <f>D18</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Danny Anastasi </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Danny&amp;entry.876592536=Anastasi </v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1370,16 +1366,16 @@
         <v>18</v>
       </c>
       <c r="C19" t="str">
-        <f>_xlfn.CONCAT(A19," ",B19)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Marissa Anastasi </v>
       </c>
       <c r="D19" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C19&amp;"")</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa Anastasi </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa&amp;entry.876592536=Anastasi </v>
       </c>
       <c r="E19" t="str">
-        <f>D19</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa Anastasi </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa&amp;entry.876592536=Anastasi </v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1390,16 +1386,16 @@
         <v>18</v>
       </c>
       <c r="C20" t="str">
-        <f>_xlfn.CONCAT(A20," ",B20)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Robbie Anastasi </v>
       </c>
       <c r="D20" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C20&amp;"")</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Robbie Anastasi </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Robbie&amp;entry.876592536=Anastasi </v>
       </c>
       <c r="E20" t="str">
-        <f>D20</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Robbie Anastasi </v>
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Robbie&amp;entry.876592536=Anastasi </v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -1410,16 +1406,16 @@
         <v>102</v>
       </c>
       <c r="C21" t="str">
-        <f>_xlfn.CONCAT(A21," ",B21)</f>
+        <f t="shared" si="0"/>
         <v>Mara Ardalic</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C21&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mara Ardalic</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mara&amp;entry.876592536=Ardalic</v>
       </c>
       <c r="E21" t="str">
-        <f>D21</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mara Ardalic</v>
+        <f t="shared" si="1"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mara&amp;entry.876592536=Ardalic</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1430,16 +1426,16 @@
         <v>102</v>
       </c>
       <c r="C22" t="str">
-        <f>_xlfn.CONCAT(A22," ",B22)</f>
+        <f t="shared" si="0"/>
         <v>Jovo Ardalic</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C22&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jovo Ardalic</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jovo&amp;entry.876592536=Ardalic</v>
       </c>
       <c r="E22" t="str">
-        <f>D22</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jovo Ardalic</v>
+        <f t="shared" si="1"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jovo&amp;entry.876592536=Ardalic</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1450,16 +1446,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="str">
-        <f>_xlfn.CONCAT(A23," ",B23)</f>
+        <f t="shared" si="0"/>
         <v>Natasa Ardalich</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C23&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Natasa Ardalich</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Natasa&amp;entry.876592536=Ardalich</v>
       </c>
       <c r="E23" t="str">
-        <f>D23</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Natasa Ardalich</v>
+        <f t="shared" si="1"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Natasa&amp;entry.876592536=Ardalich</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1470,16 +1466,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="str">
-        <f>_xlfn.CONCAT(A24," ",B24)</f>
+        <f t="shared" si="0"/>
         <v>Emili Ardalich</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C24&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emili Ardalich</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emili&amp;entry.876592536=Ardalich</v>
       </c>
       <c r="E24" t="str">
-        <f>D24</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emili Ardalich</v>
+        <f t="shared" si="1"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emili&amp;entry.876592536=Ardalich</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1490,16 +1486,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="str">
-        <f>_xlfn.CONCAT(A25," ",B25)</f>
+        <f t="shared" si="0"/>
         <v>Petar Ardalich</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C25&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Petar Ardalich</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Petar&amp;entry.876592536=Ardalich</v>
       </c>
       <c r="E25" t="str">
-        <f>D25</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Petar Ardalich</v>
+        <f t="shared" si="1"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Petar&amp;entry.876592536=Ardalich</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1510,16 +1506,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="str">
-        <f>_xlfn.CONCAT(A26," ",B26)</f>
+        <f t="shared" si="0"/>
         <v>Rae Ardalich</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C26&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rae Ardalich</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rae&amp;entry.876592536=Ardalich</v>
       </c>
       <c r="E26" t="str">
-        <f>D26</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rae Ardalich</v>
+        <f t="shared" si="1"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rae&amp;entry.876592536=Ardalich</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1530,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="str">
-        <f>_xlfn.CONCAT(A27," ",B27)</f>
+        <f t="shared" si="0"/>
         <v>Sophie Ardalich</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C27&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sophie Ardalich</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sophie&amp;entry.876592536=Ardalich</v>
       </c>
       <c r="E27" t="str">
-        <f>D27</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sophie Ardalich</v>
+        <f t="shared" si="1"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sophie&amp;entry.876592536=Ardalich</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1550,16 +1546,16 @@
         <v>87</v>
       </c>
       <c r="C28" t="str">
-        <f>_xlfn.CONCAT(A28," ",B28)</f>
+        <f t="shared" si="0"/>
         <v>Alana Armstrong</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C28&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Alana Armstrong</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Alana&amp;entry.876592536=Armstrong</v>
       </c>
       <c r="E28" t="str">
-        <f>D28</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Alana Armstrong</v>
+        <f t="shared" si="1"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Alana&amp;entry.876592536=Armstrong</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1570,16 +1566,16 @@
         <v>87</v>
       </c>
       <c r="C29" t="str">
-        <f>_xlfn.CONCAT(A29," ",B29)</f>
+        <f t="shared" si="0"/>
         <v>Ben Armstrong</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C29&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben Armstrong</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben&amp;entry.876592536=Armstrong</v>
       </c>
       <c r="E29" t="str">
-        <f>D29</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben Armstrong</v>
+        <f t="shared" si="1"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben&amp;entry.876592536=Armstrong</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1590,16 +1586,16 @@
         <v>89</v>
       </c>
       <c r="C30" t="str">
-        <f>_xlfn.CONCAT(A30," ",B30)</f>
+        <f t="shared" si="0"/>
         <v>Jack Bastian</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C30&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack Bastian</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack&amp;entry.876592536=Bastian</v>
       </c>
       <c r="E30" t="str">
-        <f>D30</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack Bastian</v>
+        <f t="shared" si="1"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack&amp;entry.876592536=Bastian</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1610,16 +1606,16 @@
         <v>64</v>
       </c>
       <c r="C31" t="str">
-        <f>_xlfn.CONCAT(A31," ",B31)</f>
+        <f t="shared" si="0"/>
         <v>Angela Beck</v>
       </c>
       <c r="D31" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C31&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela Beck</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela&amp;entry.876592536=Beck</v>
       </c>
       <c r="E31" t="str">
-        <f>D31</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela Beck</v>
+        <f t="shared" si="1"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela&amp;entry.876592536=Beck</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1630,16 +1626,16 @@
         <v>64</v>
       </c>
       <c r="C32" t="str">
-        <f>_xlfn.CONCAT(A32," ",B32)</f>
+        <f t="shared" si="0"/>
         <v>Marissa Beck</v>
       </c>
       <c r="D32" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C32&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa Beck</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa&amp;entry.876592536=Beck</v>
       </c>
       <c r="E32" t="str">
-        <f>D32</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa Beck</v>
+        <f t="shared" si="1"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa&amp;entry.876592536=Beck</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1650,16 +1646,16 @@
         <v>30</v>
       </c>
       <c r="C33" t="str">
-        <f>_xlfn.CONCAT(A33," ",B33)</f>
+        <f t="shared" si="0"/>
         <v>Deanna Benetti</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C33&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna Benetti</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna&amp;entry.876592536=Benetti</v>
       </c>
       <c r="E33" t="str">
-        <f>D33</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna Benetti</v>
+        <f t="shared" si="1"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna&amp;entry.876592536=Benetti</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1670,16 +1666,16 @@
         <v>78</v>
       </c>
       <c r="C34" t="str">
-        <f>_xlfn.CONCAT(A34," ",B34)</f>
+        <f t="shared" ref="C34:C65" si="3">_xlfn.CONCAT(A34," ",B34)</f>
         <v>Nathan Bennett</v>
       </c>
       <c r="D34" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C34&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan Bennett</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan&amp;entry.876592536=Bennett</v>
       </c>
       <c r="E34" t="str">
-        <f>D34</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan Bennett</v>
+        <f t="shared" ref="E34:E65" si="4">D34</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan&amp;entry.876592536=Bennett</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -1690,16 +1686,16 @@
         <v>36</v>
       </c>
       <c r="C35" t="str">
-        <f>_xlfn.CONCAT(A35," ",B35)</f>
+        <f t="shared" si="3"/>
         <v>Jo Blackman</v>
       </c>
       <c r="D35" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C35&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jo Blackman</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jo&amp;entry.876592536=Blackman</v>
       </c>
       <c r="E35" t="str">
-        <f>D35</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jo Blackman</v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jo&amp;entry.876592536=Blackman</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1710,16 +1706,16 @@
         <v>5</v>
       </c>
       <c r="C36" t="str">
-        <f>_xlfn.CONCAT(A36," ",B36)</f>
+        <f t="shared" si="3"/>
         <v>John Brooks</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C36&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=John Brooks</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=John&amp;entry.876592536=Brooks</v>
       </c>
       <c r="E36" t="str">
-        <f>D36</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=John Brooks</v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=John&amp;entry.876592536=Brooks</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -1730,16 +1726,16 @@
         <v>12</v>
       </c>
       <c r="C37" t="str">
-        <f>_xlfn.CONCAT(A37," ",B37)</f>
+        <f t="shared" si="3"/>
         <v>David Brown</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C37&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David Brown</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David&amp;entry.876592536=Brown</v>
       </c>
       <c r="E37" t="str">
-        <f>D37</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David Brown</v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David&amp;entry.876592536=Brown</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -1750,16 +1746,16 @@
         <v>25</v>
       </c>
       <c r="C38" t="str">
-        <f>_xlfn.CONCAT(A38," ",B38)</f>
+        <f t="shared" si="3"/>
         <v>Angela Caretti</v>
       </c>
       <c r="D38" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C38&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela Caretti</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela&amp;entry.876592536=Caretti</v>
       </c>
       <c r="E38" t="str">
-        <f>D38</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela Caretti</v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela&amp;entry.876592536=Caretti</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -1770,16 +1766,16 @@
         <v>25</v>
       </c>
       <c r="C39" t="str">
-        <f>_xlfn.CONCAT(A39," ",B39)</f>
+        <f t="shared" si="3"/>
         <v>Michael Caretti</v>
       </c>
       <c r="D39" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C39&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael Caretti</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Caretti</v>
       </c>
       <c r="E39" t="str">
-        <f>D39</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael Caretti</v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Caretti</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -1790,16 +1786,16 @@
         <v>25</v>
       </c>
       <c r="C40" t="str">
-        <f>_xlfn.CONCAT(A40," ",B40)</f>
+        <f t="shared" si="3"/>
         <v>Carlo Caretti</v>
       </c>
       <c r="D40" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C40&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carlo Caretti</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carlo&amp;entry.876592536=Caretti</v>
       </c>
       <c r="E40" t="str">
-        <f>D40</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carlo Caretti</v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carlo&amp;entry.876592536=Caretti</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -1810,16 +1806,16 @@
         <v>25</v>
       </c>
       <c r="C41" t="str">
-        <f>_xlfn.CONCAT(A41," ",B41)</f>
+        <f t="shared" si="3"/>
         <v>Max Caretti</v>
       </c>
       <c r="D41" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C41&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Max Caretti</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Max&amp;entry.876592536=Caretti</v>
       </c>
       <c r="E41" t="str">
-        <f>D41</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Max Caretti</v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Max&amp;entry.876592536=Caretti</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -1830,16 +1826,16 @@
         <v>122</v>
       </c>
       <c r="C42" t="str">
-        <f>_xlfn.CONCAT(A42," ",B42)</f>
+        <f t="shared" si="3"/>
         <v>Francesco Carpenteri</v>
       </c>
       <c r="D42" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C42&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Francesco Carpenteri</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Francesco&amp;entry.876592536=Carpenteri</v>
       </c>
       <c r="E42" t="str">
-        <f>D42</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Francesco Carpenteri</v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Francesco&amp;entry.876592536=Carpenteri</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -1850,16 +1846,16 @@
         <v>2</v>
       </c>
       <c r="C43" t="str">
-        <f>_xlfn.CONCAT(A43," ",B43)</f>
+        <f t="shared" si="3"/>
         <v>Jakub Cerovsky</v>
       </c>
       <c r="D43" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C43&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jakub Cerovsky</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jakub&amp;entry.876592536=Cerovsky</v>
       </c>
       <c r="E43" t="str">
-        <f>D43</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jakub Cerovsky</v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jakub&amp;entry.876592536=Cerovsky</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -1870,16 +1866,16 @@
         <v>124</v>
       </c>
       <c r="C44" t="str">
-        <f>_xlfn.CONCAT(A44," ",B44)</f>
+        <f t="shared" si="3"/>
         <v>Yvette Chapman</v>
       </c>
       <c r="D44" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C44&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Yvette Chapman</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Yvette&amp;entry.876592536=Chapman</v>
       </c>
       <c r="E44" t="str">
-        <f>D44</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Yvette Chapman</v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Yvette&amp;entry.876592536=Chapman</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -1890,16 +1886,16 @@
         <v>92</v>
       </c>
       <c r="C45" t="str">
-        <f>_xlfn.CONCAT(A45," ",B45)</f>
+        <f t="shared" si="3"/>
         <v>Theresa Chav</v>
       </c>
       <c r="D45" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C45&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Theresa Chav</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Theresa&amp;entry.876592536=Chav</v>
       </c>
       <c r="E45" t="str">
-        <f>D45</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Theresa Chav</v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Theresa&amp;entry.876592536=Chav</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -1910,16 +1906,16 @@
         <v>17</v>
       </c>
       <c r="C46" t="str">
-        <f>_xlfn.CONCAT(A46," ",B46)</f>
+        <f t="shared" si="3"/>
         <v>Maria Ciaramella </v>
       </c>
       <c r="D46" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C46&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maria Ciaramella </v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maria&amp;entry.876592536=Ciaramella </v>
       </c>
       <c r="E46" t="str">
-        <f>D46</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maria Ciaramella </v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maria&amp;entry.876592536=Ciaramella </v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -1930,16 +1926,16 @@
         <v>17</v>
       </c>
       <c r="C47" t="str">
-        <f>_xlfn.CONCAT(A47," ",B47)</f>
+        <f t="shared" si="3"/>
         <v>Joe Ciaramella </v>
       </c>
       <c r="D47" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C47&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Joe Ciaramella </v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Joe&amp;entry.876592536=Ciaramella </v>
       </c>
       <c r="E47" t="str">
-        <f>D47</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Joe Ciaramella </v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Joe&amp;entry.876592536=Ciaramella </v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -1950,16 +1946,16 @@
         <v>17</v>
       </c>
       <c r="C48" t="str">
-        <f>_xlfn.CONCAT(A48," ",B48)</f>
+        <f t="shared" si="3"/>
         <v>Enzo Ciaramella </v>
       </c>
       <c r="D48" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C48&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Enzo Ciaramella </v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Enzo&amp;entry.876592536=Ciaramella </v>
       </c>
       <c r="E48" t="str">
-        <f>D48</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Enzo Ciaramella </v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Enzo&amp;entry.876592536=Ciaramella </v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -1970,16 +1966,16 @@
         <v>17</v>
       </c>
       <c r="C49" t="str">
-        <f>_xlfn.CONCAT(A49," ",B49)</f>
+        <f t="shared" si="3"/>
         <v>Linda Ciaramella </v>
       </c>
       <c r="D49" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C49&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Linda Ciaramella </v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Linda&amp;entry.876592536=Ciaramella </v>
       </c>
       <c r="E49" t="str">
-        <f>D49</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Linda Ciaramella </v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Linda&amp;entry.876592536=Ciaramella </v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -1990,16 +1986,16 @@
         <v>77</v>
       </c>
       <c r="C50" t="str">
-        <f>_xlfn.CONCAT(A50," ",B50)</f>
+        <f t="shared" si="3"/>
         <v>Allison Clark</v>
       </c>
       <c r="D50" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C50&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Allison Clark</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Allison&amp;entry.876592536=Clark</v>
       </c>
       <c r="E50" t="str">
-        <f>D50</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Allison Clark</v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Allison&amp;entry.876592536=Clark</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -2010,16 +2006,16 @@
         <v>27</v>
       </c>
       <c r="C51" t="str">
-        <f>_xlfn.CONCAT(A51," ",B51)</f>
+        <f t="shared" si="3"/>
         <v>Deanna Condo</v>
       </c>
       <c r="D51" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C51&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna Condo</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna&amp;entry.876592536=Condo</v>
       </c>
       <c r="E51" t="str">
-        <f>D51</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna Condo</v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna&amp;entry.876592536=Condo</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -2030,16 +2026,16 @@
         <v>27</v>
       </c>
       <c r="C52" t="str">
-        <f>_xlfn.CONCAT(A52," ",B52)</f>
+        <f t="shared" si="3"/>
         <v>Sam Condo</v>
       </c>
       <c r="D52" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C52&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam Condo</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam&amp;entry.876592536=Condo</v>
       </c>
       <c r="E52" t="str">
-        <f>D52</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam Condo</v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam&amp;entry.876592536=Condo</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -2050,16 +2046,16 @@
         <v>74</v>
       </c>
       <c r="C53" t="str">
-        <f>_xlfn.CONCAT(A53," ",B53)</f>
+        <f t="shared" si="3"/>
         <v>Katie Cooper</v>
       </c>
       <c r="D53" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C53&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Katie Cooper</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Katie&amp;entry.876592536=Cooper</v>
       </c>
       <c r="E53" t="str">
-        <f>D53</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Katie Cooper</v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Katie&amp;entry.876592536=Cooper</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -2070,16 +2066,16 @@
         <v>94</v>
       </c>
       <c r="C54" t="str">
-        <f>_xlfn.CONCAT(A54," ",B54)</f>
+        <f t="shared" si="3"/>
         <v>Indya Couzner</v>
       </c>
       <c r="D54" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C54&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Indya Couzner</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Indya&amp;entry.876592536=Couzner</v>
       </c>
       <c r="E54" t="str">
-        <f>D54</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Indya Couzner</v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Indya&amp;entry.876592536=Couzner</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -2090,16 +2086,16 @@
         <v>118</v>
       </c>
       <c r="C55" t="str">
-        <f>_xlfn.CONCAT(A55," ",B55)</f>
+        <f t="shared" si="3"/>
         <v>Angelo Dambrosio </v>
       </c>
       <c r="D55" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C55&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angelo Dambrosio </v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angelo&amp;entry.876592536=Dambrosio </v>
       </c>
       <c r="E55" t="str">
-        <f>D55</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angelo Dambrosio </v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angelo&amp;entry.876592536=Dambrosio </v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -2110,16 +2106,16 @@
         <v>83</v>
       </c>
       <c r="C56" t="str">
-        <f>_xlfn.CONCAT(A56," ",B56)</f>
+        <f t="shared" si="3"/>
         <v>Georgia Dearden</v>
       </c>
       <c r="D56" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C56&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia Dearden</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia&amp;entry.876592536=Dearden</v>
       </c>
       <c r="E56" t="str">
-        <f>D56</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia Dearden</v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia&amp;entry.876592536=Dearden</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -2130,16 +2126,16 @@
         <v>83</v>
       </c>
       <c r="C57" t="str">
-        <f>_xlfn.CONCAT(A57," ",B57)</f>
+        <f t="shared" si="3"/>
         <v>Terriann Dearden</v>
       </c>
       <c r="D57" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C57&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Terriann Dearden</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Terriann&amp;entry.876592536=Dearden</v>
       </c>
       <c r="E57" t="str">
-        <f>D57</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Terriann Dearden</v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Terriann&amp;entry.876592536=Dearden</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -2150,16 +2146,16 @@
         <v>83</v>
       </c>
       <c r="C58" t="str">
-        <f>_xlfn.CONCAT(A58," ",B58)</f>
+        <f t="shared" si="3"/>
         <v>Mark Dearden</v>
       </c>
       <c r="D58" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C58&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mark Dearden</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mark&amp;entry.876592536=Dearden</v>
       </c>
       <c r="E58" t="str">
-        <f>D58</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mark Dearden</v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mark&amp;entry.876592536=Dearden</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -2170,16 +2166,16 @@
         <v>82</v>
       </c>
       <c r="C59" t="str">
-        <f>_xlfn.CONCAT(A59," ",B59)</f>
+        <f t="shared" si="3"/>
         <v>Jarrod DeVroome</v>
       </c>
       <c r="D59" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C59&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrod DeVroome</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrod&amp;entry.876592536=DeVroome</v>
       </c>
       <c r="E59" t="str">
-        <f>D59</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrod DeVroome</v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrod&amp;entry.876592536=DeVroome</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -2190,16 +2186,16 @@
         <v>8</v>
       </c>
       <c r="C60" t="str">
-        <f>_xlfn.CONCAT(A60," ",B60)</f>
+        <f t="shared" si="3"/>
         <v>Ruby Dillon</v>
       </c>
       <c r="D60" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C60&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ruby Dillon</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ruby&amp;entry.876592536=Dillon</v>
       </c>
       <c r="E60" t="str">
-        <f>D60</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ruby Dillon</v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ruby&amp;entry.876592536=Dillon</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -2210,16 +2206,16 @@
         <v>42</v>
       </c>
       <c r="C61" t="str">
-        <f>_xlfn.CONCAT(A61," ",B61)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Ella Dishnica </v>
       </c>
       <c r="D61" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C61&amp;"")</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella Dishnica </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella&amp;entry.876592536=Dishnica </v>
       </c>
       <c r="E61" t="str">
-        <f>D61</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella Dishnica </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella&amp;entry.876592536=Dishnica </v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -2230,16 +2226,16 @@
         <v>48</v>
       </c>
       <c r="C62" t="str">
-        <f>_xlfn.CONCAT(A62," ",B62)</f>
+        <f t="shared" si="3"/>
         <v>Emilia Djendjinovic</v>
       </c>
       <c r="D62" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C62&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emilia Djendjinovic</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emilia&amp;entry.876592536=Djendjinovic</v>
       </c>
       <c r="E62" t="str">
-        <f>D62</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emilia Djendjinovic</v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emilia&amp;entry.876592536=Djendjinovic</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -2250,16 +2246,16 @@
         <v>49</v>
       </c>
       <c r="C63" t="str">
-        <f>_xlfn.CONCAT(A63," ",B63)</f>
+        <f t="shared" si="3"/>
         <v>Nathan Ellis</v>
       </c>
       <c r="D63" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C63&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan Ellis</v>
+        <f t="shared" si="2"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan&amp;entry.876592536=Ellis</v>
       </c>
       <c r="E63" t="str">
-        <f>D63</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan Ellis</v>
+        <f t="shared" si="4"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan&amp;entry.876592536=Ellis</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -2270,16 +2266,16 @@
         <v>24</v>
       </c>
       <c r="C64" t="str">
-        <f>_xlfn.CONCAT(A64," ",B64)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Patrizia Esposito </v>
       </c>
       <c r="D64" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C64&amp;"")</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patrizia Esposito </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patrizia&amp;entry.876592536=Esposito </v>
       </c>
       <c r="E64" t="str">
-        <f>D64</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patrizia Esposito </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patrizia&amp;entry.876592536=Esposito </v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -2290,16 +2286,16 @@
         <v>24</v>
       </c>
       <c r="C65" t="str">
-        <f>_xlfn.CONCAT(A65," ",B65)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Anthony Esposito </v>
       </c>
       <c r="D65" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C65&amp;"")</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony Esposito </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony&amp;entry.876592536=Esposito </v>
       </c>
       <c r="E65" t="str">
-        <f>D65</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony Esposito </v>
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony&amp;entry.876592536=Esposito </v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -2310,16 +2306,16 @@
         <v>24</v>
       </c>
       <c r="C66" t="str">
-        <f>_xlfn.CONCAT(A66," ",B66)</f>
+        <f t="shared" ref="C66:C97" si="5">_xlfn.CONCAT(A66," ",B66)</f>
         <v xml:space="preserve">Julian Esposito </v>
       </c>
       <c r="D66" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C66&amp;"")</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Julian Esposito </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Julian&amp;entry.876592536=Esposito </v>
       </c>
       <c r="E66" t="str">
-        <f>D66</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Julian Esposito </v>
+        <f t="shared" ref="E66:E97" si="6">D66</f>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Julian&amp;entry.876592536=Esposito </v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -2330,16 +2326,16 @@
         <v>38</v>
       </c>
       <c r="C67" t="str">
-        <f>_xlfn.CONCAT(A67," ",B67)</f>
+        <f t="shared" si="5"/>
         <v>Michael Fairbrother</v>
       </c>
       <c r="D67" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C67&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael Fairbrother</v>
+        <f t="shared" ref="D67:D130" si="7">HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A67&amp;"&amp;entry.876592536="&amp;B67&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Fairbrother</v>
       </c>
       <c r="E67" t="str">
-        <f>D67</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael Fairbrother</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Fairbrother</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -2350,16 +2346,16 @@
         <v>183</v>
       </c>
       <c r="C68" t="str">
-        <f>_xlfn.CONCAT(A68," ",B68)</f>
+        <f t="shared" si="5"/>
         <v>Gabe Fienemann</v>
       </c>
       <c r="D68" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C68&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Gabe Fienemann</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Gabe&amp;entry.876592536=Fienemann</v>
       </c>
       <c r="E68" t="str">
-        <f>D68</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Gabe Fienemann</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Gabe&amp;entry.876592536=Fienemann</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -2370,16 +2366,16 @@
         <v>183</v>
       </c>
       <c r="C69" t="str">
-        <f>_xlfn.CONCAT(A69," ",B69)</f>
+        <f t="shared" si="5"/>
         <v>Jesse Fienemann</v>
       </c>
       <c r="D69" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C69&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jesse Fienemann</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jesse&amp;entry.876592536=Fienemann</v>
       </c>
       <c r="E69" t="str">
-        <f>D69</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jesse Fienemann</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jesse&amp;entry.876592536=Fienemann</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -2390,16 +2386,16 @@
         <v>107</v>
       </c>
       <c r="C70" t="str">
-        <f>_xlfn.CONCAT(A70," ",B70)</f>
+        <f t="shared" si="5"/>
         <v>Michael Fienemann </v>
       </c>
       <c r="D70" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C70&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael Fienemann </v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Fienemann </v>
       </c>
       <c r="E70" t="str">
-        <f>D70</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael Fienemann </v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Fienemann </v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -2410,16 +2406,16 @@
         <v>107</v>
       </c>
       <c r="C71" t="str">
-        <f>_xlfn.CONCAT(A71," ",B71)</f>
+        <f t="shared" si="5"/>
         <v>Loretta Fienemann </v>
       </c>
       <c r="D71" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C71&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Loretta Fienemann </v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Loretta&amp;entry.876592536=Fienemann </v>
       </c>
       <c r="E71" t="str">
-        <f>D71</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Loretta Fienemann </v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Loretta&amp;entry.876592536=Fienemann </v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -2430,16 +2426,16 @@
         <v>51</v>
       </c>
       <c r="C72" t="str">
-        <f>_xlfn.CONCAT(A72," ",B72)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Maddie Fitzgerald </v>
       </c>
       <c r="D72" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C72&amp;"")</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maddie Fitzgerald </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maddie&amp;entry.876592536=Fitzgerald </v>
       </c>
       <c r="E72" t="str">
-        <f>D72</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maddie Fitzgerald </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maddie&amp;entry.876592536=Fitzgerald </v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -2450,16 +2446,16 @@
         <v>51</v>
       </c>
       <c r="C73" t="str">
-        <f>_xlfn.CONCAT(A73," ",B73)</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">Cooper Fitzgerald </v>
       </c>
       <c r="D73" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C73&amp;"")</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Cooper Fitzgerald </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Cooper&amp;entry.876592536=Fitzgerald </v>
       </c>
       <c r="E73" t="str">
-        <f>D73</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Cooper Fitzgerald </v>
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Cooper&amp;entry.876592536=Fitzgerald </v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -2470,16 +2466,16 @@
         <v>66</v>
       </c>
       <c r="C74" t="str">
-        <f>_xlfn.CONCAT(A74," ",B74)</f>
+        <f t="shared" si="5"/>
         <v>Osman Fofana</v>
       </c>
       <c r="D74" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C74&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Osman Fofana</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Osman&amp;entry.876592536=Fofana</v>
       </c>
       <c r="E74" t="str">
-        <f>D74</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Osman Fofana</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Osman&amp;entry.876592536=Fofana</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -2490,16 +2486,16 @@
         <v>20</v>
       </c>
       <c r="C75" t="str">
-        <f>_xlfn.CONCAT(A75," ",B75)</f>
+        <f t="shared" si="5"/>
         <v>Betty Francesca </v>
       </c>
       <c r="D75" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C75&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Betty Francesca </v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Betty&amp;entry.876592536=Francesca </v>
       </c>
       <c r="E75" t="str">
-        <f>D75</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Betty Francesca </v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Betty&amp;entry.876592536=Francesca </v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -2510,16 +2506,16 @@
         <v>20</v>
       </c>
       <c r="C76" t="str">
-        <f>_xlfn.CONCAT(A76," ",B76)</f>
+        <f t="shared" si="5"/>
         <v>Vince Francesca </v>
       </c>
       <c r="D76" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C76&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vince Francesca </v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vince&amp;entry.876592536=Francesca </v>
       </c>
       <c r="E76" t="str">
-        <f>D76</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vince Francesca </v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vince&amp;entry.876592536=Francesca </v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
@@ -2530,16 +2526,16 @@
         <v>178</v>
       </c>
       <c r="C77" t="str">
-        <f>_xlfn.CONCAT(A77," ",B77)</f>
+        <f t="shared" si="5"/>
         <v>Colin Goldsworthy</v>
       </c>
       <c r="D77" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C77&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Colin Goldsworthy</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Colin&amp;entry.876592536=Goldsworthy</v>
       </c>
       <c r="E77" t="str">
-        <f>D77</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Colin Goldsworthy</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Colin&amp;entry.876592536=Goldsworthy</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -2550,16 +2546,16 @@
         <v>46</v>
       </c>
       <c r="C78" t="str">
-        <f>_xlfn.CONCAT(A78," ",B78)</f>
+        <f t="shared" si="5"/>
         <v>George Grant</v>
       </c>
       <c r="D78" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C78&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=George Grant</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=George&amp;entry.876592536=Grant</v>
       </c>
       <c r="E78" t="str">
-        <f>D78</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=George Grant</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=George&amp;entry.876592536=Grant</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -2570,16 +2566,16 @@
         <v>68</v>
       </c>
       <c r="C79" t="str">
-        <f>_xlfn.CONCAT(A79," ",B79)</f>
+        <f t="shared" si="5"/>
         <v>Georgia Hayley</v>
       </c>
       <c r="D79" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C79&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia Hayley</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia&amp;entry.876592536=Hayley</v>
       </c>
       <c r="E79" t="str">
-        <f>D79</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia Hayley</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia&amp;entry.876592536=Hayley</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -2590,16 +2586,16 @@
         <v>84</v>
       </c>
       <c r="C80" t="str">
-        <f>_xlfn.CONCAT(A80," ",B80)</f>
+        <f t="shared" si="5"/>
         <v>Tyson Herraman</v>
       </c>
       <c r="D80" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C80&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson Herraman</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson&amp;entry.876592536=Herraman</v>
       </c>
       <c r="E80" t="str">
-        <f>D80</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson Herraman</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson&amp;entry.876592536=Herraman</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -2610,16 +2606,16 @@
         <v>101</v>
       </c>
       <c r="C81" t="str">
-        <f>_xlfn.CONCAT(A81," ",B81)</f>
+        <f t="shared" si="5"/>
         <v>Sanja Hogarth</v>
       </c>
       <c r="D81" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C81&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sanja Hogarth</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sanja&amp;entry.876592536=Hogarth</v>
       </c>
       <c r="E81" t="str">
-        <f>D81</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sanja Hogarth</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sanja&amp;entry.876592536=Hogarth</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -2630,16 +2626,16 @@
         <v>101</v>
       </c>
       <c r="C82" t="str">
-        <f>_xlfn.CONCAT(A82," ",B82)</f>
+        <f t="shared" si="5"/>
         <v>Ben Hogarth</v>
       </c>
       <c r="D82" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C82&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben Hogarth</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben&amp;entry.876592536=Hogarth</v>
       </c>
       <c r="E82" t="str">
-        <f>D82</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben Hogarth</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben&amp;entry.876592536=Hogarth</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -2650,16 +2646,16 @@
         <v>101</v>
       </c>
       <c r="C83" t="str">
-        <f>_xlfn.CONCAT(A83," ",B83)</f>
+        <f t="shared" si="5"/>
         <v>Estela Hogarth</v>
       </c>
       <c r="D83" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C83&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Estela Hogarth</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Estela&amp;entry.876592536=Hogarth</v>
       </c>
       <c r="E83" t="str">
-        <f>D83</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Estela Hogarth</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Estela&amp;entry.876592536=Hogarth</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -2670,16 +2666,16 @@
         <v>101</v>
       </c>
       <c r="C84" t="str">
-        <f>_xlfn.CONCAT(A84," ",B84)</f>
+        <f t="shared" si="5"/>
         <v>Noa Hogarth</v>
       </c>
       <c r="D84" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C84&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Noa Hogarth</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Noa&amp;entry.876592536=Hogarth</v>
       </c>
       <c r="E84" t="str">
-        <f>D84</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Noa Hogarth</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Noa&amp;entry.876592536=Hogarth</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
@@ -2690,16 +2686,16 @@
         <v>101</v>
       </c>
       <c r="C85" t="str">
-        <f>_xlfn.CONCAT(A85," ",B85)</f>
+        <f t="shared" si="5"/>
         <v>Oliver Hogarth</v>
       </c>
       <c r="D85" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C85&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Oliver Hogarth</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Oliver&amp;entry.876592536=Hogarth</v>
       </c>
       <c r="E85" t="str">
-        <f>D85</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Oliver Hogarth</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Oliver&amp;entry.876592536=Hogarth</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -2710,16 +2706,16 @@
         <v>70</v>
       </c>
       <c r="C86" t="str">
-        <f>_xlfn.CONCAT(A86," ",B86)</f>
+        <f t="shared" si="5"/>
         <v>Kyle Jordan</v>
       </c>
       <c r="D86" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C86&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Kyle Jordan</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Kyle&amp;entry.876592536=Jordan</v>
       </c>
       <c r="E86" t="str">
-        <f>D86</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Kyle Jordan</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Kyle&amp;entry.876592536=Jordan</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -2730,16 +2726,16 @@
         <v>37</v>
       </c>
       <c r="C87" t="str">
-        <f>_xlfn.CONCAT(A87," ",B87)</f>
+        <f t="shared" si="5"/>
         <v>Andrijana Jovic</v>
       </c>
       <c r="D87" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C87&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andrijana Jovic</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andrijana&amp;entry.876592536=Jovic</v>
       </c>
       <c r="E87" t="str">
-        <f>D87</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andrijana Jovic</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andrijana&amp;entry.876592536=Jovic</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -2750,16 +2746,16 @@
         <v>37</v>
       </c>
       <c r="C88" t="str">
-        <f>_xlfn.CONCAT(A88," ",B88)</f>
+        <f t="shared" si="5"/>
         <v>Andjela Jovic</v>
       </c>
       <c r="D88" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C88&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andjela Jovic</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andjela&amp;entry.876592536=Jovic</v>
       </c>
       <c r="E88" t="str">
-        <f>D88</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andjela Jovic</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andjela&amp;entry.876592536=Jovic</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
@@ -2770,16 +2766,16 @@
         <v>100</v>
       </c>
       <c r="C89" t="str">
-        <f>_xlfn.CONCAT(A89," ",B89)</f>
+        <f t="shared" si="5"/>
         <v>Hannah Justins</v>
       </c>
       <c r="D89" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C89&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah Justins</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah&amp;entry.876592536=Justins</v>
       </c>
       <c r="E89" t="str">
-        <f>D89</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah Justins</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah&amp;entry.876592536=Justins</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -2790,16 +2786,16 @@
         <v>53</v>
       </c>
       <c r="C90" t="str">
-        <f>_xlfn.CONCAT(A90," ",B90)</f>
+        <f t="shared" si="5"/>
         <v>Tyson Klingner</v>
       </c>
       <c r="D90" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C90&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson Klingner</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson&amp;entry.876592536=Klingner</v>
       </c>
       <c r="E90" t="str">
-        <f>D90</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson Klingner</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson&amp;entry.876592536=Klingner</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
@@ -2810,16 +2806,16 @@
         <v>39</v>
       </c>
       <c r="C91" t="str">
-        <f>_xlfn.CONCAT(A91," ",B91)</f>
+        <f t="shared" si="5"/>
         <v>Sarah Lacanale</v>
       </c>
       <c r="D91" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C91&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah Lacanale</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah&amp;entry.876592536=Lacanale</v>
       </c>
       <c r="E91" t="str">
-        <f>D91</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah Lacanale</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah&amp;entry.876592536=Lacanale</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -2830,16 +2826,16 @@
         <v>63</v>
       </c>
       <c r="C92" t="str">
-        <f>_xlfn.CONCAT(A92," ",B92)</f>
+        <f t="shared" si="5"/>
         <v>Daniel Laczko</v>
       </c>
       <c r="D92" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C92&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel Laczko</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel&amp;entry.876592536=Laczko</v>
       </c>
       <c r="E92" t="str">
-        <f>D92</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel Laczko</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel&amp;entry.876592536=Laczko</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -2850,16 +2846,16 @@
         <v>32</v>
       </c>
       <c r="C93" t="str">
-        <f>_xlfn.CONCAT(A93," ",B93)</f>
+        <f t="shared" si="5"/>
         <v>Ella Langford</v>
       </c>
       <c r="D93" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C93&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella Langford</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella&amp;entry.876592536=Langford</v>
       </c>
       <c r="E93" t="str">
-        <f>D93</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella Langford</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella&amp;entry.876592536=Langford</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -2870,16 +2866,16 @@
         <v>32</v>
       </c>
       <c r="C94" t="str">
-        <f>_xlfn.CONCAT(A94," ",B94)</f>
+        <f t="shared" si="5"/>
         <v>Ty Langford</v>
       </c>
       <c r="D94" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C94&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ty Langford</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ty&amp;entry.876592536=Langford</v>
       </c>
       <c r="E94" t="str">
-        <f>D94</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ty Langford</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ty&amp;entry.876592536=Langford</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
@@ -2890,16 +2886,16 @@
         <v>90</v>
       </c>
       <c r="C95" t="str">
-        <f>_xlfn.CONCAT(A95," ",B95)</f>
+        <f t="shared" si="5"/>
         <v>Jack Lovett</v>
       </c>
       <c r="D95" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C95&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack Lovett</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack&amp;entry.876592536=Lovett</v>
       </c>
       <c r="E95" t="str">
-        <f>D95</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack Lovett</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack&amp;entry.876592536=Lovett</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -2910,16 +2906,16 @@
         <v>106</v>
       </c>
       <c r="C96" t="str">
-        <f>_xlfn.CONCAT(A96," ",B96)</f>
+        <f t="shared" si="5"/>
         <v>Isaac Mackenzie</v>
       </c>
       <c r="D96" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C96&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Isaac Mackenzie</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Isaac&amp;entry.876592536=Mackenzie</v>
       </c>
       <c r="E96" t="str">
-        <f>D96</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Isaac Mackenzie</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Isaac&amp;entry.876592536=Mackenzie</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
@@ -2930,16 +2926,16 @@
         <v>106</v>
       </c>
       <c r="C97" t="str">
-        <f>_xlfn.CONCAT(A97," ",B97)</f>
+        <f t="shared" si="5"/>
         <v>Daniel Mackenzie</v>
       </c>
       <c r="D97" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C97&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel Mackenzie</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel&amp;entry.876592536=Mackenzie</v>
       </c>
       <c r="E97" t="str">
-        <f>D97</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel Mackenzie</v>
+        <f t="shared" si="6"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel&amp;entry.876592536=Mackenzie</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
@@ -2950,16 +2946,16 @@
         <v>106</v>
       </c>
       <c r="C98" t="str">
-        <f>_xlfn.CONCAT(A98," ",B98)</f>
+        <f t="shared" ref="C98:C129" si="8">_xlfn.CONCAT(A98," ",B98)</f>
         <v>Hannah Mackenzie</v>
       </c>
       <c r="D98" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C98&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah Mackenzie</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah&amp;entry.876592536=Mackenzie</v>
       </c>
       <c r="E98" t="str">
-        <f>D98</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah Mackenzie</v>
+        <f t="shared" ref="E98:E129" si="9">D98</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah&amp;entry.876592536=Mackenzie</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
@@ -2970,16 +2966,16 @@
         <v>106</v>
       </c>
       <c r="C99" t="str">
-        <f>_xlfn.CONCAT(A99," ",B99)</f>
+        <f t="shared" si="8"/>
         <v>Jacob Mackenzie</v>
       </c>
       <c r="D99" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C99&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jacob Mackenzie</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jacob&amp;entry.876592536=Mackenzie</v>
       </c>
       <c r="E99" t="str">
-        <f>D99</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jacob Mackenzie</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jacob&amp;entry.876592536=Mackenzie</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
@@ -2990,16 +2986,16 @@
         <v>10</v>
       </c>
       <c r="C100" t="str">
-        <f>_xlfn.CONCAT(A100," ",B100)</f>
+        <f t="shared" si="8"/>
         <v>Bonnie Majda</v>
       </c>
       <c r="D100" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C100&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bonnie Majda</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bonnie&amp;entry.876592536=Majda</v>
       </c>
       <c r="E100" t="str">
-        <f>D100</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bonnie Majda</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bonnie&amp;entry.876592536=Majda</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
@@ -3010,16 +3006,16 @@
         <v>10</v>
       </c>
       <c r="C101" t="str">
-        <f>_xlfn.CONCAT(A101," ",B101)</f>
+        <f t="shared" si="8"/>
         <v>Jarrad Majda</v>
       </c>
       <c r="D101" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C101&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrad Majda</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrad&amp;entry.876592536=Majda</v>
       </c>
       <c r="E101" t="str">
-        <f>D101</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrad Majda</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrad&amp;entry.876592536=Majda</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -3030,16 +3026,16 @@
         <v>10</v>
       </c>
       <c r="C102" t="str">
-        <f>_xlfn.CONCAT(A102," ",B102)</f>
+        <f t="shared" si="8"/>
         <v>Henry Majda</v>
       </c>
       <c r="D102" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C102&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Henry Majda</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Henry&amp;entry.876592536=Majda</v>
       </c>
       <c r="E102" t="str">
-        <f>D102</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Henry Majda</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Henry&amp;entry.876592536=Majda</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
@@ -3050,16 +3046,16 @@
         <v>72</v>
       </c>
       <c r="C103" t="str">
-        <f>_xlfn.CONCAT(A103," ",B103)</f>
+        <f t="shared" si="8"/>
         <v>Dan Malone</v>
       </c>
       <c r="D103" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C103&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Dan Malone</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Dan&amp;entry.876592536=Malone</v>
       </c>
       <c r="E103" t="str">
-        <f>D103</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Dan Malone</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Dan&amp;entry.876592536=Malone</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
@@ -3070,16 +3066,16 @@
         <v>120</v>
       </c>
       <c r="C104" t="str">
-        <f>_xlfn.CONCAT(A104," ",B104)</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">Tiana Marcellino </v>
       </c>
       <c r="D104" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C104&amp;"")</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tiana Marcellino </v>
+        <f t="shared" si="7"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tiana&amp;entry.876592536=Marcellino </v>
       </c>
       <c r="E104" t="str">
-        <f>D104</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tiana Marcellino </v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tiana&amp;entry.876592536=Marcellino </v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
@@ -3090,16 +3086,16 @@
         <v>75</v>
       </c>
       <c r="C105" t="str">
-        <f>_xlfn.CONCAT(A105," ",B105)</f>
+        <f t="shared" si="8"/>
         <v>Daniel Markos</v>
       </c>
       <c r="D105" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C105&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel Markos</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel&amp;entry.876592536=Markos</v>
       </c>
       <c r="E105" t="str">
-        <f>D105</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel Markos</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel&amp;entry.876592536=Markos</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
@@ -3110,16 +3106,16 @@
         <v>44</v>
       </c>
       <c r="C106" t="str">
-        <f>_xlfn.CONCAT(A106," ",B106)</f>
+        <f t="shared" si="8"/>
         <v>Lachlan McCarthy</v>
       </c>
       <c r="D106" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C106&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lachlan McCarthy</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lachlan&amp;entry.876592536=McCarthy</v>
       </c>
       <c r="E106" t="str">
-        <f>D106</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lachlan McCarthy</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lachlan&amp;entry.876592536=McCarthy</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
@@ -3130,16 +3126,16 @@
         <v>22</v>
       </c>
       <c r="C107" t="str">
-        <f>_xlfn.CONCAT(A107," ",B107)</f>
+        <f t="shared" si="8"/>
         <v>Tony Nicolas</v>
       </c>
       <c r="D107" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C107&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tony Nicolas</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tony&amp;entry.876592536=Nicolas</v>
       </c>
       <c r="E107" t="str">
-        <f>D107</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tony Nicolas</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tony&amp;entry.876592536=Nicolas</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
@@ -3150,16 +3146,16 @@
         <v>105</v>
       </c>
       <c r="C108" t="str">
-        <f>_xlfn.CONCAT(A108," ",B108)</f>
+        <f t="shared" si="8"/>
         <v>Ronan O'Brien</v>
       </c>
       <c r="D108" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C108&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ronan O'Brien</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ronan&amp;entry.876592536=O'Brien</v>
       </c>
       <c r="E108" t="str">
-        <f>D108</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ronan O'Brien</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ronan&amp;entry.876592536=O'Brien</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -3170,16 +3166,16 @@
         <v>3</v>
       </c>
       <c r="C109" t="str">
-        <f>_xlfn.CONCAT(A109," ",B109)</f>
+        <f t="shared" si="8"/>
         <v>Johanna Paddick</v>
       </c>
       <c r="D109" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C109&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Johanna Paddick</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Johanna&amp;entry.876592536=Paddick</v>
       </c>
       <c r="E109" t="str">
-        <f>D109</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Johanna Paddick</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Johanna&amp;entry.876592536=Paddick</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
@@ -3190,16 +3186,16 @@
         <v>3</v>
       </c>
       <c r="C110" t="str">
-        <f>_xlfn.CONCAT(A110," ",B110)</f>
+        <f t="shared" si="8"/>
         <v>Sarah Paddick</v>
       </c>
       <c r="D110" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C110&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah Paddick</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah&amp;entry.876592536=Paddick</v>
       </c>
       <c r="E110" t="str">
-        <f>D110</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah Paddick</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah&amp;entry.876592536=Paddick</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
@@ -3210,16 +3206,16 @@
         <v>3</v>
       </c>
       <c r="C111" t="str">
-        <f>_xlfn.CONCAT(A111," ",B111)</f>
+        <f t="shared" si="8"/>
         <v>Patricia Paddick</v>
       </c>
       <c r="D111" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C111&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patricia Paddick</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patricia&amp;entry.876592536=Paddick</v>
       </c>
       <c r="E111" t="str">
-        <f>D111</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patricia Paddick</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patricia&amp;entry.876592536=Paddick</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
@@ -3230,16 +3226,16 @@
         <v>57</v>
       </c>
       <c r="C112" t="str">
-        <f>_xlfn.CONCAT(A112," ",B112)</f>
+        <f t="shared" si="8"/>
         <v>Jake Pajer</v>
       </c>
       <c r="D112" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C112&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jake Pajer</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jake&amp;entry.876592536=Pajer</v>
       </c>
       <c r="E112" t="str">
-        <f>D112</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jake Pajer</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jake&amp;entry.876592536=Pajer</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
@@ -3250,16 +3246,16 @@
         <v>6</v>
       </c>
       <c r="C113" t="str">
-        <f>_xlfn.CONCAT(A113," ",B113)</f>
+        <f t="shared" si="8"/>
         <v>Rino Parrella</v>
       </c>
       <c r="D113" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C113&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rino Parrella</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rino&amp;entry.876592536=Parrella</v>
       </c>
       <c r="E113" t="str">
-        <f>D113</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rino Parrella</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rino&amp;entry.876592536=Parrella</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
@@ -3270,16 +3266,16 @@
         <v>6</v>
       </c>
       <c r="C114" t="str">
-        <f>_xlfn.CONCAT(A114," ",B114)</f>
+        <f t="shared" si="8"/>
         <v>Carolyn Parrella</v>
       </c>
       <c r="D114" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C114&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carolyn Parrella</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carolyn&amp;entry.876592536=Parrella</v>
       </c>
       <c r="E114" t="str">
-        <f>D114</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carolyn Parrella</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carolyn&amp;entry.876592536=Parrella</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
@@ -3290,16 +3286,16 @@
         <v>6</v>
       </c>
       <c r="C115" t="str">
-        <f>_xlfn.CONCAT(A115," ",B115)</f>
+        <f t="shared" si="8"/>
         <v>Luca Parrella</v>
       </c>
       <c r="D115" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C115&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Luca Parrella</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Luca&amp;entry.876592536=Parrella</v>
       </c>
       <c r="E115" t="str">
-        <f>D115</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Luca Parrella</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Luca&amp;entry.876592536=Parrella</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
@@ -3310,16 +3306,16 @@
         <v>6</v>
       </c>
       <c r="C116" t="str">
-        <f>_xlfn.CONCAT(A116," ",B116)</f>
+        <f t="shared" si="8"/>
         <v>Sam Parrella</v>
       </c>
       <c r="D116" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C116&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam Parrella</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam&amp;entry.876592536=Parrella</v>
       </c>
       <c r="E116" t="str">
-        <f>D116</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam Parrella</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam&amp;entry.876592536=Parrella</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
@@ -3330,16 +3326,16 @@
         <v>96</v>
       </c>
       <c r="C117" t="str">
-        <f>_xlfn.CONCAT(A117," ",B117)</f>
+        <f t="shared" si="8"/>
         <v>Sonita Phin</v>
       </c>
       <c r="D117" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C117&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sonita Phin</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sonita&amp;entry.876592536=Phin</v>
       </c>
       <c r="E117" t="str">
-        <f>D117</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sonita Phin</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sonita&amp;entry.876592536=Phin</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
@@ -3350,16 +3346,16 @@
         <v>180</v>
       </c>
       <c r="C118" t="str">
-        <f>_xlfn.CONCAT(A118," ",B118)</f>
+        <f t="shared" si="8"/>
         <v>Vlasta Plavsic</v>
       </c>
       <c r="D118" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C118&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vlasta Plavsic</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vlasta&amp;entry.876592536=Plavsic</v>
       </c>
       <c r="E118" t="str">
-        <f>D118</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vlasta Plavsic</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vlasta&amp;entry.876592536=Plavsic</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
@@ -3370,16 +3366,16 @@
         <v>180</v>
       </c>
       <c r="C119" t="str">
-        <f>_xlfn.CONCAT(A119," ",B119)</f>
+        <f t="shared" si="8"/>
         <v>Ivica Plavsic</v>
       </c>
       <c r="D119" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C119&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ivica Plavsic</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ivica&amp;entry.876592536=Plavsic</v>
       </c>
       <c r="E119" t="str">
-        <f>D119</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ivica Plavsic</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ivica&amp;entry.876592536=Plavsic</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
@@ -3390,16 +3386,16 @@
         <v>14</v>
       </c>
       <c r="C120" t="str">
-        <f>_xlfn.CONCAT(A120," ",B120)</f>
+        <f t="shared" si="8"/>
         <v>Feza Ramadhani</v>
       </c>
       <c r="D120" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C120&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Feza Ramadhani</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Feza&amp;entry.876592536=Ramadhani</v>
       </c>
       <c r="E120" t="str">
-        <f>D120</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Feza Ramadhani</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Feza&amp;entry.876592536=Ramadhani</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
@@ -3410,16 +3406,16 @@
         <v>80</v>
       </c>
       <c r="C121" t="str">
-        <f>_xlfn.CONCAT(A121," ",B121)</f>
+        <f t="shared" si="8"/>
         <v>Chloe Robinson</v>
       </c>
       <c r="D121" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C121&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Chloe Robinson</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Chloe&amp;entry.876592536=Robinson</v>
       </c>
       <c r="E121" t="str">
-        <f>D121</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Chloe Robinson</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Chloe&amp;entry.876592536=Robinson</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
@@ -3430,16 +3426,16 @@
         <v>16</v>
       </c>
       <c r="C122" t="str">
-        <f>_xlfn.CONCAT(A122," ",B122)</f>
+        <f t="shared" si="8"/>
         <v>Bojan Ruvidic</v>
       </c>
       <c r="D122" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C122&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bojan Ruvidic</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bojan&amp;entry.876592536=Ruvidic</v>
       </c>
       <c r="E122" t="str">
-        <f>D122</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bojan Ruvidic</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bojan&amp;entry.876592536=Ruvidic</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
@@ -3450,16 +3446,16 @@
         <v>115</v>
       </c>
       <c r="C123" t="str">
-        <f>_xlfn.CONCAT(A123," ",B123)</f>
+        <f t="shared" si="8"/>
         <v>Zeena Saad</v>
       </c>
       <c r="D123" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C123&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Zeena Saad</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Zeena&amp;entry.876592536=Saad</v>
       </c>
       <c r="E123" t="str">
-        <f>D123</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Zeena Saad</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Zeena&amp;entry.876592536=Saad</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
@@ -3470,16 +3466,16 @@
         <v>113</v>
       </c>
       <c r="C124" t="str">
-        <f>_xlfn.CONCAT(A124," ",B124)</f>
+        <f t="shared" si="8"/>
         <v>Brea Schultz</v>
       </c>
       <c r="D124" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C124&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Brea Schultz</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Brea&amp;entry.876592536=Schultz</v>
       </c>
       <c r="E124" t="str">
-        <f>D124</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Brea Schultz</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Brea&amp;entry.876592536=Schultz</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
@@ -3490,16 +3486,16 @@
         <v>98</v>
       </c>
       <c r="C125" t="str">
-        <f>_xlfn.CONCAT(A125," ",B125)</f>
+        <f t="shared" si="8"/>
         <v>Bridget Smart</v>
       </c>
       <c r="D125" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C125&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bridget Smart</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bridget&amp;entry.876592536=Smart</v>
       </c>
       <c r="E125" t="str">
-        <f>D125</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bridget Smart</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bridget&amp;entry.876592536=Smart</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
@@ -3510,16 +3506,16 @@
         <v>61</v>
       </c>
       <c r="C126" t="str">
-        <f>_xlfn.CONCAT(A126," ",B126)</f>
+        <f t="shared" si="8"/>
         <v>Iva Sorsa-Sunic</v>
       </c>
       <c r="D126" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C126&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Iva Sorsa-Sunic</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Iva&amp;entry.876592536=Sorsa-Sunic</v>
       </c>
       <c r="E126" t="str">
-        <f>D126</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Iva Sorsa-Sunic</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Iva&amp;entry.876592536=Sorsa-Sunic</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
@@ -3530,16 +3526,16 @@
         <v>108</v>
       </c>
       <c r="C127" t="str">
-        <f>_xlfn.CONCAT(A127," ",B127)</f>
+        <f t="shared" si="8"/>
         <v>Duane Stewart</v>
       </c>
       <c r="D127" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C127&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Duane Stewart</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Duane&amp;entry.876592536=Stewart</v>
       </c>
       <c r="E127" t="str">
-        <f>D127</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Duane Stewart</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Duane&amp;entry.876592536=Stewart</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
@@ -3550,16 +3546,16 @@
         <v>108</v>
       </c>
       <c r="C128" t="str">
-        <f>_xlfn.CONCAT(A128," ",B128)</f>
+        <f t="shared" si="8"/>
         <v>Nicki Stewart</v>
       </c>
       <c r="D128" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C128&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nicki Stewart</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nicki&amp;entry.876592536=Stewart</v>
       </c>
       <c r="E128" t="str">
-        <f>D128</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nicki Stewart</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nicki&amp;entry.876592536=Stewart</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
@@ -3570,16 +3566,16 @@
         <v>34</v>
       </c>
       <c r="C129" t="str">
-        <f>_xlfn.CONCAT(A129," ",B129)</f>
+        <f t="shared" si="8"/>
         <v>Ellen Veronica</v>
       </c>
       <c r="D129" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C129&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ellen Veronica</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ellen&amp;entry.876592536=Veronica</v>
       </c>
       <c r="E129" t="str">
-        <f>D129</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ellen Veronica</v>
+        <f t="shared" si="9"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ellen&amp;entry.876592536=Veronica</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
@@ -3590,16 +3586,16 @@
         <v>86</v>
       </c>
       <c r="C130" t="str">
-        <f>_xlfn.CONCAT(A130," ",B130)</f>
+        <f t="shared" ref="C130:C134" si="10">_xlfn.CONCAT(A130," ",B130)</f>
         <v>Elie Walsh</v>
       </c>
       <c r="D130" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C130&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Elie Walsh</v>
+        <f t="shared" si="7"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Elie&amp;entry.876592536=Walsh</v>
       </c>
       <c r="E130" t="str">
-        <f>D130</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Elie Walsh</v>
+        <f t="shared" ref="E130:E134" si="11">D130</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Elie&amp;entry.876592536=Walsh</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
@@ -3610,16 +3606,16 @@
         <v>55</v>
       </c>
       <c r="C131" t="str">
-        <f>_xlfn.CONCAT(A131," ",B131)</f>
+        <f t="shared" si="10"/>
         <v>Josh Watts</v>
       </c>
       <c r="D131" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C131&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Josh Watts</v>
+        <f t="shared" ref="D131:D134" si="12">HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A131&amp;"&amp;entry.876592536="&amp;B131&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Josh&amp;entry.876592536=Watts</v>
       </c>
       <c r="E131" t="str">
-        <f>D131</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Josh Watts</v>
+        <f t="shared" si="11"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Josh&amp;entry.876592536=Watts</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
@@ -3630,16 +3626,16 @@
         <v>111</v>
       </c>
       <c r="C132" t="str">
-        <f>_xlfn.CONCAT(A132," ",B132)</f>
+        <f t="shared" si="10"/>
         <v>David White</v>
       </c>
       <c r="D132" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C132&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David White</v>
+        <f t="shared" si="12"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David&amp;entry.876592536=White</v>
       </c>
       <c r="E132" t="str">
-        <f>D132</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David White</v>
+        <f t="shared" si="11"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David&amp;entry.876592536=White</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
@@ -3650,16 +3646,16 @@
         <v>109</v>
       </c>
       <c r="C133" t="str">
-        <f>_xlfn.CONCAT(A133," ",B133)</f>
+        <f t="shared" si="10"/>
         <v>Peter Zille</v>
       </c>
       <c r="D133" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C133&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Peter Zille</v>
+        <f t="shared" si="12"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Peter&amp;entry.876592536=Zille</v>
       </c>
       <c r="E133" t="str">
-        <f>D133</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Peter Zille</v>
+        <f t="shared" si="11"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Peter&amp;entry.876592536=Zille</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
@@ -3670,16 +3666,16 @@
         <v>109</v>
       </c>
       <c r="C134" t="str">
-        <f>_xlfn.CONCAT(A134," ",B134)</f>
+        <f t="shared" si="10"/>
         <v>Megan Zille</v>
       </c>
       <c r="D134" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;C134&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Megan Zille</v>
+        <f t="shared" si="12"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Megan&amp;entry.876592536=Zille</v>
       </c>
       <c r="E134" t="str">
-        <f>D134</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Megan Zille</v>
+        <f t="shared" si="11"/>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Megan&amp;entry.876592536=Zille</v>
       </c>
     </row>
   </sheetData>

--- a/guestListClean.xlsx
+++ b/guestListClean.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90401ea6d03969b8/Wedding Planning/Website/antonioParrellaTaraArdalich.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{0C9BC712-4A17-4D9F-A686-E20E30D9F9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC274C7D-4D79-4B55-9881-C774D415D890}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{0C9BC712-4A17-4D9F-A686-E20E30D9F9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D77949FB-4781-426E-B772-EB08EAFD4E80}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{9E44B2A9-BD8D-43D7-940F-C76D874B60BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="195">
   <si>
     <t>Ardalich</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Ciaramella </t>
   </si>
   <si>
-    <t xml:space="preserve">Anastasi </t>
-  </si>
-  <si>
     <t>Betty</t>
   </si>
   <si>
@@ -110,9 +107,6 @@
     <t>Altamura</t>
   </si>
   <si>
-    <t xml:space="preserve">Esposito </t>
-  </si>
-  <si>
     <t>Caretti</t>
   </si>
   <si>
@@ -203,9 +197,6 @@
     <t>Josh</t>
   </si>
   <si>
-    <t>Watts</t>
-  </si>
-  <si>
     <t>Jake</t>
   </si>
   <si>
@@ -611,13 +602,25 @@
     <t>Patricia</t>
   </si>
   <si>
-    <t>Ty</t>
-  </si>
-  <si>
     <t>Johanna</t>
   </si>
   <si>
     <t>Henry</t>
+  </si>
+  <si>
+    <t>Fitzgerald</t>
+  </si>
+  <si>
+    <t>Watt</t>
+  </si>
+  <si>
+    <t>Esposito</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Anastasi</t>
   </si>
 </sst>
 </file>
@@ -989,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4DAA24-DD25-4F41-919B-14913DE0CE7B}">
   <dimension ref="A1:E134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1003,30 +1006,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C33" si="0">_xlfn.CONCAT(A2," ",B2)</f>
+        <f>_xlfn.CONCAT(A2," ",B2)</f>
         <v>Will Allan</v>
       </c>
       <c r="D2" s="2" t="str">
@@ -1034,88 +1037,88 @@
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Will&amp;entry.876592536=Allan</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E33" si="1">D2</f>
+        <f>D2</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Will&amp;entry.876592536=Allan</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A3," ",B3)</f>
         <v>Aimee Alley</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D66" si="2">HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A3&amp;"&amp;entry.876592536="&amp;B3&amp;"")</f>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A3&amp;"&amp;entry.876592536="&amp;B3&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Aimee&amp;entry.876592536=Alley</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" si="1"/>
+        <f>D3</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Aimee&amp;entry.876592536=Alley</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>Judy Altamura</v>
+        <f>_xlfn.CONCAT(A4," ",B4)</f>
+        <v>Anthony Altamura</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Judy&amp;entry.876592536=Altamura</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A4&amp;"&amp;entry.876592536="&amp;B4&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony&amp;entry.876592536=Altamura</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Judy&amp;entry.876592536=Altamura</v>
+        <f>D4</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony&amp;entry.876592536=Altamura</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>Pat Altamura</v>
+        <f>_xlfn.CONCAT(A5," ",B5)</f>
+        <v>David Altamura</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pat&amp;entry.876592536=Altamura</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A5&amp;"&amp;entry.876592536="&amp;B5&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David&amp;entry.876592536=Altamura</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pat&amp;entry.876592536=Altamura</v>
+        <f>D5</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David&amp;entry.876592536=Altamura</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>Anthony Altamura</v>
+        <f>_xlfn.CONCAT(A6," ",B6)</f>
+        <v>Judy Altamura</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony&amp;entry.876592536=Altamura</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A6&amp;"&amp;entry.876592536="&amp;B6&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Judy&amp;entry.876592536=Altamura</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony&amp;entry.876592536=Altamura</v>
+        <f>D6</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Judy&amp;entry.876592536=Altamura</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1123,359 +1126,359 @@
         <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>Sarah Altamura</v>
+        <f>_xlfn.CONCAT(A7," ",B7)</f>
+        <v>Mathew Altamura</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah&amp;entry.876592536=Altamura</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A7&amp;"&amp;entry.876592536="&amp;B7&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mathew&amp;entry.876592536=Altamura</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah&amp;entry.876592536=Altamura</v>
+        <f>D7</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mathew&amp;entry.876592536=Altamura</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>David Altamura</v>
+        <f>_xlfn.CONCAT(A8," ",B8)</f>
+        <v>Pat Altamura</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David&amp;entry.876592536=Altamura</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A8&amp;"&amp;entry.876592536="&amp;B8&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pat&amp;entry.876592536=Altamura</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David&amp;entry.876592536=Altamura</v>
+        <f>D8</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pat&amp;entry.876592536=Altamura</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Michael Altamura </v>
+        <f>_xlfn.CONCAT(A9," ",B9)</f>
+        <v>Sarah Altamura</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Altamura </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A9&amp;"&amp;entry.876592536="&amp;B9&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah&amp;entry.876592536=Altamura</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Altamura </v>
+        <f>D9</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah&amp;entry.876592536=Altamura</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Juvena Altamura </v>
+        <f>_xlfn.CONCAT(A10," ",B10)</f>
+        <v>Selina Altamura</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Juvena&amp;entry.876592536=Altamura </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A10&amp;"&amp;entry.876592536="&amp;B10&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Selina&amp;entry.876592536=Altamura</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Juvena&amp;entry.876592536=Altamura </v>
+        <f>D10</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Selina&amp;entry.876592536=Altamura</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Mathew Altamura </v>
+        <f>_xlfn.CONCAT(A11," ",B11)</f>
+        <v xml:space="preserve">Juvena Altamura </v>
       </c>
       <c r="D11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mathew&amp;entry.876592536=Altamura </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A11&amp;"&amp;entry.876592536="&amp;B11&amp;"")</f>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Juvena&amp;entry.876592536=Altamura </v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mathew&amp;entry.876592536=Altamura </v>
+        <f>D11</f>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Juvena&amp;entry.876592536=Altamura </v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Selina Altamura </v>
+        <f>_xlfn.CONCAT(A12," ",B12)</f>
+        <v xml:space="preserve">Michael Altamura </v>
       </c>
       <c r="D12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Selina&amp;entry.876592536=Altamura </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A12&amp;"&amp;entry.876592536="&amp;B12&amp;"")</f>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Altamura </v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Selina&amp;entry.876592536=Altamura </v>
+        <f>D12</f>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Altamura </v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Tina Anastasi </v>
+        <f>_xlfn.CONCAT(A13," ",B13)</f>
+        <v>Bettina Anastasi</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tina&amp;entry.876592536=Anastasi </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A13&amp;"&amp;entry.876592536="&amp;B13&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bettina&amp;entry.876592536=Anastasi</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tina&amp;entry.876592536=Anastasi </v>
+        <f>D13</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bettina&amp;entry.876592536=Anastasi</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Pino Anastasi </v>
+        <f>_xlfn.CONCAT(A14," ",B14)</f>
+        <v>Danny Anastasi</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pino&amp;entry.876592536=Anastasi </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A14&amp;"&amp;entry.876592536="&amp;B14&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Danny&amp;entry.876592536=Anastasi</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pino&amp;entry.876592536=Anastasi </v>
+        <f>D14</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Danny&amp;entry.876592536=Anastasi</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Lidia Anastasi </v>
+        <f>_xlfn.CONCAT(A15," ",B15)</f>
+        <v>Giorgia Anastasi</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lidia&amp;entry.876592536=Anastasi </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A15&amp;"&amp;entry.876592536="&amp;B15&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Giorgia&amp;entry.876592536=Anastasi</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lidia&amp;entry.876592536=Anastasi </v>
+        <f>D15</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Giorgia&amp;entry.876592536=Anastasi</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Bettina Anastasi </v>
+        <f>_xlfn.CONCAT(A16," ",B16)</f>
+        <v>Lidia Anastasi</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bettina&amp;entry.876592536=Anastasi </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A16&amp;"&amp;entry.876592536="&amp;B16&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lidia&amp;entry.876592536=Anastasi</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bettina&amp;entry.876592536=Anastasi </v>
+        <f>D16</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lidia&amp;entry.876592536=Anastasi</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Giorgia Anastasi </v>
+        <f>_xlfn.CONCAT(A17," ",B17)</f>
+        <v>Marissa Anastasi</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Giorgia&amp;entry.876592536=Anastasi </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A17&amp;"&amp;entry.876592536="&amp;B17&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa&amp;entry.876592536=Anastasi</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Giorgia&amp;entry.876592536=Anastasi </v>
+        <f>D17</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa&amp;entry.876592536=Anastasi</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Danny Anastasi </v>
+        <f>_xlfn.CONCAT(A18," ",B18)</f>
+        <v>Pino Anastasi</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Danny&amp;entry.876592536=Anastasi </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A18&amp;"&amp;entry.876592536="&amp;B18&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pino&amp;entry.876592536=Anastasi</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Danny&amp;entry.876592536=Anastasi </v>
+        <f>D18</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pino&amp;entry.876592536=Anastasi</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Marissa Anastasi </v>
+        <f>_xlfn.CONCAT(A19," ",B19)</f>
+        <v>Robbie Anastasi</v>
       </c>
       <c r="D19" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa&amp;entry.876592536=Anastasi </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A19&amp;"&amp;entry.876592536="&amp;B19&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Robbie&amp;entry.876592536=Anastasi</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa&amp;entry.876592536=Anastasi </v>
+        <f>D19</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Robbie&amp;entry.876592536=Anastasi</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Robbie Anastasi </v>
+        <f>_xlfn.CONCAT(A20," ",B20)</f>
+        <v>Tina Anastasi</v>
       </c>
       <c r="D20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Robbie&amp;entry.876592536=Anastasi </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A20&amp;"&amp;entry.876592536="&amp;B20&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tina&amp;entry.876592536=Anastasi</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Robbie&amp;entry.876592536=Anastasi </v>
+        <f>D20</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tina&amp;entry.876592536=Anastasi</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>Mara Ardalic</v>
+        <f>_xlfn.CONCAT(A21," ",B21)</f>
+        <v>Jovo Ardalic</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mara&amp;entry.876592536=Ardalic</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A21&amp;"&amp;entry.876592536="&amp;B21&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jovo&amp;entry.876592536=Ardalic</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mara&amp;entry.876592536=Ardalic</v>
+        <f>D21</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jovo&amp;entry.876592536=Ardalic</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>Jovo Ardalic</v>
+        <f>_xlfn.CONCAT(A22," ",B22)</f>
+        <v>Mara Ardalic</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jovo&amp;entry.876592536=Ardalic</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A22&amp;"&amp;entry.876592536="&amp;B22&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mara&amp;entry.876592536=Ardalic</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jovo&amp;entry.876592536=Ardalic</v>
+        <f>D22</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mara&amp;entry.876592536=Ardalic</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>Natasa Ardalich</v>
+        <f>_xlfn.CONCAT(A23," ",B23)</f>
+        <v>Emili Ardalich</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Natasa&amp;entry.876592536=Ardalich</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A23&amp;"&amp;entry.876592536="&amp;B23&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emili&amp;entry.876592536=Ardalich</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Natasa&amp;entry.876592536=Ardalich</v>
+        <f>D23</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emili&amp;entry.876592536=Ardalich</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>Emili Ardalich</v>
+        <f>_xlfn.CONCAT(A24," ",B24)</f>
+        <v>Natasa Ardalich</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emili&amp;entry.876592536=Ardalich</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A24&amp;"&amp;entry.876592536="&amp;B24&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Natasa&amp;entry.876592536=Ardalich</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emili&amp;entry.876592536=Ardalich</v>
+        <f>D24</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Natasa&amp;entry.876592536=Ardalich</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1486,215 +1489,215 @@
         <v>0</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A25," ",B25)</f>
         <v>Petar Ardalich</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A25&amp;"&amp;entry.876592536="&amp;B25&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Petar&amp;entry.876592536=Ardalich</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="1"/>
+        <f>D25</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Petar&amp;entry.876592536=Ardalich</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A26," ",B26)</f>
         <v>Rae Ardalich</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A26&amp;"&amp;entry.876592536="&amp;B26&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rae&amp;entry.876592536=Ardalich</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="1"/>
+        <f>D26</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rae&amp;entry.876592536=Ardalich</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B27" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>Sophie Ardalich</v>
+        <f>_xlfn.CONCAT(A27," ",B27)</f>
+        <v>Sophie O'Brien</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sophie&amp;entry.876592536=Ardalich</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A27&amp;"&amp;entry.876592536="&amp;B27&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sophie&amp;entry.876592536=O'Brien</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="1"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sophie&amp;entry.876592536=Ardalich</v>
+        <f>D27</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sophie&amp;entry.876592536=O'Brien</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A28," ",B28)</f>
         <v>Alana Armstrong</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A28&amp;"&amp;entry.876592536="&amp;B28&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Alana&amp;entry.876592536=Armstrong</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="1"/>
+        <f>D28</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Alana&amp;entry.876592536=Armstrong</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A29," ",B29)</f>
         <v>Ben Armstrong</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A29&amp;"&amp;entry.876592536="&amp;B29&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben&amp;entry.876592536=Armstrong</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="1"/>
+        <f>D29</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben&amp;entry.876592536=Armstrong</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A30," ",B30)</f>
         <v>Jack Bastian</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A30&amp;"&amp;entry.876592536="&amp;B30&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack&amp;entry.876592536=Bastian</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="1"/>
+        <f>D30</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack&amp;entry.876592536=Bastian</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A31," ",B31)</f>
         <v>Angela Beck</v>
       </c>
       <c r="D31" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A31&amp;"&amp;entry.876592536="&amp;B31&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela&amp;entry.876592536=Beck</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="1"/>
+        <f>D31</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela&amp;entry.876592536=Beck</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A32," ",B32)</f>
         <v>Marissa Beck</v>
       </c>
       <c r="D32" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A32&amp;"&amp;entry.876592536="&amp;B32&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa&amp;entry.876592536=Beck</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="1"/>
+        <f>D32</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa&amp;entry.876592536=Beck</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(A33," ",B33)</f>
         <v>Deanna Benetti</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A33&amp;"&amp;entry.876592536="&amp;B33&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna&amp;entry.876592536=Benetti</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="1"/>
+        <f>D33</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna&amp;entry.876592536=Benetti</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" ref="C34:C65" si="3">_xlfn.CONCAT(A34," ",B34)</f>
+        <f>_xlfn.CONCAT(A34," ",B34)</f>
         <v>Nathan Bennett</v>
       </c>
       <c r="D34" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A34&amp;"&amp;entry.876592536="&amp;B34&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan&amp;entry.876592536=Bennett</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" ref="E34:E65" si="4">D34</f>
+        <f>D34</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan&amp;entry.876592536=Bennett</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A35," ",B35)</f>
         <v>Jo Blackman</v>
       </c>
       <c r="D35" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A35&amp;"&amp;entry.876592536="&amp;B35&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jo&amp;entry.876592536=Blackman</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="4"/>
+        <f>D35</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jo&amp;entry.876592536=Blackman</v>
       </c>
     </row>
@@ -1706,135 +1709,135 @@
         <v>5</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A36," ",B36)</f>
         <v>John Brooks</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A36&amp;"&amp;entry.876592536="&amp;B36&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=John&amp;entry.876592536=Brooks</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="4"/>
+        <f>D36</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=John&amp;entry.876592536=Brooks</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A37," ",B37)</f>
         <v>David Brown</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A37&amp;"&amp;entry.876592536="&amp;B37&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David&amp;entry.876592536=Brown</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="4"/>
+        <f>D37</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David&amp;entry.876592536=Brown</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A38," ",B38)</f>
         <v>Angela Caretti</v>
       </c>
       <c r="D38" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A38&amp;"&amp;entry.876592536="&amp;B38&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela&amp;entry.876592536=Caretti</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="4"/>
+        <f>D38</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela&amp;entry.876592536=Caretti</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="3"/>
-        <v>Michael Caretti</v>
+        <f>_xlfn.CONCAT(A39," ",B39)</f>
+        <v>Carlo Caretti</v>
       </c>
       <c r="D39" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Caretti</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A39&amp;"&amp;entry.876592536="&amp;B39&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carlo&amp;entry.876592536=Caretti</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Caretti</v>
+        <f>D39</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carlo&amp;entry.876592536=Caretti</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="3"/>
-        <v>Carlo Caretti</v>
+        <f>_xlfn.CONCAT(A40," ",B40)</f>
+        <v>Max Caretti</v>
       </c>
       <c r="D40" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carlo&amp;entry.876592536=Caretti</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A40&amp;"&amp;entry.876592536="&amp;B40&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Max&amp;entry.876592536=Caretti</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carlo&amp;entry.876592536=Caretti</v>
+        <f>D40</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Max&amp;entry.876592536=Caretti</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="3"/>
-        <v>Max Caretti</v>
+        <f>_xlfn.CONCAT(A41," ",B41)</f>
+        <v>Michael Caretti</v>
       </c>
       <c r="D41" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Max&amp;entry.876592536=Caretti</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A41&amp;"&amp;entry.876592536="&amp;B41&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Caretti</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Max&amp;entry.876592536=Caretti</v>
+        <f>D41</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Caretti</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A42," ",B42)</f>
         <v>Francesco Carpenteri</v>
       </c>
       <c r="D42" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A42&amp;"&amp;entry.876592536="&amp;B42&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Francesco&amp;entry.876592536=Carpenteri</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="4"/>
+        <f>D42</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Francesco&amp;entry.876592536=Carpenteri</v>
       </c>
     </row>
@@ -1846,335 +1849,335 @@
         <v>2</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A43," ",B43)</f>
         <v>Jakub Cerovsky</v>
       </c>
       <c r="D43" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A43&amp;"&amp;entry.876592536="&amp;B43&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jakub&amp;entry.876592536=Cerovsky</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="4"/>
+        <f>D43</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jakub&amp;entry.876592536=Cerovsky</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A44," ",B44)</f>
         <v>Yvette Chapman</v>
       </c>
       <c r="D44" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A44&amp;"&amp;entry.876592536="&amp;B44&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Yvette&amp;entry.876592536=Chapman</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="4"/>
+        <f>D44</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Yvette&amp;entry.876592536=Chapman</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A45," ",B45)</f>
         <v>Theresa Chav</v>
       </c>
       <c r="D45" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A45&amp;"&amp;entry.876592536="&amp;B45&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Theresa&amp;entry.876592536=Chav</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="4"/>
+        <f>D45</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Theresa&amp;entry.876592536=Chav</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="3"/>
-        <v>Maria Ciaramella </v>
+        <f>_xlfn.CONCAT(A46," ",B46)</f>
+        <v>Enzo Ciaramella </v>
       </c>
       <c r="D46" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maria&amp;entry.876592536=Ciaramella </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A46&amp;"&amp;entry.876592536="&amp;B46&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Enzo&amp;entry.876592536=Ciaramella </v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maria&amp;entry.876592536=Ciaramella </v>
+        <f>D46</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Enzo&amp;entry.876592536=Ciaramella </v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s">
         <v>17</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A47," ",B47)</f>
         <v>Joe Ciaramella </v>
       </c>
       <c r="D47" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A47&amp;"&amp;entry.876592536="&amp;B47&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Joe&amp;entry.876592536=Ciaramella </v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="4"/>
+        <f>D47</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Joe&amp;entry.876592536=Ciaramella </v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B48" t="s">
         <v>17</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="3"/>
-        <v>Enzo Ciaramella </v>
+        <f>_xlfn.CONCAT(A48," ",B48)</f>
+        <v>Linda Ciaramella </v>
       </c>
       <c r="D48" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Enzo&amp;entry.876592536=Ciaramella </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A48&amp;"&amp;entry.876592536="&amp;B48&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Linda&amp;entry.876592536=Ciaramella </v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Enzo&amp;entry.876592536=Ciaramella </v>
+        <f>D48</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Linda&amp;entry.876592536=Ciaramella </v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="B49" t="s">
         <v>17</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="3"/>
-        <v>Linda Ciaramella </v>
+        <f>_xlfn.CONCAT(A49," ",B49)</f>
+        <v>Maria Ciaramella </v>
       </c>
       <c r="D49" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Linda&amp;entry.876592536=Ciaramella </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A49&amp;"&amp;entry.876592536="&amp;B49&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maria&amp;entry.876592536=Ciaramella </v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Linda&amp;entry.876592536=Ciaramella </v>
+        <f>D49</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maria&amp;entry.876592536=Ciaramella </v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A50," ",B50)</f>
         <v>Allison Clark</v>
       </c>
       <c r="D50" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A50&amp;"&amp;entry.876592536="&amp;B50&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Allison&amp;entry.876592536=Clark</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="4"/>
+        <f>D50</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Allison&amp;entry.876592536=Clark</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A51," ",B51)</f>
         <v>Deanna Condo</v>
       </c>
       <c r="D51" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A51&amp;"&amp;entry.876592536="&amp;B51&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna&amp;entry.876592536=Condo</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="4"/>
+        <f>D51</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna&amp;entry.876592536=Condo</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A52," ",B52)</f>
         <v>Sam Condo</v>
       </c>
       <c r="D52" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A52&amp;"&amp;entry.876592536="&amp;B52&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam&amp;entry.876592536=Condo</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="4"/>
+        <f>D52</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam&amp;entry.876592536=Condo</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A53," ",B53)</f>
         <v>Katie Cooper</v>
       </c>
       <c r="D53" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A53&amp;"&amp;entry.876592536="&amp;B53&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Katie&amp;entry.876592536=Cooper</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="4"/>
+        <f>D53</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Katie&amp;entry.876592536=Cooper</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A54," ",B54)</f>
         <v>Indya Couzner</v>
       </c>
       <c r="D54" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A54&amp;"&amp;entry.876592536="&amp;B54&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Indya&amp;entry.876592536=Couzner</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="4"/>
+        <f>D54</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Indya&amp;entry.876592536=Couzner</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A55," ",B55)</f>
         <v>Angelo Dambrosio </v>
       </c>
       <c r="D55" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A55&amp;"&amp;entry.876592536="&amp;B55&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angelo&amp;entry.876592536=Dambrosio </v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="4"/>
+        <f>D55</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angelo&amp;entry.876592536=Dambrosio </v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A56," ",B56)</f>
         <v>Georgia Dearden</v>
       </c>
       <c r="D56" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A56&amp;"&amp;entry.876592536="&amp;B56&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia&amp;entry.876592536=Dearden</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="4"/>
+        <f>D56</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia&amp;entry.876592536=Dearden</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="3"/>
-        <v>Terriann Dearden</v>
+        <f>_xlfn.CONCAT(A57," ",B57)</f>
+        <v>Mark Dearden</v>
       </c>
       <c r="D57" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Terriann&amp;entry.876592536=Dearden</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A57&amp;"&amp;entry.876592536="&amp;B57&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mark&amp;entry.876592536=Dearden</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Terriann&amp;entry.876592536=Dearden</v>
+        <f>D57</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mark&amp;entry.876592536=Dearden</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="3"/>
-        <v>Mark Dearden</v>
+        <f>_xlfn.CONCAT(A58," ",B58)</f>
+        <v>Terriann Dearden</v>
       </c>
       <c r="D58" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mark&amp;entry.876592536=Dearden</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A58&amp;"&amp;entry.876592536="&amp;B58&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Terriann&amp;entry.876592536=Dearden</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="4"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mark&amp;entry.876592536=Dearden</v>
+        <f>D58</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Terriann&amp;entry.876592536=Dearden</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A59," ",B59)</f>
         <v>Jarrod DeVroome</v>
       </c>
       <c r="D59" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A59&amp;"&amp;entry.876592536="&amp;B59&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrod&amp;entry.876592536=DeVroome</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="4"/>
+        <f>D59</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrod&amp;entry.876592536=DeVroome</v>
       </c>
     </row>
@@ -2186,816 +2189,816 @@
         <v>8</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A60," ",B60)</f>
         <v>Ruby Dillon</v>
       </c>
       <c r="D60" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A60&amp;"&amp;entry.876592536="&amp;B60&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ruby&amp;entry.876592536=Dillon</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="4"/>
+        <f>D60</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ruby&amp;entry.876592536=Dillon</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A61," ",B61)</f>
         <v xml:space="preserve">Ella Dishnica </v>
       </c>
       <c r="D61" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A61&amp;"&amp;entry.876592536="&amp;B61&amp;"")</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella&amp;entry.876592536=Dishnica </v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="4"/>
+        <f>D61</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella&amp;entry.876592536=Dishnica </v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A62," ",B62)</f>
         <v>Emilia Djendjinovic</v>
       </c>
       <c r="D62" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A62&amp;"&amp;entry.876592536="&amp;B62&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emilia&amp;entry.876592536=Djendjinovic</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="4"/>
+        <f>D62</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emilia&amp;entry.876592536=Djendjinovic</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C63" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT(A63," ",B63)</f>
         <v>Nathan Ellis</v>
       </c>
       <c r="D63" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A63&amp;"&amp;entry.876592536="&amp;B63&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan&amp;entry.876592536=Ellis</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="4"/>
+        <f>D63</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan&amp;entry.876592536=Ellis</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Patrizia Esposito </v>
+        <f>_xlfn.CONCAT(A64," ",B64)</f>
+        <v>Anthony Esposito</v>
       </c>
       <c r="D64" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patrizia&amp;entry.876592536=Esposito </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A64&amp;"&amp;entry.876592536="&amp;B64&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony&amp;entry.876592536=Esposito</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patrizia&amp;entry.876592536=Esposito </v>
+        <f>D64</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony&amp;entry.876592536=Esposito</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B65" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">Anthony Esposito </v>
+        <f>_xlfn.CONCAT(A65," ",B65)</f>
+        <v>Julian Esposito</v>
       </c>
       <c r="D65" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony&amp;entry.876592536=Esposito </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A65&amp;"&amp;entry.876592536="&amp;B65&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Julian&amp;entry.876592536=Esposito</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony&amp;entry.876592536=Esposito </v>
+        <f>D65</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Julian&amp;entry.876592536=Esposito</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" ref="C66:C97" si="5">_xlfn.CONCAT(A66," ",B66)</f>
-        <v xml:space="preserve">Julian Esposito </v>
+        <f>_xlfn.CONCAT(A66," ",B66)</f>
+        <v>Patrizia Esposito</v>
       </c>
       <c r="D66" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Julian&amp;entry.876592536=Esposito </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A66&amp;"&amp;entry.876592536="&amp;B66&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patrizia&amp;entry.876592536=Esposito</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" ref="E66:E97" si="6">D66</f>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Julian&amp;entry.876592536=Esposito </v>
+        <f>D66</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patrizia&amp;entry.876592536=Esposito</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" si="5"/>
+        <f>_xlfn.CONCAT(A67," ",B67)</f>
         <v>Michael Fairbrother</v>
       </c>
       <c r="D67" s="2" t="str">
-        <f t="shared" ref="D67:D130" si="7">HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A67&amp;"&amp;entry.876592536="&amp;B67&amp;"")</f>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A67&amp;"&amp;entry.876592536="&amp;B67&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Fairbrother</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="6"/>
+        <f>D67</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Fairbrother</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B68" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="5"/>
+        <f>_xlfn.CONCAT(A68," ",B68)</f>
         <v>Gabe Fienemann</v>
       </c>
       <c r="D68" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A68&amp;"&amp;entry.876592536="&amp;B68&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Gabe&amp;entry.876592536=Fienemann</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="6"/>
+        <f>D68</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Gabe&amp;entry.876592536=Fienemann</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B69" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="5"/>
+        <f>_xlfn.CONCAT(A69," ",B69)</f>
         <v>Jesse Fienemann</v>
       </c>
       <c r="D69" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A69&amp;"&amp;entry.876592536="&amp;B69&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jesse&amp;entry.876592536=Fienemann</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="6"/>
+        <f>D69</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jesse&amp;entry.876592536=Fienemann</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="5"/>
-        <v>Michael Fienemann </v>
+        <f>_xlfn.CONCAT(A70," ",B70)</f>
+        <v>Loretta Fienemann </v>
       </c>
       <c r="D70" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Fienemann </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A70&amp;"&amp;entry.876592536="&amp;B70&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Loretta&amp;entry.876592536=Fienemann </v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="6"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Fienemann </v>
+        <f>D70</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Loretta&amp;entry.876592536=Fienemann </v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="5"/>
-        <v>Loretta Fienemann </v>
+        <f>_xlfn.CONCAT(A71," ",B71)</f>
+        <v>Michael Fienemann </v>
       </c>
       <c r="D71" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Loretta&amp;entry.876592536=Fienemann </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A71&amp;"&amp;entry.876592536="&amp;B71&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Fienemann </v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="6"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Loretta&amp;entry.876592536=Fienemann </v>
+        <f>D71</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Fienemann </v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve">Maddie Fitzgerald </v>
+        <f>_xlfn.CONCAT(A72," ",B72)</f>
+        <v>Maddie Fitzgerald</v>
       </c>
       <c r="D72" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maddie&amp;entry.876592536=Fitzgerald </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A72&amp;"&amp;entry.876592536="&amp;B72&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maddie&amp;entry.876592536=Fitzgerald</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="6"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maddie&amp;entry.876592536=Fitzgerald </v>
+        <f>D72</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maddie&amp;entry.876592536=Fitzgerald</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="5"/>
+        <f>_xlfn.CONCAT(A73," ",B73)</f>
         <v xml:space="preserve">Cooper Fitzgerald </v>
       </c>
       <c r="D73" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A73&amp;"&amp;entry.876592536="&amp;B73&amp;"")</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Cooper&amp;entry.876592536=Fitzgerald </v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="6"/>
+        <f>D73</f>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Cooper&amp;entry.876592536=Fitzgerald </v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="5"/>
+        <f>_xlfn.CONCAT(A74," ",B74)</f>
         <v>Osman Fofana</v>
       </c>
       <c r="D74" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A74&amp;"&amp;entry.876592536="&amp;B74&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Osman&amp;entry.876592536=Fofana</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="6"/>
+        <f>D74</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Osman&amp;entry.876592536=Fofana</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
         <v>19</v>
       </c>
-      <c r="B75" t="s">
-        <v>20</v>
-      </c>
       <c r="C75" t="str">
-        <f t="shared" si="5"/>
+        <f>_xlfn.CONCAT(A75," ",B75)</f>
         <v>Betty Francesca </v>
       </c>
       <c r="D75" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A75&amp;"&amp;entry.876592536="&amp;B75&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Betty&amp;entry.876592536=Francesca </v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="6"/>
+        <f>D75</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Betty&amp;entry.876592536=Francesca </v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="5"/>
+        <f>_xlfn.CONCAT(A76," ",B76)</f>
         <v>Vince Francesca </v>
       </c>
       <c r="D76" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A76&amp;"&amp;entry.876592536="&amp;B76&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vince&amp;entry.876592536=Francesca </v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="6"/>
+        <f>D76</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vince&amp;entry.876592536=Francesca </v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="5"/>
+        <f>_xlfn.CONCAT(A77," ",B77)</f>
         <v>Colin Goldsworthy</v>
       </c>
       <c r="D77" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A77&amp;"&amp;entry.876592536="&amp;B77&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Colin&amp;entry.876592536=Goldsworthy</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="6"/>
+        <f>D77</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Colin&amp;entry.876592536=Goldsworthy</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="5"/>
+        <f>_xlfn.CONCAT(A78," ",B78)</f>
         <v>George Grant</v>
       </c>
       <c r="D78" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A78&amp;"&amp;entry.876592536="&amp;B78&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=George&amp;entry.876592536=Grant</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="6"/>
+        <f>D78</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=George&amp;entry.876592536=Grant</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B79" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="5"/>
+        <f>_xlfn.CONCAT(A79," ",B79)</f>
         <v>Georgia Hayley</v>
       </c>
       <c r="D79" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A79&amp;"&amp;entry.876592536="&amp;B79&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia&amp;entry.876592536=Hayley</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="6"/>
+        <f>D79</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia&amp;entry.876592536=Hayley</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="5"/>
+        <f>_xlfn.CONCAT(A80," ",B80)</f>
         <v>Tyson Herraman</v>
       </c>
       <c r="D80" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A80&amp;"&amp;entry.876592536="&amp;B80&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson&amp;entry.876592536=Herraman</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="6"/>
+        <f>D80</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson&amp;entry.876592536=Herraman</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B81" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" si="5"/>
-        <v>Sanja Hogarth</v>
+        <f>_xlfn.CONCAT(A81," ",B81)</f>
+        <v>Ben Hogarth</v>
       </c>
       <c r="D81" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sanja&amp;entry.876592536=Hogarth</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A81&amp;"&amp;entry.876592536="&amp;B81&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben&amp;entry.876592536=Hogarth</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="6"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sanja&amp;entry.876592536=Hogarth</v>
+        <f>D81</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben&amp;entry.876592536=Hogarth</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B82" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" si="5"/>
-        <v>Ben Hogarth</v>
+        <f>_xlfn.CONCAT(A82," ",B82)</f>
+        <v>Estela Hogarth</v>
       </c>
       <c r="D82" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben&amp;entry.876592536=Hogarth</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A82&amp;"&amp;entry.876592536="&amp;B82&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Estela&amp;entry.876592536=Hogarth</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="6"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben&amp;entry.876592536=Hogarth</v>
+        <f>D82</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Estela&amp;entry.876592536=Hogarth</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" si="5"/>
-        <v>Estela Hogarth</v>
+        <f>_xlfn.CONCAT(A83," ",B83)</f>
+        <v>Noa Hogarth</v>
       </c>
       <c r="D83" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Estela&amp;entry.876592536=Hogarth</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A83&amp;"&amp;entry.876592536="&amp;B83&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Noa&amp;entry.876592536=Hogarth</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="6"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Estela&amp;entry.876592536=Hogarth</v>
+        <f>D83</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Noa&amp;entry.876592536=Hogarth</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B84" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="5"/>
-        <v>Noa Hogarth</v>
+        <f>_xlfn.CONCAT(A84," ",B84)</f>
+        <v>Oliver Hogarth</v>
       </c>
       <c r="D84" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Noa&amp;entry.876592536=Hogarth</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A84&amp;"&amp;entry.876592536="&amp;B84&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Oliver&amp;entry.876592536=Hogarth</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="6"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Noa&amp;entry.876592536=Hogarth</v>
+        <f>D84</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Oliver&amp;entry.876592536=Hogarth</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B85" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" si="5"/>
-        <v>Oliver Hogarth</v>
+        <f>_xlfn.CONCAT(A85," ",B85)</f>
+        <v>Sanja Hogarth</v>
       </c>
       <c r="D85" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Oliver&amp;entry.876592536=Hogarth</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A85&amp;"&amp;entry.876592536="&amp;B85&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sanja&amp;entry.876592536=Hogarth</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="6"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Oliver&amp;entry.876592536=Hogarth</v>
+        <f>D85</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sanja&amp;entry.876592536=Hogarth</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B86" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" si="5"/>
+        <f>_xlfn.CONCAT(A86," ",B86)</f>
         <v>Kyle Jordan</v>
       </c>
       <c r="D86" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A86&amp;"&amp;entry.876592536="&amp;B86&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Kyle&amp;entry.876592536=Jordan</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="6"/>
+        <f>D86</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Kyle&amp;entry.876592536=Jordan</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" si="5"/>
-        <v>Andrijana Jovic</v>
+        <f>_xlfn.CONCAT(A87," ",B87)</f>
+        <v>Andjela Jovic</v>
       </c>
       <c r="D87" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andrijana&amp;entry.876592536=Jovic</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A87&amp;"&amp;entry.876592536="&amp;B87&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andjela&amp;entry.876592536=Jovic</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="6"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andrijana&amp;entry.876592536=Jovic</v>
+        <f>D87</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andjela&amp;entry.876592536=Jovic</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" si="5"/>
-        <v>Andjela Jovic</v>
+        <f>_xlfn.CONCAT(A88," ",B88)</f>
+        <v>Andrijana Jovic</v>
       </c>
       <c r="D88" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andjela&amp;entry.876592536=Jovic</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A88&amp;"&amp;entry.876592536="&amp;B88&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andrijana&amp;entry.876592536=Jovic</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="6"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andjela&amp;entry.876592536=Jovic</v>
+        <f>D88</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andrijana&amp;entry.876592536=Jovic</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="5"/>
+        <f>_xlfn.CONCAT(A89," ",B89)</f>
         <v>Hannah Justins</v>
       </c>
       <c r="D89" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A89&amp;"&amp;entry.876592536="&amp;B89&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah&amp;entry.876592536=Justins</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="6"/>
+        <f>D89</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah&amp;entry.876592536=Justins</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B90" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" si="5"/>
+        <f>_xlfn.CONCAT(A90," ",B90)</f>
         <v>Tyson Klingner</v>
       </c>
       <c r="D90" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A90&amp;"&amp;entry.876592536="&amp;B90&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson&amp;entry.876592536=Klingner</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="6"/>
+        <f>D90</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson&amp;entry.876592536=Klingner</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" si="5"/>
+        <f>_xlfn.CONCAT(A91," ",B91)</f>
         <v>Sarah Lacanale</v>
       </c>
       <c r="D91" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A91&amp;"&amp;entry.876592536="&amp;B91&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah&amp;entry.876592536=Lacanale</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="6"/>
+        <f>D91</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah&amp;entry.876592536=Lacanale</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B92" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" si="5"/>
+        <f>_xlfn.CONCAT(A92," ",B92)</f>
         <v>Daniel Laczko</v>
       </c>
       <c r="D92" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A92&amp;"&amp;entry.876592536="&amp;B92&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel&amp;entry.876592536=Laczko</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="6"/>
+        <f>D92</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel&amp;entry.876592536=Laczko</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" si="5"/>
+        <f>_xlfn.CONCAT(A93," ",B93)</f>
         <v>Ella Langford</v>
       </c>
       <c r="D93" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A93&amp;"&amp;entry.876592536="&amp;B93&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella&amp;entry.876592536=Langford</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="6"/>
+        <f>D93</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella&amp;entry.876592536=Langford</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" si="5"/>
-        <v>Ty Langford</v>
+        <f>_xlfn.CONCAT(A94," ",B94)</f>
+        <v>Jack Lovett</v>
       </c>
       <c r="D94" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ty&amp;entry.876592536=Langford</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A94&amp;"&amp;entry.876592536="&amp;B94&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack&amp;entry.876592536=Lovett</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="6"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ty&amp;entry.876592536=Langford</v>
+        <f>D94</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack&amp;entry.876592536=Lovett</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="B95" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" si="5"/>
-        <v>Jack Lovett</v>
+        <f>_xlfn.CONCAT(A95," ",B95)</f>
+        <v>Daniel Mackenzie</v>
       </c>
       <c r="D95" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack&amp;entry.876592536=Lovett</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A95&amp;"&amp;entry.876592536="&amp;B95&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel&amp;entry.876592536=Mackenzie</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="6"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack&amp;entry.876592536=Lovett</v>
+        <f>D95</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel&amp;entry.876592536=Mackenzie</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C96" t="str">
-        <f t="shared" si="5"/>
-        <v>Isaac Mackenzie</v>
+        <f>_xlfn.CONCAT(A96," ",B96)</f>
+        <v>Hannah Mackenzie</v>
       </c>
       <c r="D96" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Isaac&amp;entry.876592536=Mackenzie</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A96&amp;"&amp;entry.876592536="&amp;B96&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah&amp;entry.876592536=Mackenzie</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="6"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Isaac&amp;entry.876592536=Mackenzie</v>
+        <f>D96</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah&amp;entry.876592536=Mackenzie</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="B97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" si="5"/>
-        <v>Daniel Mackenzie</v>
+        <f>_xlfn.CONCAT(A97," ",B97)</f>
+        <v>Isaac Mackenzie</v>
       </c>
       <c r="D97" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel&amp;entry.876592536=Mackenzie</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A97&amp;"&amp;entry.876592536="&amp;B97&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Isaac&amp;entry.876592536=Mackenzie</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="6"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel&amp;entry.876592536=Mackenzie</v>
+        <f>D97</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Isaac&amp;entry.876592536=Mackenzie</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="B98" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" ref="C98:C129" si="8">_xlfn.CONCAT(A98," ",B98)</f>
-        <v>Hannah Mackenzie</v>
+        <f>_xlfn.CONCAT(A98," ",B98)</f>
+        <v>Jacob Mackenzie</v>
       </c>
       <c r="D98" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah&amp;entry.876592536=Mackenzie</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A98&amp;"&amp;entry.876592536="&amp;B98&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jacob&amp;entry.876592536=Mackenzie</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" ref="E98:E129" si="9">D98</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah&amp;entry.876592536=Mackenzie</v>
+        <f>D98</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jacob&amp;entry.876592536=Mackenzie</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="B99" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" si="8"/>
-        <v>Jacob Mackenzie</v>
+        <f>_xlfn.CONCAT(A99," ",B99)</f>
+        <v>Bonnie Majda</v>
       </c>
       <c r="D99" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jacob&amp;entry.876592536=Mackenzie</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A99&amp;"&amp;entry.876592536="&amp;B99&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bonnie&amp;entry.876592536=Majda</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="9"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jacob&amp;entry.876592536=Mackenzie</v>
+        <f>D99</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bonnie&amp;entry.876592536=Majda</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>186</v>
-      </c>
-      <c r="B100" t="s">
+        <v>189</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C100" t="str">
-        <f t="shared" si="8"/>
-        <v>Bonnie Majda</v>
+        <f>_xlfn.CONCAT(A100," ",B100)</f>
+        <v>Henry Majda</v>
       </c>
       <c r="D100" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bonnie&amp;entry.876592536=Majda</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A100&amp;"&amp;entry.876592536="&amp;B100&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Henry&amp;entry.876592536=Majda</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="9"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bonnie&amp;entry.876592536=Majda</v>
+        <f>D100</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Henry&amp;entry.876592536=Majda</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
@@ -3006,376 +3009,376 @@
         <v>10</v>
       </c>
       <c r="C101" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT(A101," ",B101)</f>
         <v>Jarrad Majda</v>
       </c>
       <c r="D101" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A101&amp;"&amp;entry.876592536="&amp;B101&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrad&amp;entry.876592536=Majda</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="9"/>
+        <f>D101</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrad&amp;entry.876592536=Majda</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>193</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>10</v>
+        <v>68</v>
+      </c>
+      <c r="B102" t="s">
+        <v>69</v>
       </c>
       <c r="C102" t="str">
-        <f t="shared" si="8"/>
-        <v>Henry Majda</v>
+        <f>_xlfn.CONCAT(A102," ",B102)</f>
+        <v>Dan Malone</v>
       </c>
       <c r="D102" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Henry&amp;entry.876592536=Majda</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A102&amp;"&amp;entry.876592536="&amp;B102&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Dan&amp;entry.876592536=Malone</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="9"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Henry&amp;entry.876592536=Majda</v>
+        <f>D102</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Dan&amp;entry.876592536=Malone</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B103" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C103" t="str">
-        <f t="shared" si="8"/>
-        <v>Dan Malone</v>
+        <f>_xlfn.CONCAT(A103," ",B103)</f>
+        <v xml:space="preserve">Tiana Marcellino </v>
       </c>
       <c r="D103" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Dan&amp;entry.876592536=Malone</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A103&amp;"&amp;entry.876592536="&amp;B103&amp;"")</f>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tiana&amp;entry.876592536=Marcellino </v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="9"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Dan&amp;entry.876592536=Malone</v>
+        <f>D103</f>
+        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tiana&amp;entry.876592536=Marcellino </v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="B104" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="C104" t="str">
-        <f t="shared" si="8"/>
-        <v xml:space="preserve">Tiana Marcellino </v>
+        <f>_xlfn.CONCAT(A104," ",B104)</f>
+        <v>Daniel Markos</v>
       </c>
       <c r="D104" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tiana&amp;entry.876592536=Marcellino </v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A104&amp;"&amp;entry.876592536="&amp;B104&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel&amp;entry.876592536=Markos</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="9"/>
-        <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tiana&amp;entry.876592536=Marcellino </v>
+        <f>D104</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel&amp;entry.876592536=Markos</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B105" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C105" t="str">
-        <f t="shared" si="8"/>
-        <v>Daniel Markos</v>
+        <f>_xlfn.CONCAT(A105," ",B105)</f>
+        <v>Lachlan McCarthy</v>
       </c>
       <c r="D105" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel&amp;entry.876592536=Markos</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A105&amp;"&amp;entry.876592536="&amp;B105&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lachlan&amp;entry.876592536=McCarthy</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="9"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel&amp;entry.876592536=Markos</v>
+        <f>D105</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lachlan&amp;entry.876592536=McCarthy</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C106" t="str">
-        <f t="shared" si="8"/>
-        <v>Lachlan McCarthy</v>
+        <f>_xlfn.CONCAT(A106," ",B106)</f>
+        <v>Tony Nicolas</v>
       </c>
       <c r="D106" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lachlan&amp;entry.876592536=McCarthy</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A106&amp;"&amp;entry.876592536="&amp;B106&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tony&amp;entry.876592536=Nicolas</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="9"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lachlan&amp;entry.876592536=McCarthy</v>
+        <f>D106</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tony&amp;entry.876592536=Nicolas</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="B107" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="C107" t="str">
-        <f t="shared" si="8"/>
-        <v>Tony Nicolas</v>
+        <f>_xlfn.CONCAT(A107," ",B107)</f>
+        <v>Ronan O'Brien</v>
       </c>
       <c r="D107" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tony&amp;entry.876592536=Nicolas</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A107&amp;"&amp;entry.876592536="&amp;B107&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ronan&amp;entry.876592536=O'Brien</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="9"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tony&amp;entry.876592536=Nicolas</v>
+        <f>D107</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ronan&amp;entry.876592536=O'Brien</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="B108" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="C108" t="str">
-        <f t="shared" si="8"/>
-        <v>Ronan O'Brien</v>
+        <f>_xlfn.CONCAT(A108," ",B108)</f>
+        <v>Friday Paddick</v>
       </c>
       <c r="D108" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ronan&amp;entry.876592536=O'Brien</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A108&amp;"&amp;entry.876592536="&amp;B108&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Friday&amp;entry.876592536=Paddick</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="9"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ronan&amp;entry.876592536=O'Brien</v>
+        <f>D108</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Friday&amp;entry.876592536=Paddick</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
       </c>
       <c r="C109" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT(A109," ",B109)</f>
         <v>Johanna Paddick</v>
       </c>
       <c r="D109" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A109&amp;"&amp;entry.876592536="&amp;B109&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Johanna&amp;entry.876592536=Paddick</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="9"/>
+        <f>D109</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Johanna&amp;entry.876592536=Paddick</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
       </c>
       <c r="C110" t="str">
-        <f t="shared" si="8"/>
-        <v>Sarah Paddick</v>
+        <f>_xlfn.CONCAT(A110," ",B110)</f>
+        <v>Patricia Paddick</v>
       </c>
       <c r="D110" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah&amp;entry.876592536=Paddick</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A110&amp;"&amp;entry.876592536="&amp;B110&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patricia&amp;entry.876592536=Paddick</v>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="9"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah&amp;entry.876592536=Paddick</v>
+        <f>D110</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patricia&amp;entry.876592536=Paddick</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
       </c>
       <c r="C111" t="str">
-        <f t="shared" si="8"/>
-        <v>Patricia Paddick</v>
+        <f>_xlfn.CONCAT(A111," ",B111)</f>
+        <v>Sarah Paddick</v>
       </c>
       <c r="D111" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patricia&amp;entry.876592536=Paddick</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A111&amp;"&amp;entry.876592536="&amp;B111&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah&amp;entry.876592536=Paddick</v>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="9"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patricia&amp;entry.876592536=Paddick</v>
+        <f>D111</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah&amp;entry.876592536=Paddick</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B112" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C112" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT(A112," ",B112)</f>
         <v>Jake Pajer</v>
       </c>
       <c r="D112" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A112&amp;"&amp;entry.876592536="&amp;B112&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jake&amp;entry.876592536=Pajer</v>
       </c>
       <c r="E112" t="str">
-        <f t="shared" si="9"/>
+        <f>D112</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jake&amp;entry.876592536=Pajer</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
       </c>
       <c r="C113" t="str">
-        <f t="shared" si="8"/>
-        <v>Rino Parrella</v>
+        <f>_xlfn.CONCAT(A113," ",B113)</f>
+        <v>Carolyn Parrella</v>
       </c>
       <c r="D113" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rino&amp;entry.876592536=Parrella</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A113&amp;"&amp;entry.876592536="&amp;B113&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carolyn&amp;entry.876592536=Parrella</v>
       </c>
       <c r="E113" t="str">
-        <f t="shared" si="9"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rino&amp;entry.876592536=Parrella</v>
+        <f>D113</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carolyn&amp;entry.876592536=Parrella</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
       </c>
       <c r="C114" t="str">
-        <f t="shared" si="8"/>
-        <v>Carolyn Parrella</v>
+        <f>_xlfn.CONCAT(A114," ",B114)</f>
+        <v>Luca Parrella</v>
       </c>
       <c r="D114" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carolyn&amp;entry.876592536=Parrella</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A114&amp;"&amp;entry.876592536="&amp;B114&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Luca&amp;entry.876592536=Parrella</v>
       </c>
       <c r="E114" t="str">
-        <f t="shared" si="9"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carolyn&amp;entry.876592536=Parrella</v>
+        <f>D114</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Luca&amp;entry.876592536=Parrella</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
       </c>
       <c r="C115" t="str">
-        <f t="shared" si="8"/>
-        <v>Luca Parrella</v>
+        <f>_xlfn.CONCAT(A115," ",B115)</f>
+        <v>Rino Parrella</v>
       </c>
       <c r="D115" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Luca&amp;entry.876592536=Parrella</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A115&amp;"&amp;entry.876592536="&amp;B115&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rino&amp;entry.876592536=Parrella</v>
       </c>
       <c r="E115" t="str">
-        <f t="shared" si="9"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Luca&amp;entry.876592536=Parrella</v>
+        <f>D115</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rino&amp;entry.876592536=Parrella</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
       </c>
       <c r="C116" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT(A116," ",B116)</f>
         <v>Sam Parrella</v>
       </c>
       <c r="D116" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A116&amp;"&amp;entry.876592536="&amp;B116&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam&amp;entry.876592536=Parrella</v>
       </c>
       <c r="E116" t="str">
-        <f t="shared" si="9"/>
+        <f>D116</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam&amp;entry.876592536=Parrella</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B117" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C117" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT(A117," ",B117)</f>
         <v>Sonita Phin</v>
       </c>
       <c r="D117" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A117&amp;"&amp;entry.876592536="&amp;B117&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sonita&amp;entry.876592536=Phin</v>
       </c>
       <c r="E117" t="str">
-        <f t="shared" si="9"/>
+        <f>D117</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sonita&amp;entry.876592536=Phin</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C118" t="str">
-        <f t="shared" si="8"/>
-        <v>Vlasta Plavsic</v>
+        <f>_xlfn.CONCAT(A118," ",B118)</f>
+        <v>Ivica Plavsic</v>
       </c>
       <c r="D118" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vlasta&amp;entry.876592536=Plavsic</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A118&amp;"&amp;entry.876592536="&amp;B118&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ivica&amp;entry.876592536=Plavsic</v>
       </c>
       <c r="E118" t="str">
-        <f t="shared" si="9"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vlasta&amp;entry.876592536=Plavsic</v>
+        <f>D118</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ivica&amp;entry.876592536=Plavsic</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C119" t="str">
-        <f t="shared" si="8"/>
-        <v>Ivica Plavsic</v>
+        <f>_xlfn.CONCAT(A119," ",B119)</f>
+        <v>Vlasta Plavsic</v>
       </c>
       <c r="D119" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ivica&amp;entry.876592536=Plavsic</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A119&amp;"&amp;entry.876592536="&amp;B119&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vlasta&amp;entry.876592536=Plavsic</v>
       </c>
       <c r="E119" t="str">
-        <f t="shared" si="9"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ivica&amp;entry.876592536=Plavsic</v>
+        <f>D119</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vlasta&amp;entry.876592536=Plavsic</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
@@ -3386,35 +3389,35 @@
         <v>14</v>
       </c>
       <c r="C120" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT(A120," ",B120)</f>
         <v>Feza Ramadhani</v>
       </c>
       <c r="D120" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A120&amp;"&amp;entry.876592536="&amp;B120&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Feza&amp;entry.876592536=Ramadhani</v>
       </c>
       <c r="E120" t="str">
-        <f t="shared" si="9"/>
+        <f>D120</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Feza&amp;entry.876592536=Ramadhani</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B121" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C121" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT(A121," ",B121)</f>
         <v>Chloe Robinson</v>
       </c>
       <c r="D121" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A121&amp;"&amp;entry.876592536="&amp;B121&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Chloe&amp;entry.876592536=Robinson</v>
       </c>
       <c r="E121" t="str">
-        <f t="shared" si="9"/>
+        <f>D121</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Chloe&amp;entry.876592536=Robinson</v>
       </c>
     </row>
@@ -3426,256 +3429,256 @@
         <v>16</v>
       </c>
       <c r="C122" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT(A122," ",B122)</f>
         <v>Bojan Ruvidic</v>
       </c>
       <c r="D122" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A122&amp;"&amp;entry.876592536="&amp;B122&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bojan&amp;entry.876592536=Ruvidic</v>
       </c>
       <c r="E122" t="str">
-        <f t="shared" si="9"/>
+        <f>D122</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bojan&amp;entry.876592536=Ruvidic</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B123" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C123" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT(A123," ",B123)</f>
         <v>Zeena Saad</v>
       </c>
       <c r="D123" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A123&amp;"&amp;entry.876592536="&amp;B123&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Zeena&amp;entry.876592536=Saad</v>
       </c>
       <c r="E123" t="str">
-        <f t="shared" si="9"/>
+        <f>D123</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Zeena&amp;entry.876592536=Saad</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B124" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C124" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT(A124," ",B124)</f>
         <v>Brea Schultz</v>
       </c>
       <c r="D124" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A124&amp;"&amp;entry.876592536="&amp;B124&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Brea&amp;entry.876592536=Schultz</v>
       </c>
       <c r="E124" t="str">
-        <f t="shared" si="9"/>
+        <f>D124</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Brea&amp;entry.876592536=Schultz</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B125" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C125" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT(A125," ",B125)</f>
         <v>Bridget Smart</v>
       </c>
       <c r="D125" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A125&amp;"&amp;entry.876592536="&amp;B125&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bridget&amp;entry.876592536=Smart</v>
       </c>
       <c r="E125" t="str">
-        <f t="shared" si="9"/>
+        <f>D125</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bridget&amp;entry.876592536=Smart</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B126" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C126" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT(A126," ",B126)</f>
         <v>Iva Sorsa-Sunic</v>
       </c>
       <c r="D126" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A126&amp;"&amp;entry.876592536="&amp;B126&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Iva&amp;entry.876592536=Sorsa-Sunic</v>
       </c>
       <c r="E126" t="str">
-        <f t="shared" si="9"/>
+        <f>D126</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Iva&amp;entry.876592536=Sorsa-Sunic</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B127" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C127" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT(A127," ",B127)</f>
         <v>Duane Stewart</v>
       </c>
       <c r="D127" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A127&amp;"&amp;entry.876592536="&amp;B127&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Duane&amp;entry.876592536=Stewart</v>
       </c>
       <c r="E127" t="str">
-        <f t="shared" si="9"/>
+        <f>D127</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Duane&amp;entry.876592536=Stewart</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B128" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C128" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT(A128," ",B128)</f>
         <v>Nicki Stewart</v>
       </c>
       <c r="D128" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A128&amp;"&amp;entry.876592536="&amp;B128&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nicki&amp;entry.876592536=Stewart</v>
       </c>
       <c r="E128" t="str">
-        <f t="shared" si="9"/>
+        <f>D128</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nicki&amp;entry.876592536=Stewart</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C129" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT(A129," ",B129)</f>
         <v>Ellen Veronica</v>
       </c>
       <c r="D129" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A129&amp;"&amp;entry.876592536="&amp;B129&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ellen&amp;entry.876592536=Veronica</v>
       </c>
       <c r="E129" t="str">
-        <f t="shared" si="9"/>
+        <f>D129</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ellen&amp;entry.876592536=Veronica</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B130" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C130" t="str">
-        <f t="shared" ref="C130:C134" si="10">_xlfn.CONCAT(A130," ",B130)</f>
+        <f>_xlfn.CONCAT(A130," ",B130)</f>
         <v>Elie Walsh</v>
       </c>
       <c r="D130" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A130&amp;"&amp;entry.876592536="&amp;B130&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Elie&amp;entry.876592536=Walsh</v>
       </c>
       <c r="E130" t="str">
-        <f t="shared" ref="E130:E134" si="11">D130</f>
+        <f>D130</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Elie&amp;entry.876592536=Walsh</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B131" t="s">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" si="10"/>
-        <v>Josh Watts</v>
+        <f>_xlfn.CONCAT(A131," ",B131)</f>
+        <v>Josh Watt</v>
       </c>
       <c r="D131" s="2" t="str">
-        <f t="shared" ref="D131:D134" si="12">HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A131&amp;"&amp;entry.876592536="&amp;B131&amp;"")</f>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Josh&amp;entry.876592536=Watts</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A131&amp;"&amp;entry.876592536="&amp;B131&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Josh&amp;entry.876592536=Watt</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" si="11"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Josh&amp;entry.876592536=Watts</v>
+        <f>D131</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Josh&amp;entry.876592536=Watt</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B132" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C132" t="str">
-        <f t="shared" si="10"/>
+        <f>_xlfn.CONCAT(A132," ",B132)</f>
         <v>David White</v>
       </c>
       <c r="D132" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A132&amp;"&amp;entry.876592536="&amp;B132&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David&amp;entry.876592536=White</v>
       </c>
       <c r="E132" t="str">
-        <f t="shared" si="11"/>
+        <f>D132</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David&amp;entry.876592536=White</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B133" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C133" t="str">
-        <f t="shared" si="10"/>
-        <v>Peter Zille</v>
+        <f>_xlfn.CONCAT(A133," ",B133)</f>
+        <v>Megan Zille</v>
       </c>
       <c r="D133" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Peter&amp;entry.876592536=Zille</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A133&amp;"&amp;entry.876592536="&amp;B133&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Megan&amp;entry.876592536=Zille</v>
       </c>
       <c r="E133" t="str">
-        <f t="shared" si="11"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Peter&amp;entry.876592536=Zille</v>
+        <f>D133</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Megan&amp;entry.876592536=Zille</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B134" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C134" t="str">
-        <f t="shared" si="10"/>
-        <v>Megan Zille</v>
+        <f>_xlfn.CONCAT(A134," ",B134)</f>
+        <v>Peter Zille</v>
       </c>
       <c r="D134" s="2" t="str">
-        <f t="shared" si="12"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Megan&amp;entry.876592536=Zille</v>
+        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A134&amp;"&amp;entry.876592536="&amp;B134&amp;"")</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Peter&amp;entry.876592536=Zille</v>
       </c>
       <c r="E134" t="str">
-        <f t="shared" si="11"/>
-        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Megan&amp;entry.876592536=Zille</v>
+        <f>D134</f>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Peter&amp;entry.876592536=Zille</v>
       </c>
     </row>
   </sheetData>

--- a/guestListClean.xlsx
+++ b/guestListClean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90401ea6d03969b8/Wedding Planning/Website/antonioParrellaTaraArdalich.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{0C9BC712-4A17-4D9F-A686-E20E30D9F9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D77949FB-4781-426E-B772-EB08EAFD4E80}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{0C9BC712-4A17-4D9F-A686-E20E30D9F9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0389B6D-E473-4B58-ACA3-42974398E2EA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{9E44B2A9-BD8D-43D7-940F-C76D874B60BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="196">
   <si>
     <t>Ardalich</t>
   </si>
@@ -621,13 +621,16 @@
   </si>
   <si>
     <t>Anastasi</t>
+  </si>
+  <si>
+    <t>Sue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,6 +645,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFF8F8F2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -671,10 +680,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -990,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4DAA24-DD25-4F41-919B-14913DE0CE7B}">
-  <dimension ref="A1:E134"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1029,15 +1041,15 @@
         <v>39</v>
       </c>
       <c r="C2" t="str">
-        <f>_xlfn.CONCAT(A2," ",B2)</f>
+        <f t="shared" ref="C2:C33" si="0">_xlfn.CONCAT(A2," ",B2)</f>
         <v>Will Allan</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A2&amp;"&amp;entry.876592536="&amp;B2&amp;"")</f>
+        <f t="shared" ref="D2:D33" si="1">HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A2&amp;"&amp;entry.876592536="&amp;B2&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Will&amp;entry.876592536=Allan</v>
       </c>
       <c r="E2" t="str">
-        <f>D2</f>
+        <f t="shared" ref="E2:E33" si="2">D2</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Will&amp;entry.876592536=Allan</v>
       </c>
     </row>
@@ -1049,15 +1061,15 @@
         <v>56</v>
       </c>
       <c r="C3" t="str">
-        <f>_xlfn.CONCAT(A3," ",B3)</f>
+        <f t="shared" si="0"/>
         <v>Aimee Alley</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A3&amp;"&amp;entry.876592536="&amp;B3&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Aimee&amp;entry.876592536=Alley</v>
       </c>
       <c r="E3" t="str">
-        <f>D3</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Aimee&amp;entry.876592536=Alley</v>
       </c>
     </row>
@@ -1069,15 +1081,15 @@
         <v>22</v>
       </c>
       <c r="C4" t="str">
-        <f>_xlfn.CONCAT(A4," ",B4)</f>
+        <f t="shared" si="0"/>
         <v>Anthony Altamura</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A4&amp;"&amp;entry.876592536="&amp;B4&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony&amp;entry.876592536=Altamura</v>
       </c>
       <c r="E4" t="str">
-        <f>D4</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony&amp;entry.876592536=Altamura</v>
       </c>
     </row>
@@ -1089,15 +1101,15 @@
         <v>22</v>
       </c>
       <c r="C5" t="str">
-        <f>_xlfn.CONCAT(A5," ",B5)</f>
+        <f t="shared" si="0"/>
         <v>David Altamura</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A5&amp;"&amp;entry.876592536="&amp;B5&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David&amp;entry.876592536=Altamura</v>
       </c>
       <c r="E5" t="str">
-        <f>D5</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David&amp;entry.876592536=Altamura</v>
       </c>
     </row>
@@ -1109,15 +1121,15 @@
         <v>22</v>
       </c>
       <c r="C6" t="str">
-        <f>_xlfn.CONCAT(A6," ",B6)</f>
+        <f t="shared" si="0"/>
         <v>Judy Altamura</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A6&amp;"&amp;entry.876592536="&amp;B6&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Judy&amp;entry.876592536=Altamura</v>
       </c>
       <c r="E6" t="str">
-        <f>D6</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Judy&amp;entry.876592536=Altamura</v>
       </c>
     </row>
@@ -1129,15 +1141,15 @@
         <v>22</v>
       </c>
       <c r="C7" t="str">
-        <f>_xlfn.CONCAT(A7," ",B7)</f>
+        <f t="shared" si="0"/>
         <v>Mathew Altamura</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A7&amp;"&amp;entry.876592536="&amp;B7&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mathew&amp;entry.876592536=Altamura</v>
       </c>
       <c r="E7" t="str">
-        <f>D7</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mathew&amp;entry.876592536=Altamura</v>
       </c>
     </row>
@@ -1149,15 +1161,15 @@
         <v>22</v>
       </c>
       <c r="C8" t="str">
-        <f>_xlfn.CONCAT(A8," ",B8)</f>
+        <f t="shared" si="0"/>
         <v>Pat Altamura</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A8&amp;"&amp;entry.876592536="&amp;B8&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pat&amp;entry.876592536=Altamura</v>
       </c>
       <c r="E8" t="str">
-        <f>D8</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pat&amp;entry.876592536=Altamura</v>
       </c>
     </row>
@@ -1169,15 +1181,15 @@
         <v>22</v>
       </c>
       <c r="C9" t="str">
-        <f>_xlfn.CONCAT(A9," ",B9)</f>
+        <f t="shared" si="0"/>
         <v>Sarah Altamura</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A9&amp;"&amp;entry.876592536="&amp;B9&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah&amp;entry.876592536=Altamura</v>
       </c>
       <c r="E9" t="str">
-        <f>D9</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah&amp;entry.876592536=Altamura</v>
       </c>
     </row>
@@ -1189,15 +1201,15 @@
         <v>22</v>
       </c>
       <c r="C10" t="str">
-        <f>_xlfn.CONCAT(A10," ",B10)</f>
+        <f t="shared" si="0"/>
         <v>Selina Altamura</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A10&amp;"&amp;entry.876592536="&amp;B10&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Selina&amp;entry.876592536=Altamura</v>
       </c>
       <c r="E10" t="str">
-        <f>D10</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Selina&amp;entry.876592536=Altamura</v>
       </c>
     </row>
@@ -1209,15 +1221,15 @@
         <v>27</v>
       </c>
       <c r="C11" t="str">
-        <f>_xlfn.CONCAT(A11," ",B11)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Juvena Altamura </v>
       </c>
       <c r="D11" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A11&amp;"&amp;entry.876592536="&amp;B11&amp;"")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Juvena&amp;entry.876592536=Altamura </v>
       </c>
       <c r="E11" t="str">
-        <f>D11</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Juvena&amp;entry.876592536=Altamura </v>
       </c>
     </row>
@@ -1229,15 +1241,15 @@
         <v>27</v>
       </c>
       <c r="C12" t="str">
-        <f>_xlfn.CONCAT(A12," ",B12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Michael Altamura </v>
       </c>
       <c r="D12" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A12&amp;"&amp;entry.876592536="&amp;B12&amp;"")</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Altamura </v>
       </c>
       <c r="E12" t="str">
-        <f>D12</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Altamura </v>
       </c>
     </row>
@@ -1249,15 +1261,15 @@
         <v>194</v>
       </c>
       <c r="C13" t="str">
-        <f>_xlfn.CONCAT(A13," ",B13)</f>
+        <f t="shared" si="0"/>
         <v>Bettina Anastasi</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A13&amp;"&amp;entry.876592536="&amp;B13&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bettina&amp;entry.876592536=Anastasi</v>
       </c>
       <c r="E13" t="str">
-        <f>D13</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bettina&amp;entry.876592536=Anastasi</v>
       </c>
     </row>
@@ -1269,15 +1281,15 @@
         <v>194</v>
       </c>
       <c r="C14" t="str">
-        <f>_xlfn.CONCAT(A14," ",B14)</f>
+        <f t="shared" si="0"/>
         <v>Danny Anastasi</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A14&amp;"&amp;entry.876592536="&amp;B14&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Danny&amp;entry.876592536=Anastasi</v>
       </c>
       <c r="E14" t="str">
-        <f>D14</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Danny&amp;entry.876592536=Anastasi</v>
       </c>
     </row>
@@ -1289,15 +1301,15 @@
         <v>194</v>
       </c>
       <c r="C15" t="str">
-        <f>_xlfn.CONCAT(A15," ",B15)</f>
+        <f t="shared" si="0"/>
         <v>Giorgia Anastasi</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A15&amp;"&amp;entry.876592536="&amp;B15&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Giorgia&amp;entry.876592536=Anastasi</v>
       </c>
       <c r="E15" t="str">
-        <f>D15</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Giorgia&amp;entry.876592536=Anastasi</v>
       </c>
     </row>
@@ -1309,15 +1321,15 @@
         <v>194</v>
       </c>
       <c r="C16" t="str">
-        <f>_xlfn.CONCAT(A16," ",B16)</f>
+        <f t="shared" si="0"/>
         <v>Lidia Anastasi</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A16&amp;"&amp;entry.876592536="&amp;B16&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lidia&amp;entry.876592536=Anastasi</v>
       </c>
       <c r="E16" t="str">
-        <f>D16</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lidia&amp;entry.876592536=Anastasi</v>
       </c>
     </row>
@@ -1329,15 +1341,15 @@
         <v>194</v>
       </c>
       <c r="C17" t="str">
-        <f>_xlfn.CONCAT(A17," ",B17)</f>
+        <f t="shared" si="0"/>
         <v>Marissa Anastasi</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A17&amp;"&amp;entry.876592536="&amp;B17&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa&amp;entry.876592536=Anastasi</v>
       </c>
       <c r="E17" t="str">
-        <f>D17</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa&amp;entry.876592536=Anastasi</v>
       </c>
     </row>
@@ -1349,15 +1361,15 @@
         <v>194</v>
       </c>
       <c r="C18" t="str">
-        <f>_xlfn.CONCAT(A18," ",B18)</f>
+        <f t="shared" si="0"/>
         <v>Pino Anastasi</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A18&amp;"&amp;entry.876592536="&amp;B18&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pino&amp;entry.876592536=Anastasi</v>
       </c>
       <c r="E18" t="str">
-        <f>D18</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Pino&amp;entry.876592536=Anastasi</v>
       </c>
     </row>
@@ -1369,15 +1381,15 @@
         <v>194</v>
       </c>
       <c r="C19" t="str">
-        <f>_xlfn.CONCAT(A19," ",B19)</f>
+        <f t="shared" si="0"/>
         <v>Robbie Anastasi</v>
       </c>
       <c r="D19" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A19&amp;"&amp;entry.876592536="&amp;B19&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Robbie&amp;entry.876592536=Anastasi</v>
       </c>
       <c r="E19" t="str">
-        <f>D19</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Robbie&amp;entry.876592536=Anastasi</v>
       </c>
     </row>
@@ -1389,15 +1401,15 @@
         <v>194</v>
       </c>
       <c r="C20" t="str">
-        <f>_xlfn.CONCAT(A20," ",B20)</f>
+        <f t="shared" si="0"/>
         <v>Tina Anastasi</v>
       </c>
       <c r="D20" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A20&amp;"&amp;entry.876592536="&amp;B20&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tina&amp;entry.876592536=Anastasi</v>
       </c>
       <c r="E20" t="str">
-        <f>D20</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tina&amp;entry.876592536=Anastasi</v>
       </c>
     </row>
@@ -1409,15 +1421,15 @@
         <v>99</v>
       </c>
       <c r="C21" t="str">
-        <f>_xlfn.CONCAT(A21," ",B21)</f>
+        <f t="shared" si="0"/>
         <v>Jovo Ardalic</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A21&amp;"&amp;entry.876592536="&amp;B21&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jovo&amp;entry.876592536=Ardalic</v>
       </c>
       <c r="E21" t="str">
-        <f>D21</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jovo&amp;entry.876592536=Ardalic</v>
       </c>
     </row>
@@ -1429,15 +1441,15 @@
         <v>99</v>
       </c>
       <c r="C22" t="str">
-        <f>_xlfn.CONCAT(A22," ",B22)</f>
+        <f t="shared" si="0"/>
         <v>Mara Ardalic</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A22&amp;"&amp;entry.876592536="&amp;B22&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mara&amp;entry.876592536=Ardalic</v>
       </c>
       <c r="E22" t="str">
-        <f>D22</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mara&amp;entry.876592536=Ardalic</v>
       </c>
     </row>
@@ -1449,15 +1461,15 @@
         <v>0</v>
       </c>
       <c r="C23" t="str">
-        <f>_xlfn.CONCAT(A23," ",B23)</f>
+        <f t="shared" si="0"/>
         <v>Emili Ardalich</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A23&amp;"&amp;entry.876592536="&amp;B23&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emili&amp;entry.876592536=Ardalich</v>
       </c>
       <c r="E23" t="str">
-        <f>D23</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emili&amp;entry.876592536=Ardalich</v>
       </c>
     </row>
@@ -1469,15 +1481,15 @@
         <v>0</v>
       </c>
       <c r="C24" t="str">
-        <f>_xlfn.CONCAT(A24," ",B24)</f>
+        <f t="shared" si="0"/>
         <v>Natasa Ardalich</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A24&amp;"&amp;entry.876592536="&amp;B24&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Natasa&amp;entry.876592536=Ardalich</v>
       </c>
       <c r="E24" t="str">
-        <f>D24</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Natasa&amp;entry.876592536=Ardalich</v>
       </c>
     </row>
@@ -1489,15 +1501,15 @@
         <v>0</v>
       </c>
       <c r="C25" t="str">
-        <f>_xlfn.CONCAT(A25," ",B25)</f>
+        <f t="shared" si="0"/>
         <v>Petar Ardalich</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A25&amp;"&amp;entry.876592536="&amp;B25&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Petar&amp;entry.876592536=Ardalich</v>
       </c>
       <c r="E25" t="str">
-        <f>D25</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Petar&amp;entry.876592536=Ardalich</v>
       </c>
     </row>
@@ -1509,15 +1521,15 @@
         <v>0</v>
       </c>
       <c r="C26" t="str">
-        <f>_xlfn.CONCAT(A26," ",B26)</f>
+        <f t="shared" si="0"/>
         <v>Rae Ardalich</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A26&amp;"&amp;entry.876592536="&amp;B26&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rae&amp;entry.876592536=Ardalich</v>
       </c>
       <c r="E26" t="str">
-        <f>D26</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rae&amp;entry.876592536=Ardalich</v>
       </c>
     </row>
@@ -1529,15 +1541,15 @@
         <v>102</v>
       </c>
       <c r="C27" t="str">
-        <f>_xlfn.CONCAT(A27," ",B27)</f>
+        <f t="shared" si="0"/>
         <v>Sophie O'Brien</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A27&amp;"&amp;entry.876592536="&amp;B27&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sophie&amp;entry.876592536=O'Brien</v>
       </c>
       <c r="E27" t="str">
-        <f>D27</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sophie&amp;entry.876592536=O'Brien</v>
       </c>
     </row>
@@ -1549,15 +1561,15 @@
         <v>84</v>
       </c>
       <c r="C28" t="str">
-        <f>_xlfn.CONCAT(A28," ",B28)</f>
+        <f t="shared" si="0"/>
         <v>Alana Armstrong</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A28&amp;"&amp;entry.876592536="&amp;B28&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Alana&amp;entry.876592536=Armstrong</v>
       </c>
       <c r="E28" t="str">
-        <f>D28</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Alana&amp;entry.876592536=Armstrong</v>
       </c>
     </row>
@@ -1569,15 +1581,15 @@
         <v>84</v>
       </c>
       <c r="C29" t="str">
-        <f>_xlfn.CONCAT(A29," ",B29)</f>
+        <f t="shared" si="0"/>
         <v>Ben Armstrong</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A29&amp;"&amp;entry.876592536="&amp;B29&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben&amp;entry.876592536=Armstrong</v>
       </c>
       <c r="E29" t="str">
-        <f>D29</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben&amp;entry.876592536=Armstrong</v>
       </c>
     </row>
@@ -1589,15 +1601,15 @@
         <v>86</v>
       </c>
       <c r="C30" t="str">
-        <f>_xlfn.CONCAT(A30," ",B30)</f>
+        <f t="shared" si="0"/>
         <v>Jack Bastian</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A30&amp;"&amp;entry.876592536="&amp;B30&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack&amp;entry.876592536=Bastian</v>
       </c>
       <c r="E30" t="str">
-        <f>D30</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack&amp;entry.876592536=Bastian</v>
       </c>
     </row>
@@ -1609,15 +1621,15 @@
         <v>61</v>
       </c>
       <c r="C31" t="str">
-        <f>_xlfn.CONCAT(A31," ",B31)</f>
+        <f t="shared" si="0"/>
         <v>Angela Beck</v>
       </c>
       <c r="D31" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A31&amp;"&amp;entry.876592536="&amp;B31&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela&amp;entry.876592536=Beck</v>
       </c>
       <c r="E31" t="str">
-        <f>D31</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela&amp;entry.876592536=Beck</v>
       </c>
     </row>
@@ -1629,15 +1641,15 @@
         <v>61</v>
       </c>
       <c r="C32" t="str">
-        <f>_xlfn.CONCAT(A32," ",B32)</f>
+        <f t="shared" si="0"/>
         <v>Marissa Beck</v>
       </c>
       <c r="D32" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A32&amp;"&amp;entry.876592536="&amp;B32&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa&amp;entry.876592536=Beck</v>
       </c>
       <c r="E32" t="str">
-        <f>D32</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Marissa&amp;entry.876592536=Beck</v>
       </c>
     </row>
@@ -1649,15 +1661,15 @@
         <v>28</v>
       </c>
       <c r="C33" t="str">
-        <f>_xlfn.CONCAT(A33," ",B33)</f>
+        <f t="shared" si="0"/>
         <v>Deanna Benetti</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A33&amp;"&amp;entry.876592536="&amp;B33&amp;"")</f>
+        <f t="shared" si="1"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna&amp;entry.876592536=Benetti</v>
       </c>
       <c r="E33" t="str">
-        <f>D33</f>
+        <f t="shared" si="2"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna&amp;entry.876592536=Benetti</v>
       </c>
     </row>
@@ -1669,15 +1681,15 @@
         <v>75</v>
       </c>
       <c r="C34" t="str">
-        <f>_xlfn.CONCAT(A34," ",B34)</f>
+        <f t="shared" ref="C34:C65" si="3">_xlfn.CONCAT(A34," ",B34)</f>
         <v>Nathan Bennett</v>
       </c>
       <c r="D34" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A34&amp;"&amp;entry.876592536="&amp;B34&amp;"")</f>
+        <f t="shared" ref="D34:D65" si="4">HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A34&amp;"&amp;entry.876592536="&amp;B34&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan&amp;entry.876592536=Bennett</v>
       </c>
       <c r="E34" t="str">
-        <f>D34</f>
+        <f t="shared" ref="E34:E65" si="5">D34</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan&amp;entry.876592536=Bennett</v>
       </c>
     </row>
@@ -1689,15 +1701,15 @@
         <v>34</v>
       </c>
       <c r="C35" t="str">
-        <f>_xlfn.CONCAT(A35," ",B35)</f>
+        <f t="shared" si="3"/>
         <v>Jo Blackman</v>
       </c>
       <c r="D35" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A35&amp;"&amp;entry.876592536="&amp;B35&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jo&amp;entry.876592536=Blackman</v>
       </c>
       <c r="E35" t="str">
-        <f>D35</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jo&amp;entry.876592536=Blackman</v>
       </c>
     </row>
@@ -1709,15 +1721,15 @@
         <v>5</v>
       </c>
       <c r="C36" t="str">
-        <f>_xlfn.CONCAT(A36," ",B36)</f>
+        <f t="shared" si="3"/>
         <v>John Brooks</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A36&amp;"&amp;entry.876592536="&amp;B36&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=John&amp;entry.876592536=Brooks</v>
       </c>
       <c r="E36" t="str">
-        <f>D36</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=John&amp;entry.876592536=Brooks</v>
       </c>
     </row>
@@ -1729,15 +1741,15 @@
         <v>12</v>
       </c>
       <c r="C37" t="str">
-        <f>_xlfn.CONCAT(A37," ",B37)</f>
+        <f t="shared" si="3"/>
         <v>David Brown</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A37&amp;"&amp;entry.876592536="&amp;B37&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David&amp;entry.876592536=Brown</v>
       </c>
       <c r="E37" t="str">
-        <f>D37</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David&amp;entry.876592536=Brown</v>
       </c>
     </row>
@@ -1749,15 +1761,15 @@
         <v>23</v>
       </c>
       <c r="C38" t="str">
-        <f>_xlfn.CONCAT(A38," ",B38)</f>
+        <f t="shared" si="3"/>
         <v>Angela Caretti</v>
       </c>
       <c r="D38" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A38&amp;"&amp;entry.876592536="&amp;B38&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela&amp;entry.876592536=Caretti</v>
       </c>
       <c r="E38" t="str">
-        <f>D38</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angela&amp;entry.876592536=Caretti</v>
       </c>
     </row>
@@ -1769,15 +1781,15 @@
         <v>23</v>
       </c>
       <c r="C39" t="str">
-        <f>_xlfn.CONCAT(A39," ",B39)</f>
+        <f t="shared" si="3"/>
         <v>Carlo Caretti</v>
       </c>
       <c r="D39" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A39&amp;"&amp;entry.876592536="&amp;B39&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carlo&amp;entry.876592536=Caretti</v>
       </c>
       <c r="E39" t="str">
-        <f>D39</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carlo&amp;entry.876592536=Caretti</v>
       </c>
     </row>
@@ -1789,15 +1801,15 @@
         <v>23</v>
       </c>
       <c r="C40" t="str">
-        <f>_xlfn.CONCAT(A40," ",B40)</f>
+        <f t="shared" si="3"/>
         <v>Max Caretti</v>
       </c>
       <c r="D40" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A40&amp;"&amp;entry.876592536="&amp;B40&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Max&amp;entry.876592536=Caretti</v>
       </c>
       <c r="E40" t="str">
-        <f>D40</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Max&amp;entry.876592536=Caretti</v>
       </c>
     </row>
@@ -1809,15 +1821,15 @@
         <v>23</v>
       </c>
       <c r="C41" t="str">
-        <f>_xlfn.CONCAT(A41," ",B41)</f>
+        <f t="shared" si="3"/>
         <v>Michael Caretti</v>
       </c>
       <c r="D41" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A41&amp;"&amp;entry.876592536="&amp;B41&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Caretti</v>
       </c>
       <c r="E41" t="str">
-        <f>D41</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Caretti</v>
       </c>
     </row>
@@ -1829,15 +1841,15 @@
         <v>119</v>
       </c>
       <c r="C42" t="str">
-        <f>_xlfn.CONCAT(A42," ",B42)</f>
+        <f t="shared" si="3"/>
         <v>Francesco Carpenteri</v>
       </c>
       <c r="D42" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A42&amp;"&amp;entry.876592536="&amp;B42&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Francesco&amp;entry.876592536=Carpenteri</v>
       </c>
       <c r="E42" t="str">
-        <f>D42</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Francesco&amp;entry.876592536=Carpenteri</v>
       </c>
     </row>
@@ -1849,15 +1861,15 @@
         <v>2</v>
       </c>
       <c r="C43" t="str">
-        <f>_xlfn.CONCAT(A43," ",B43)</f>
+        <f t="shared" si="3"/>
         <v>Jakub Cerovsky</v>
       </c>
       <c r="D43" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A43&amp;"&amp;entry.876592536="&amp;B43&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jakub&amp;entry.876592536=Cerovsky</v>
       </c>
       <c r="E43" t="str">
-        <f>D43</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jakub&amp;entry.876592536=Cerovsky</v>
       </c>
     </row>
@@ -1869,15 +1881,15 @@
         <v>121</v>
       </c>
       <c r="C44" t="str">
-        <f>_xlfn.CONCAT(A44," ",B44)</f>
+        <f t="shared" si="3"/>
         <v>Yvette Chapman</v>
       </c>
       <c r="D44" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A44&amp;"&amp;entry.876592536="&amp;B44&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Yvette&amp;entry.876592536=Chapman</v>
       </c>
       <c r="E44" t="str">
-        <f>D44</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Yvette&amp;entry.876592536=Chapman</v>
       </c>
     </row>
@@ -1889,15 +1901,15 @@
         <v>89</v>
       </c>
       <c r="C45" t="str">
-        <f>_xlfn.CONCAT(A45," ",B45)</f>
+        <f t="shared" si="3"/>
         <v>Theresa Chav</v>
       </c>
       <c r="D45" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A45&amp;"&amp;entry.876592536="&amp;B45&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Theresa&amp;entry.876592536=Chav</v>
       </c>
       <c r="E45" t="str">
-        <f>D45</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Theresa&amp;entry.876592536=Chav</v>
       </c>
     </row>
@@ -1909,15 +1921,15 @@
         <v>17</v>
       </c>
       <c r="C46" t="str">
-        <f>_xlfn.CONCAT(A46," ",B46)</f>
+        <f t="shared" si="3"/>
         <v>Enzo Ciaramella </v>
       </c>
       <c r="D46" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A46&amp;"&amp;entry.876592536="&amp;B46&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Enzo&amp;entry.876592536=Ciaramella </v>
       </c>
       <c r="E46" t="str">
-        <f>D46</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Enzo&amp;entry.876592536=Ciaramella </v>
       </c>
     </row>
@@ -1929,15 +1941,15 @@
         <v>17</v>
       </c>
       <c r="C47" t="str">
-        <f>_xlfn.CONCAT(A47," ",B47)</f>
+        <f t="shared" si="3"/>
         <v>Joe Ciaramella </v>
       </c>
       <c r="D47" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A47&amp;"&amp;entry.876592536="&amp;B47&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Joe&amp;entry.876592536=Ciaramella </v>
       </c>
       <c r="E47" t="str">
-        <f>D47</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Joe&amp;entry.876592536=Ciaramella </v>
       </c>
     </row>
@@ -1949,15 +1961,15 @@
         <v>17</v>
       </c>
       <c r="C48" t="str">
-        <f>_xlfn.CONCAT(A48," ",B48)</f>
+        <f t="shared" si="3"/>
         <v>Linda Ciaramella </v>
       </c>
       <c r="D48" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A48&amp;"&amp;entry.876592536="&amp;B48&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Linda&amp;entry.876592536=Ciaramella </v>
       </c>
       <c r="E48" t="str">
-        <f>D48</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Linda&amp;entry.876592536=Ciaramella </v>
       </c>
     </row>
@@ -1969,15 +1981,15 @@
         <v>17</v>
       </c>
       <c r="C49" t="str">
-        <f>_xlfn.CONCAT(A49," ",B49)</f>
+        <f t="shared" si="3"/>
         <v>Maria Ciaramella </v>
       </c>
       <c r="D49" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A49&amp;"&amp;entry.876592536="&amp;B49&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maria&amp;entry.876592536=Ciaramella </v>
       </c>
       <c r="E49" t="str">
-        <f>D49</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maria&amp;entry.876592536=Ciaramella </v>
       </c>
     </row>
@@ -1989,15 +2001,15 @@
         <v>74</v>
       </c>
       <c r="C50" t="str">
-        <f>_xlfn.CONCAT(A50," ",B50)</f>
+        <f t="shared" si="3"/>
         <v>Allison Clark</v>
       </c>
       <c r="D50" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A50&amp;"&amp;entry.876592536="&amp;B50&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Allison&amp;entry.876592536=Clark</v>
       </c>
       <c r="E50" t="str">
-        <f>D50</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Allison&amp;entry.876592536=Clark</v>
       </c>
     </row>
@@ -2009,15 +2021,15 @@
         <v>25</v>
       </c>
       <c r="C51" t="str">
-        <f>_xlfn.CONCAT(A51," ",B51)</f>
+        <f t="shared" si="3"/>
         <v>Deanna Condo</v>
       </c>
       <c r="D51" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A51&amp;"&amp;entry.876592536="&amp;B51&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna&amp;entry.876592536=Condo</v>
       </c>
       <c r="E51" t="str">
-        <f>D51</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Deanna&amp;entry.876592536=Condo</v>
       </c>
     </row>
@@ -2029,15 +2041,15 @@
         <v>25</v>
       </c>
       <c r="C52" t="str">
-        <f>_xlfn.CONCAT(A52," ",B52)</f>
+        <f t="shared" si="3"/>
         <v>Sam Condo</v>
       </c>
       <c r="D52" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A52&amp;"&amp;entry.876592536="&amp;B52&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam&amp;entry.876592536=Condo</v>
       </c>
       <c r="E52" t="str">
-        <f>D52</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam&amp;entry.876592536=Condo</v>
       </c>
     </row>
@@ -2049,15 +2061,15 @@
         <v>71</v>
       </c>
       <c r="C53" t="str">
-        <f>_xlfn.CONCAT(A53," ",B53)</f>
+        <f t="shared" si="3"/>
         <v>Katie Cooper</v>
       </c>
       <c r="D53" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A53&amp;"&amp;entry.876592536="&amp;B53&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Katie&amp;entry.876592536=Cooper</v>
       </c>
       <c r="E53" t="str">
-        <f>D53</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Katie&amp;entry.876592536=Cooper</v>
       </c>
     </row>
@@ -2069,15 +2081,15 @@
         <v>91</v>
       </c>
       <c r="C54" t="str">
-        <f>_xlfn.CONCAT(A54," ",B54)</f>
+        <f t="shared" si="3"/>
         <v>Indya Couzner</v>
       </c>
       <c r="D54" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A54&amp;"&amp;entry.876592536="&amp;B54&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Indya&amp;entry.876592536=Couzner</v>
       </c>
       <c r="E54" t="str">
-        <f>D54</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Indya&amp;entry.876592536=Couzner</v>
       </c>
     </row>
@@ -2089,15 +2101,15 @@
         <v>115</v>
       </c>
       <c r="C55" t="str">
-        <f>_xlfn.CONCAT(A55," ",B55)</f>
+        <f t="shared" si="3"/>
         <v>Angelo Dambrosio </v>
       </c>
       <c r="D55" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A55&amp;"&amp;entry.876592536="&amp;B55&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angelo&amp;entry.876592536=Dambrosio </v>
       </c>
       <c r="E55" t="str">
-        <f>D55</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Angelo&amp;entry.876592536=Dambrosio </v>
       </c>
     </row>
@@ -2109,15 +2121,15 @@
         <v>80</v>
       </c>
       <c r="C56" t="str">
-        <f>_xlfn.CONCAT(A56," ",B56)</f>
+        <f t="shared" si="3"/>
         <v>Georgia Dearden</v>
       </c>
       <c r="D56" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A56&amp;"&amp;entry.876592536="&amp;B56&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia&amp;entry.876592536=Dearden</v>
       </c>
       <c r="E56" t="str">
-        <f>D56</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia&amp;entry.876592536=Dearden</v>
       </c>
     </row>
@@ -2129,15 +2141,15 @@
         <v>80</v>
       </c>
       <c r="C57" t="str">
-        <f>_xlfn.CONCAT(A57," ",B57)</f>
+        <f t="shared" si="3"/>
         <v>Mark Dearden</v>
       </c>
       <c r="D57" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A57&amp;"&amp;entry.876592536="&amp;B57&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mark&amp;entry.876592536=Dearden</v>
       </c>
       <c r="E57" t="str">
-        <f>D57</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Mark&amp;entry.876592536=Dearden</v>
       </c>
     </row>
@@ -2149,15 +2161,15 @@
         <v>80</v>
       </c>
       <c r="C58" t="str">
-        <f>_xlfn.CONCAT(A58," ",B58)</f>
+        <f t="shared" si="3"/>
         <v>Terriann Dearden</v>
       </c>
       <c r="D58" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A58&amp;"&amp;entry.876592536="&amp;B58&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Terriann&amp;entry.876592536=Dearden</v>
       </c>
       <c r="E58" t="str">
-        <f>D58</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Terriann&amp;entry.876592536=Dearden</v>
       </c>
     </row>
@@ -2169,15 +2181,15 @@
         <v>79</v>
       </c>
       <c r="C59" t="str">
-        <f>_xlfn.CONCAT(A59," ",B59)</f>
+        <f t="shared" si="3"/>
         <v>Jarrod DeVroome</v>
       </c>
       <c r="D59" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A59&amp;"&amp;entry.876592536="&amp;B59&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrod&amp;entry.876592536=DeVroome</v>
       </c>
       <c r="E59" t="str">
-        <f>D59</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrod&amp;entry.876592536=DeVroome</v>
       </c>
     </row>
@@ -2189,15 +2201,15 @@
         <v>8</v>
       </c>
       <c r="C60" t="str">
-        <f>_xlfn.CONCAT(A60," ",B60)</f>
+        <f t="shared" si="3"/>
         <v>Ruby Dillon</v>
       </c>
       <c r="D60" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A60&amp;"&amp;entry.876592536="&amp;B60&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ruby&amp;entry.876592536=Dillon</v>
       </c>
       <c r="E60" t="str">
-        <f>D60</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ruby&amp;entry.876592536=Dillon</v>
       </c>
     </row>
@@ -2209,15 +2221,15 @@
         <v>40</v>
       </c>
       <c r="C61" t="str">
-        <f>_xlfn.CONCAT(A61," ",B61)</f>
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Ella Dishnica </v>
       </c>
       <c r="D61" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A61&amp;"&amp;entry.876592536="&amp;B61&amp;"")</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella&amp;entry.876592536=Dishnica </v>
       </c>
       <c r="E61" t="str">
-        <f>D61</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella&amp;entry.876592536=Dishnica </v>
       </c>
     </row>
@@ -2229,15 +2241,15 @@
         <v>46</v>
       </c>
       <c r="C62" t="str">
-        <f>_xlfn.CONCAT(A62," ",B62)</f>
+        <f t="shared" si="3"/>
         <v>Emilia Djendjinovic</v>
       </c>
       <c r="D62" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A62&amp;"&amp;entry.876592536="&amp;B62&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emilia&amp;entry.876592536=Djendjinovic</v>
       </c>
       <c r="E62" t="str">
-        <f>D62</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Emilia&amp;entry.876592536=Djendjinovic</v>
       </c>
     </row>
@@ -2249,15 +2261,15 @@
         <v>47</v>
       </c>
       <c r="C63" t="str">
-        <f>_xlfn.CONCAT(A63," ",B63)</f>
+        <f t="shared" si="3"/>
         <v>Nathan Ellis</v>
       </c>
       <c r="D63" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A63&amp;"&amp;entry.876592536="&amp;B63&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan&amp;entry.876592536=Ellis</v>
       </c>
       <c r="E63" t="str">
-        <f>D63</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nathan&amp;entry.876592536=Ellis</v>
       </c>
     </row>
@@ -2269,15 +2281,15 @@
         <v>192</v>
       </c>
       <c r="C64" t="str">
-        <f>_xlfn.CONCAT(A64," ",B64)</f>
+        <f t="shared" si="3"/>
         <v>Anthony Esposito</v>
       </c>
       <c r="D64" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A64&amp;"&amp;entry.876592536="&amp;B64&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony&amp;entry.876592536=Esposito</v>
       </c>
       <c r="E64" t="str">
-        <f>D64</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Anthony&amp;entry.876592536=Esposito</v>
       </c>
     </row>
@@ -2289,15 +2301,15 @@
         <v>192</v>
       </c>
       <c r="C65" t="str">
-        <f>_xlfn.CONCAT(A65," ",B65)</f>
+        <f t="shared" si="3"/>
         <v>Julian Esposito</v>
       </c>
       <c r="D65" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A65&amp;"&amp;entry.876592536="&amp;B65&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Julian&amp;entry.876592536=Esposito</v>
       </c>
       <c r="E65" t="str">
-        <f>D65</f>
+        <f t="shared" si="5"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Julian&amp;entry.876592536=Esposito</v>
       </c>
     </row>
@@ -2309,15 +2321,15 @@
         <v>192</v>
       </c>
       <c r="C66" t="str">
-        <f>_xlfn.CONCAT(A66," ",B66)</f>
+        <f t="shared" ref="C66:C97" si="6">_xlfn.CONCAT(A66," ",B66)</f>
         <v>Patrizia Esposito</v>
       </c>
       <c r="D66" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A66&amp;"&amp;entry.876592536="&amp;B66&amp;"")</f>
+        <f t="shared" ref="D66:D97" si="7">HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A66&amp;"&amp;entry.876592536="&amp;B66&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patrizia&amp;entry.876592536=Esposito</v>
       </c>
       <c r="E66" t="str">
-        <f>D66</f>
+        <f t="shared" ref="E66:E97" si="8">D66</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patrizia&amp;entry.876592536=Esposito</v>
       </c>
     </row>
@@ -2329,15 +2341,15 @@
         <v>36</v>
       </c>
       <c r="C67" t="str">
-        <f>_xlfn.CONCAT(A67," ",B67)</f>
+        <f t="shared" si="6"/>
         <v>Michael Fairbrother</v>
       </c>
       <c r="D67" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A67&amp;"&amp;entry.876592536="&amp;B67&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Fairbrother</v>
       </c>
       <c r="E67" t="str">
-        <f>D67</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Fairbrother</v>
       </c>
     </row>
@@ -2349,15 +2361,15 @@
         <v>180</v>
       </c>
       <c r="C68" t="str">
-        <f>_xlfn.CONCAT(A68," ",B68)</f>
+        <f t="shared" si="6"/>
         <v>Gabe Fienemann</v>
       </c>
       <c r="D68" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A68&amp;"&amp;entry.876592536="&amp;B68&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Gabe&amp;entry.876592536=Fienemann</v>
       </c>
       <c r="E68" t="str">
-        <f>D68</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Gabe&amp;entry.876592536=Fienemann</v>
       </c>
     </row>
@@ -2369,15 +2381,15 @@
         <v>180</v>
       </c>
       <c r="C69" t="str">
-        <f>_xlfn.CONCAT(A69," ",B69)</f>
+        <f t="shared" si="6"/>
         <v>Jesse Fienemann</v>
       </c>
       <c r="D69" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A69&amp;"&amp;entry.876592536="&amp;B69&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jesse&amp;entry.876592536=Fienemann</v>
       </c>
       <c r="E69" t="str">
-        <f>D69</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jesse&amp;entry.876592536=Fienemann</v>
       </c>
     </row>
@@ -2389,15 +2401,15 @@
         <v>104</v>
       </c>
       <c r="C70" t="str">
-        <f>_xlfn.CONCAT(A70," ",B70)</f>
+        <f t="shared" si="6"/>
         <v>Loretta Fienemann </v>
       </c>
       <c r="D70" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A70&amp;"&amp;entry.876592536="&amp;B70&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Loretta&amp;entry.876592536=Fienemann </v>
       </c>
       <c r="E70" t="str">
-        <f>D70</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Loretta&amp;entry.876592536=Fienemann </v>
       </c>
     </row>
@@ -2409,15 +2421,15 @@
         <v>104</v>
       </c>
       <c r="C71" t="str">
-        <f>_xlfn.CONCAT(A71," ",B71)</f>
+        <f t="shared" si="6"/>
         <v>Michael Fienemann </v>
       </c>
       <c r="D71" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A71&amp;"&amp;entry.876592536="&amp;B71&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Fienemann </v>
       </c>
       <c r="E71" t="str">
-        <f>D71</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Michael&amp;entry.876592536=Fienemann </v>
       </c>
     </row>
@@ -2429,15 +2441,15 @@
         <v>190</v>
       </c>
       <c r="C72" t="str">
-        <f>_xlfn.CONCAT(A72," ",B72)</f>
+        <f t="shared" si="6"/>
         <v>Maddie Fitzgerald</v>
       </c>
       <c r="D72" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A72&amp;"&amp;entry.876592536="&amp;B72&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maddie&amp;entry.876592536=Fitzgerald</v>
       </c>
       <c r="E72" t="str">
-        <f>D72</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Maddie&amp;entry.876592536=Fitzgerald</v>
       </c>
     </row>
@@ -2449,15 +2461,15 @@
         <v>49</v>
       </c>
       <c r="C73" t="str">
-        <f>_xlfn.CONCAT(A73," ",B73)</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">Cooper Fitzgerald </v>
       </c>
       <c r="D73" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A73&amp;"&amp;entry.876592536="&amp;B73&amp;"")</f>
+        <f t="shared" si="7"/>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Cooper&amp;entry.876592536=Fitzgerald </v>
       </c>
       <c r="E73" t="str">
-        <f>D73</f>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Cooper&amp;entry.876592536=Fitzgerald </v>
       </c>
     </row>
@@ -2469,15 +2481,15 @@
         <v>63</v>
       </c>
       <c r="C74" t="str">
-        <f>_xlfn.CONCAT(A74," ",B74)</f>
+        <f t="shared" si="6"/>
         <v>Osman Fofana</v>
       </c>
       <c r="D74" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A74&amp;"&amp;entry.876592536="&amp;B74&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Osman&amp;entry.876592536=Fofana</v>
       </c>
       <c r="E74" t="str">
-        <f>D74</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Osman&amp;entry.876592536=Fofana</v>
       </c>
     </row>
@@ -2489,15 +2501,15 @@
         <v>19</v>
       </c>
       <c r="C75" t="str">
-        <f>_xlfn.CONCAT(A75," ",B75)</f>
+        <f t="shared" si="6"/>
         <v>Betty Francesca </v>
       </c>
       <c r="D75" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A75&amp;"&amp;entry.876592536="&amp;B75&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Betty&amp;entry.876592536=Francesca </v>
       </c>
       <c r="E75" t="str">
-        <f>D75</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Betty&amp;entry.876592536=Francesca </v>
       </c>
     </row>
@@ -2509,15 +2521,15 @@
         <v>19</v>
       </c>
       <c r="C76" t="str">
-        <f>_xlfn.CONCAT(A76," ",B76)</f>
+        <f t="shared" si="6"/>
         <v>Vince Francesca </v>
       </c>
       <c r="D76" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A76&amp;"&amp;entry.876592536="&amp;B76&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vince&amp;entry.876592536=Francesca </v>
       </c>
       <c r="E76" t="str">
-        <f>D76</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vince&amp;entry.876592536=Francesca </v>
       </c>
     </row>
@@ -2529,15 +2541,15 @@
         <v>175</v>
       </c>
       <c r="C77" t="str">
-        <f>_xlfn.CONCAT(A77," ",B77)</f>
+        <f t="shared" si="6"/>
         <v>Colin Goldsworthy</v>
       </c>
       <c r="D77" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A77&amp;"&amp;entry.876592536="&amp;B77&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Colin&amp;entry.876592536=Goldsworthy</v>
       </c>
       <c r="E77" t="str">
-        <f>D77</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Colin&amp;entry.876592536=Goldsworthy</v>
       </c>
     </row>
@@ -2549,15 +2561,15 @@
         <v>44</v>
       </c>
       <c r="C78" t="str">
-        <f>_xlfn.CONCAT(A78," ",B78)</f>
+        <f t="shared" si="6"/>
         <v>George Grant</v>
       </c>
       <c r="D78" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A78&amp;"&amp;entry.876592536="&amp;B78&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=George&amp;entry.876592536=Grant</v>
       </c>
       <c r="E78" t="str">
-        <f>D78</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=George&amp;entry.876592536=Grant</v>
       </c>
     </row>
@@ -2569,15 +2581,15 @@
         <v>65</v>
       </c>
       <c r="C79" t="str">
-        <f>_xlfn.CONCAT(A79," ",B79)</f>
+        <f t="shared" si="6"/>
         <v>Georgia Hayley</v>
       </c>
       <c r="D79" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A79&amp;"&amp;entry.876592536="&amp;B79&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia&amp;entry.876592536=Hayley</v>
       </c>
       <c r="E79" t="str">
-        <f>D79</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Georgia&amp;entry.876592536=Hayley</v>
       </c>
     </row>
@@ -2589,15 +2601,15 @@
         <v>81</v>
       </c>
       <c r="C80" t="str">
-        <f>_xlfn.CONCAT(A80," ",B80)</f>
+        <f t="shared" si="6"/>
         <v>Tyson Herraman</v>
       </c>
       <c r="D80" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A80&amp;"&amp;entry.876592536="&amp;B80&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson&amp;entry.876592536=Herraman</v>
       </c>
       <c r="E80" t="str">
-        <f>D80</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson&amp;entry.876592536=Herraman</v>
       </c>
     </row>
@@ -2609,15 +2621,15 @@
         <v>98</v>
       </c>
       <c r="C81" t="str">
-        <f>_xlfn.CONCAT(A81," ",B81)</f>
+        <f t="shared" si="6"/>
         <v>Ben Hogarth</v>
       </c>
       <c r="D81" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A81&amp;"&amp;entry.876592536="&amp;B81&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben&amp;entry.876592536=Hogarth</v>
       </c>
       <c r="E81" t="str">
-        <f>D81</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ben&amp;entry.876592536=Hogarth</v>
       </c>
     </row>
@@ -2629,15 +2641,15 @@
         <v>98</v>
       </c>
       <c r="C82" t="str">
-        <f>_xlfn.CONCAT(A82," ",B82)</f>
+        <f t="shared" si="6"/>
         <v>Estela Hogarth</v>
       </c>
       <c r="D82" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A82&amp;"&amp;entry.876592536="&amp;B82&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Estela&amp;entry.876592536=Hogarth</v>
       </c>
       <c r="E82" t="str">
-        <f>D82</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Estela&amp;entry.876592536=Hogarth</v>
       </c>
     </row>
@@ -2649,15 +2661,15 @@
         <v>98</v>
       </c>
       <c r="C83" t="str">
-        <f>_xlfn.CONCAT(A83," ",B83)</f>
+        <f t="shared" si="6"/>
         <v>Noa Hogarth</v>
       </c>
       <c r="D83" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A83&amp;"&amp;entry.876592536="&amp;B83&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Noa&amp;entry.876592536=Hogarth</v>
       </c>
       <c r="E83" t="str">
-        <f>D83</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Noa&amp;entry.876592536=Hogarth</v>
       </c>
     </row>
@@ -2669,15 +2681,15 @@
         <v>98</v>
       </c>
       <c r="C84" t="str">
-        <f>_xlfn.CONCAT(A84," ",B84)</f>
+        <f t="shared" si="6"/>
         <v>Oliver Hogarth</v>
       </c>
       <c r="D84" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A84&amp;"&amp;entry.876592536="&amp;B84&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Oliver&amp;entry.876592536=Hogarth</v>
       </c>
       <c r="E84" t="str">
-        <f>D84</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Oliver&amp;entry.876592536=Hogarth</v>
       </c>
     </row>
@@ -2689,15 +2701,15 @@
         <v>98</v>
       </c>
       <c r="C85" t="str">
-        <f>_xlfn.CONCAT(A85," ",B85)</f>
+        <f t="shared" si="6"/>
         <v>Sanja Hogarth</v>
       </c>
       <c r="D85" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A85&amp;"&amp;entry.876592536="&amp;B85&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sanja&amp;entry.876592536=Hogarth</v>
       </c>
       <c r="E85" t="str">
-        <f>D85</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sanja&amp;entry.876592536=Hogarth</v>
       </c>
     </row>
@@ -2709,15 +2721,15 @@
         <v>67</v>
       </c>
       <c r="C86" t="str">
-        <f>_xlfn.CONCAT(A86," ",B86)</f>
+        <f t="shared" si="6"/>
         <v>Kyle Jordan</v>
       </c>
       <c r="D86" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A86&amp;"&amp;entry.876592536="&amp;B86&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Kyle&amp;entry.876592536=Jordan</v>
       </c>
       <c r="E86" t="str">
-        <f>D86</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Kyle&amp;entry.876592536=Jordan</v>
       </c>
     </row>
@@ -2729,15 +2741,15 @@
         <v>35</v>
       </c>
       <c r="C87" t="str">
-        <f>_xlfn.CONCAT(A87," ",B87)</f>
+        <f t="shared" si="6"/>
         <v>Andjela Jovic</v>
       </c>
       <c r="D87" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A87&amp;"&amp;entry.876592536="&amp;B87&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andjela&amp;entry.876592536=Jovic</v>
       </c>
       <c r="E87" t="str">
-        <f>D87</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andjela&amp;entry.876592536=Jovic</v>
       </c>
     </row>
@@ -2749,15 +2761,15 @@
         <v>35</v>
       </c>
       <c r="C88" t="str">
-        <f>_xlfn.CONCAT(A88," ",B88)</f>
+        <f t="shared" si="6"/>
         <v>Andrijana Jovic</v>
       </c>
       <c r="D88" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A88&amp;"&amp;entry.876592536="&amp;B88&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andrijana&amp;entry.876592536=Jovic</v>
       </c>
       <c r="E88" t="str">
-        <f>D88</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Andrijana&amp;entry.876592536=Jovic</v>
       </c>
     </row>
@@ -2769,15 +2781,15 @@
         <v>97</v>
       </c>
       <c r="C89" t="str">
-        <f>_xlfn.CONCAT(A89," ",B89)</f>
+        <f t="shared" si="6"/>
         <v>Hannah Justins</v>
       </c>
       <c r="D89" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A89&amp;"&amp;entry.876592536="&amp;B89&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah&amp;entry.876592536=Justins</v>
       </c>
       <c r="E89" t="str">
-        <f>D89</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah&amp;entry.876592536=Justins</v>
       </c>
     </row>
@@ -2789,15 +2801,15 @@
         <v>51</v>
       </c>
       <c r="C90" t="str">
-        <f>_xlfn.CONCAT(A90," ",B90)</f>
+        <f t="shared" si="6"/>
         <v>Tyson Klingner</v>
       </c>
       <c r="D90" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A90&amp;"&amp;entry.876592536="&amp;B90&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson&amp;entry.876592536=Klingner</v>
       </c>
       <c r="E90" t="str">
-        <f>D90</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tyson&amp;entry.876592536=Klingner</v>
       </c>
     </row>
@@ -2809,15 +2821,15 @@
         <v>37</v>
       </c>
       <c r="C91" t="str">
-        <f>_xlfn.CONCAT(A91," ",B91)</f>
+        <f t="shared" si="6"/>
         <v>Sarah Lacanale</v>
       </c>
       <c r="D91" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A91&amp;"&amp;entry.876592536="&amp;B91&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah&amp;entry.876592536=Lacanale</v>
       </c>
       <c r="E91" t="str">
-        <f>D91</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah&amp;entry.876592536=Lacanale</v>
       </c>
     </row>
@@ -2829,15 +2841,15 @@
         <v>60</v>
       </c>
       <c r="C92" t="str">
-        <f>_xlfn.CONCAT(A92," ",B92)</f>
+        <f t="shared" si="6"/>
         <v>Daniel Laczko</v>
       </c>
       <c r="D92" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A92&amp;"&amp;entry.876592536="&amp;B92&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel&amp;entry.876592536=Laczko</v>
       </c>
       <c r="E92" t="str">
-        <f>D92</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel&amp;entry.876592536=Laczko</v>
       </c>
     </row>
@@ -2849,15 +2861,15 @@
         <v>30</v>
       </c>
       <c r="C93" t="str">
-        <f>_xlfn.CONCAT(A93," ",B93)</f>
+        <f t="shared" si="6"/>
         <v>Ella Langford</v>
       </c>
       <c r="D93" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A93&amp;"&amp;entry.876592536="&amp;B93&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella&amp;entry.876592536=Langford</v>
       </c>
       <c r="E93" t="str">
-        <f>D93</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ella&amp;entry.876592536=Langford</v>
       </c>
     </row>
@@ -2869,15 +2881,15 @@
         <v>87</v>
       </c>
       <c r="C94" t="str">
-        <f>_xlfn.CONCAT(A94," ",B94)</f>
+        <f t="shared" si="6"/>
         <v>Jack Lovett</v>
       </c>
       <c r="D94" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A94&amp;"&amp;entry.876592536="&amp;B94&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack&amp;entry.876592536=Lovett</v>
       </c>
       <c r="E94" t="str">
-        <f>D94</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jack&amp;entry.876592536=Lovett</v>
       </c>
     </row>
@@ -2889,15 +2901,15 @@
         <v>103</v>
       </c>
       <c r="C95" t="str">
-        <f>_xlfn.CONCAT(A95," ",B95)</f>
+        <f t="shared" si="6"/>
         <v>Daniel Mackenzie</v>
       </c>
       <c r="D95" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A95&amp;"&amp;entry.876592536="&amp;B95&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel&amp;entry.876592536=Mackenzie</v>
       </c>
       <c r="E95" t="str">
-        <f>D95</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel&amp;entry.876592536=Mackenzie</v>
       </c>
     </row>
@@ -2909,15 +2921,15 @@
         <v>103</v>
       </c>
       <c r="C96" t="str">
-        <f>_xlfn.CONCAT(A96," ",B96)</f>
+        <f t="shared" si="6"/>
         <v>Hannah Mackenzie</v>
       </c>
       <c r="D96" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A96&amp;"&amp;entry.876592536="&amp;B96&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah&amp;entry.876592536=Mackenzie</v>
       </c>
       <c r="E96" t="str">
-        <f>D96</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Hannah&amp;entry.876592536=Mackenzie</v>
       </c>
     </row>
@@ -2929,15 +2941,15 @@
         <v>103</v>
       </c>
       <c r="C97" t="str">
-        <f>_xlfn.CONCAT(A97," ",B97)</f>
+        <f t="shared" si="6"/>
         <v>Isaac Mackenzie</v>
       </c>
       <c r="D97" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A97&amp;"&amp;entry.876592536="&amp;B97&amp;"")</f>
+        <f t="shared" si="7"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Isaac&amp;entry.876592536=Mackenzie</v>
       </c>
       <c r="E97" t="str">
-        <f>D97</f>
+        <f t="shared" si="8"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Isaac&amp;entry.876592536=Mackenzie</v>
       </c>
     </row>
@@ -2949,15 +2961,15 @@
         <v>103</v>
       </c>
       <c r="C98" t="str">
-        <f>_xlfn.CONCAT(A98," ",B98)</f>
+        <f t="shared" ref="C98:C129" si="9">_xlfn.CONCAT(A98," ",B98)</f>
         <v>Jacob Mackenzie</v>
       </c>
       <c r="D98" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A98&amp;"&amp;entry.876592536="&amp;B98&amp;"")</f>
+        <f t="shared" ref="D98:D134" si="10">HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A98&amp;"&amp;entry.876592536="&amp;B98&amp;"")</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jacob&amp;entry.876592536=Mackenzie</v>
       </c>
       <c r="E98" t="str">
-        <f>D98</f>
+        <f t="shared" ref="E98:E129" si="11">D98</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jacob&amp;entry.876592536=Mackenzie</v>
       </c>
     </row>
@@ -2969,15 +2981,15 @@
         <v>10</v>
       </c>
       <c r="C99" t="str">
-        <f>_xlfn.CONCAT(A99," ",B99)</f>
+        <f t="shared" si="9"/>
         <v>Bonnie Majda</v>
       </c>
       <c r="D99" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A99&amp;"&amp;entry.876592536="&amp;B99&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bonnie&amp;entry.876592536=Majda</v>
       </c>
       <c r="E99" t="str">
-        <f>D99</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bonnie&amp;entry.876592536=Majda</v>
       </c>
     </row>
@@ -2989,15 +3001,15 @@
         <v>10</v>
       </c>
       <c r="C100" t="str">
-        <f>_xlfn.CONCAT(A100," ",B100)</f>
+        <f t="shared" si="9"/>
         <v>Henry Majda</v>
       </c>
       <c r="D100" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A100&amp;"&amp;entry.876592536="&amp;B100&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Henry&amp;entry.876592536=Majda</v>
       </c>
       <c r="E100" t="str">
-        <f>D100</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Henry&amp;entry.876592536=Majda</v>
       </c>
     </row>
@@ -3009,15 +3021,15 @@
         <v>10</v>
       </c>
       <c r="C101" t="str">
-        <f>_xlfn.CONCAT(A101," ",B101)</f>
+        <f t="shared" si="9"/>
         <v>Jarrad Majda</v>
       </c>
       <c r="D101" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A101&amp;"&amp;entry.876592536="&amp;B101&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrad&amp;entry.876592536=Majda</v>
       </c>
       <c r="E101" t="str">
-        <f>D101</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jarrad&amp;entry.876592536=Majda</v>
       </c>
     </row>
@@ -3029,15 +3041,15 @@
         <v>69</v>
       </c>
       <c r="C102" t="str">
-        <f>_xlfn.CONCAT(A102," ",B102)</f>
+        <f t="shared" si="9"/>
         <v>Dan Malone</v>
       </c>
       <c r="D102" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A102&amp;"&amp;entry.876592536="&amp;B102&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Dan&amp;entry.876592536=Malone</v>
       </c>
       <c r="E102" t="str">
-        <f>D102</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Dan&amp;entry.876592536=Malone</v>
       </c>
     </row>
@@ -3049,15 +3061,15 @@
         <v>117</v>
       </c>
       <c r="C103" t="str">
-        <f>_xlfn.CONCAT(A103," ",B103)</f>
+        <f t="shared" si="9"/>
         <v xml:space="preserve">Tiana Marcellino </v>
       </c>
       <c r="D103" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A103&amp;"&amp;entry.876592536="&amp;B103&amp;"")</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tiana&amp;entry.876592536=Marcellino </v>
       </c>
       <c r="E103" t="str">
-        <f>D103</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tiana&amp;entry.876592536=Marcellino </v>
       </c>
     </row>
@@ -3069,15 +3081,15 @@
         <v>72</v>
       </c>
       <c r="C104" t="str">
-        <f>_xlfn.CONCAT(A104," ",B104)</f>
+        <f t="shared" si="9"/>
         <v>Daniel Markos</v>
       </c>
       <c r="D104" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A104&amp;"&amp;entry.876592536="&amp;B104&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel&amp;entry.876592536=Markos</v>
       </c>
       <c r="E104" t="str">
-        <f>D104</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Daniel&amp;entry.876592536=Markos</v>
       </c>
     </row>
@@ -3089,15 +3101,15 @@
         <v>42</v>
       </c>
       <c r="C105" t="str">
-        <f>_xlfn.CONCAT(A105," ",B105)</f>
+        <f t="shared" si="9"/>
         <v>Lachlan McCarthy</v>
       </c>
       <c r="D105" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A105&amp;"&amp;entry.876592536="&amp;B105&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lachlan&amp;entry.876592536=McCarthy</v>
       </c>
       <c r="E105" t="str">
-        <f>D105</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Lachlan&amp;entry.876592536=McCarthy</v>
       </c>
     </row>
@@ -3109,15 +3121,15 @@
         <v>21</v>
       </c>
       <c r="C106" t="str">
-        <f>_xlfn.CONCAT(A106," ",B106)</f>
+        <f t="shared" si="9"/>
         <v>Tony Nicolas</v>
       </c>
       <c r="D106" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A106&amp;"&amp;entry.876592536="&amp;B106&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tony&amp;entry.876592536=Nicolas</v>
       </c>
       <c r="E106" t="str">
-        <f>D106</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Tony&amp;entry.876592536=Nicolas</v>
       </c>
     </row>
@@ -3129,15 +3141,15 @@
         <v>102</v>
       </c>
       <c r="C107" t="str">
-        <f>_xlfn.CONCAT(A107," ",B107)</f>
+        <f t="shared" si="9"/>
         <v>Ronan O'Brien</v>
       </c>
       <c r="D107" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A107&amp;"&amp;entry.876592536="&amp;B107&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ronan&amp;entry.876592536=O'Brien</v>
       </c>
       <c r="E107" t="str">
-        <f>D107</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ronan&amp;entry.876592536=O'Brien</v>
       </c>
     </row>
@@ -3149,15 +3161,15 @@
         <v>3</v>
       </c>
       <c r="C108" t="str">
-        <f>_xlfn.CONCAT(A108," ",B108)</f>
+        <f t="shared" si="9"/>
         <v>Friday Paddick</v>
       </c>
       <c r="D108" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A108&amp;"&amp;entry.876592536="&amp;B108&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Friday&amp;entry.876592536=Paddick</v>
       </c>
       <c r="E108" t="str">
-        <f>D108</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Friday&amp;entry.876592536=Paddick</v>
       </c>
     </row>
@@ -3169,15 +3181,15 @@
         <v>3</v>
       </c>
       <c r="C109" t="str">
-        <f>_xlfn.CONCAT(A109," ",B109)</f>
+        <f t="shared" si="9"/>
         <v>Johanna Paddick</v>
       </c>
       <c r="D109" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A109&amp;"&amp;entry.876592536="&amp;B109&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Johanna&amp;entry.876592536=Paddick</v>
       </c>
       <c r="E109" t="str">
-        <f>D109</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Johanna&amp;entry.876592536=Paddick</v>
       </c>
     </row>
@@ -3189,15 +3201,15 @@
         <v>3</v>
       </c>
       <c r="C110" t="str">
-        <f>_xlfn.CONCAT(A110," ",B110)</f>
+        <f t="shared" si="9"/>
         <v>Patricia Paddick</v>
       </c>
       <c r="D110" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A110&amp;"&amp;entry.876592536="&amp;B110&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patricia&amp;entry.876592536=Paddick</v>
       </c>
       <c r="E110" t="str">
-        <f>D110</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Patricia&amp;entry.876592536=Paddick</v>
       </c>
     </row>
@@ -3209,15 +3221,15 @@
         <v>3</v>
       </c>
       <c r="C111" t="str">
-        <f>_xlfn.CONCAT(A111," ",B111)</f>
+        <f t="shared" si="9"/>
         <v>Sarah Paddick</v>
       </c>
       <c r="D111" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A111&amp;"&amp;entry.876592536="&amp;B111&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah&amp;entry.876592536=Paddick</v>
       </c>
       <c r="E111" t="str">
-        <f>D111</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sarah&amp;entry.876592536=Paddick</v>
       </c>
     </row>
@@ -3229,15 +3241,15 @@
         <v>54</v>
       </c>
       <c r="C112" t="str">
-        <f>_xlfn.CONCAT(A112," ",B112)</f>
+        <f t="shared" si="9"/>
         <v>Jake Pajer</v>
       </c>
       <c r="D112" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A112&amp;"&amp;entry.876592536="&amp;B112&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jake&amp;entry.876592536=Pajer</v>
       </c>
       <c r="E112" t="str">
-        <f>D112</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Jake&amp;entry.876592536=Pajer</v>
       </c>
     </row>
@@ -3249,15 +3261,15 @@
         <v>6</v>
       </c>
       <c r="C113" t="str">
-        <f>_xlfn.CONCAT(A113," ",B113)</f>
+        <f t="shared" si="9"/>
         <v>Carolyn Parrella</v>
       </c>
       <c r="D113" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A113&amp;"&amp;entry.876592536="&amp;B113&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carolyn&amp;entry.876592536=Parrella</v>
       </c>
       <c r="E113" t="str">
-        <f>D113</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Carolyn&amp;entry.876592536=Parrella</v>
       </c>
     </row>
@@ -3269,15 +3281,15 @@
         <v>6</v>
       </c>
       <c r="C114" t="str">
-        <f>_xlfn.CONCAT(A114," ",B114)</f>
+        <f t="shared" si="9"/>
         <v>Luca Parrella</v>
       </c>
       <c r="D114" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A114&amp;"&amp;entry.876592536="&amp;B114&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Luca&amp;entry.876592536=Parrella</v>
       </c>
       <c r="E114" t="str">
-        <f>D114</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Luca&amp;entry.876592536=Parrella</v>
       </c>
     </row>
@@ -3289,15 +3301,15 @@
         <v>6</v>
       </c>
       <c r="C115" t="str">
-        <f>_xlfn.CONCAT(A115," ",B115)</f>
+        <f t="shared" si="9"/>
         <v>Rino Parrella</v>
       </c>
       <c r="D115" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A115&amp;"&amp;entry.876592536="&amp;B115&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rino&amp;entry.876592536=Parrella</v>
       </c>
       <c r="E115" t="str">
-        <f>D115</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Rino&amp;entry.876592536=Parrella</v>
       </c>
     </row>
@@ -3309,15 +3321,15 @@
         <v>6</v>
       </c>
       <c r="C116" t="str">
-        <f>_xlfn.CONCAT(A116," ",B116)</f>
+        <f t="shared" si="9"/>
         <v>Sam Parrella</v>
       </c>
       <c r="D116" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A116&amp;"&amp;entry.876592536="&amp;B116&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam&amp;entry.876592536=Parrella</v>
       </c>
       <c r="E116" t="str">
-        <f>D116</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sam&amp;entry.876592536=Parrella</v>
       </c>
     </row>
@@ -3329,15 +3341,15 @@
         <v>93</v>
       </c>
       <c r="C117" t="str">
-        <f>_xlfn.CONCAT(A117," ",B117)</f>
+        <f t="shared" si="9"/>
         <v>Sonita Phin</v>
       </c>
       <c r="D117" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A117&amp;"&amp;entry.876592536="&amp;B117&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sonita&amp;entry.876592536=Phin</v>
       </c>
       <c r="E117" t="str">
-        <f>D117</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Sonita&amp;entry.876592536=Phin</v>
       </c>
     </row>
@@ -3349,15 +3361,15 @@
         <v>177</v>
       </c>
       <c r="C118" t="str">
-        <f>_xlfn.CONCAT(A118," ",B118)</f>
+        <f t="shared" si="9"/>
         <v>Ivica Plavsic</v>
       </c>
       <c r="D118" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A118&amp;"&amp;entry.876592536="&amp;B118&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ivica&amp;entry.876592536=Plavsic</v>
       </c>
       <c r="E118" t="str">
-        <f>D118</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ivica&amp;entry.876592536=Plavsic</v>
       </c>
     </row>
@@ -3369,15 +3381,15 @@
         <v>177</v>
       </c>
       <c r="C119" t="str">
-        <f>_xlfn.CONCAT(A119," ",B119)</f>
+        <f t="shared" si="9"/>
         <v>Vlasta Plavsic</v>
       </c>
       <c r="D119" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A119&amp;"&amp;entry.876592536="&amp;B119&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vlasta&amp;entry.876592536=Plavsic</v>
       </c>
       <c r="E119" t="str">
-        <f>D119</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Vlasta&amp;entry.876592536=Plavsic</v>
       </c>
     </row>
@@ -3389,15 +3401,15 @@
         <v>14</v>
       </c>
       <c r="C120" t="str">
-        <f>_xlfn.CONCAT(A120," ",B120)</f>
+        <f t="shared" si="9"/>
         <v>Feza Ramadhani</v>
       </c>
       <c r="D120" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A120&amp;"&amp;entry.876592536="&amp;B120&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Feza&amp;entry.876592536=Ramadhani</v>
       </c>
       <c r="E120" t="str">
-        <f>D120</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Feza&amp;entry.876592536=Ramadhani</v>
       </c>
     </row>
@@ -3409,15 +3421,15 @@
         <v>77</v>
       </c>
       <c r="C121" t="str">
-        <f>_xlfn.CONCAT(A121," ",B121)</f>
+        <f t="shared" si="9"/>
         <v>Chloe Robinson</v>
       </c>
       <c r="D121" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A121&amp;"&amp;entry.876592536="&amp;B121&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Chloe&amp;entry.876592536=Robinson</v>
       </c>
       <c r="E121" t="str">
-        <f>D121</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Chloe&amp;entry.876592536=Robinson</v>
       </c>
     </row>
@@ -3429,15 +3441,15 @@
         <v>16</v>
       </c>
       <c r="C122" t="str">
-        <f>_xlfn.CONCAT(A122," ",B122)</f>
+        <f t="shared" si="9"/>
         <v>Bojan Ruvidic</v>
       </c>
       <c r="D122" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A122&amp;"&amp;entry.876592536="&amp;B122&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bojan&amp;entry.876592536=Ruvidic</v>
       </c>
       <c r="E122" t="str">
-        <f>D122</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bojan&amp;entry.876592536=Ruvidic</v>
       </c>
     </row>
@@ -3449,15 +3461,15 @@
         <v>112</v>
       </c>
       <c r="C123" t="str">
-        <f>_xlfn.CONCAT(A123," ",B123)</f>
+        <f t="shared" si="9"/>
         <v>Zeena Saad</v>
       </c>
       <c r="D123" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A123&amp;"&amp;entry.876592536="&amp;B123&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Zeena&amp;entry.876592536=Saad</v>
       </c>
       <c r="E123" t="str">
-        <f>D123</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Zeena&amp;entry.876592536=Saad</v>
       </c>
     </row>
@@ -3469,15 +3481,15 @@
         <v>110</v>
       </c>
       <c r="C124" t="str">
-        <f>_xlfn.CONCAT(A124," ",B124)</f>
+        <f t="shared" si="9"/>
         <v>Brea Schultz</v>
       </c>
       <c r="D124" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A124&amp;"&amp;entry.876592536="&amp;B124&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Brea&amp;entry.876592536=Schultz</v>
       </c>
       <c r="E124" t="str">
-        <f>D124</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Brea&amp;entry.876592536=Schultz</v>
       </c>
     </row>
@@ -3489,15 +3501,15 @@
         <v>95</v>
       </c>
       <c r="C125" t="str">
-        <f>_xlfn.CONCAT(A125," ",B125)</f>
+        <f t="shared" si="9"/>
         <v>Bridget Smart</v>
       </c>
       <c r="D125" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A125&amp;"&amp;entry.876592536="&amp;B125&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bridget&amp;entry.876592536=Smart</v>
       </c>
       <c r="E125" t="str">
-        <f>D125</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Bridget&amp;entry.876592536=Smart</v>
       </c>
     </row>
@@ -3509,15 +3521,15 @@
         <v>58</v>
       </c>
       <c r="C126" t="str">
-        <f>_xlfn.CONCAT(A126," ",B126)</f>
+        <f t="shared" si="9"/>
         <v>Iva Sorsa-Sunic</v>
       </c>
       <c r="D126" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A126&amp;"&amp;entry.876592536="&amp;B126&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Iva&amp;entry.876592536=Sorsa-Sunic</v>
       </c>
       <c r="E126" t="str">
-        <f>D126</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Iva&amp;entry.876592536=Sorsa-Sunic</v>
       </c>
     </row>
@@ -3529,15 +3541,15 @@
         <v>105</v>
       </c>
       <c r="C127" t="str">
-        <f>_xlfn.CONCAT(A127," ",B127)</f>
+        <f t="shared" si="9"/>
         <v>Duane Stewart</v>
       </c>
       <c r="D127" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A127&amp;"&amp;entry.876592536="&amp;B127&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Duane&amp;entry.876592536=Stewart</v>
       </c>
       <c r="E127" t="str">
-        <f>D127</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Duane&amp;entry.876592536=Stewart</v>
       </c>
     </row>
@@ -3549,15 +3561,15 @@
         <v>105</v>
       </c>
       <c r="C128" t="str">
-        <f>_xlfn.CONCAT(A128," ",B128)</f>
+        <f t="shared" si="9"/>
         <v>Nicki Stewart</v>
       </c>
       <c r="D128" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A128&amp;"&amp;entry.876592536="&amp;B128&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nicki&amp;entry.876592536=Stewart</v>
       </c>
       <c r="E128" t="str">
-        <f>D128</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Nicki&amp;entry.876592536=Stewart</v>
       </c>
     </row>
@@ -3569,15 +3581,15 @@
         <v>32</v>
       </c>
       <c r="C129" t="str">
-        <f>_xlfn.CONCAT(A129," ",B129)</f>
+        <f t="shared" si="9"/>
         <v>Ellen Veronica</v>
       </c>
       <c r="D129" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A129&amp;"&amp;entry.876592536="&amp;B129&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ellen&amp;entry.876592536=Veronica</v>
       </c>
       <c r="E129" t="str">
-        <f>D129</f>
+        <f t="shared" si="11"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Ellen&amp;entry.876592536=Veronica</v>
       </c>
     </row>
@@ -3589,15 +3601,15 @@
         <v>83</v>
       </c>
       <c r="C130" t="str">
-        <f>_xlfn.CONCAT(A130," ",B130)</f>
+        <f t="shared" ref="C130:C161" si="12">_xlfn.CONCAT(A130," ",B130)</f>
         <v>Elie Walsh</v>
       </c>
       <c r="D130" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A130&amp;"&amp;entry.876592536="&amp;B130&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Elie&amp;entry.876592536=Walsh</v>
       </c>
       <c r="E130" t="str">
-        <f>D130</f>
+        <f t="shared" ref="E130:E161" si="13">D130</f>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Elie&amp;entry.876592536=Walsh</v>
       </c>
     </row>
@@ -3609,15 +3621,15 @@
         <v>191</v>
       </c>
       <c r="C131" t="str">
-        <f>_xlfn.CONCAT(A131," ",B131)</f>
+        <f t="shared" si="12"/>
         <v>Josh Watt</v>
       </c>
       <c r="D131" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A131&amp;"&amp;entry.876592536="&amp;B131&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Josh&amp;entry.876592536=Watt</v>
       </c>
       <c r="E131" t="str">
-        <f>D131</f>
+        <f t="shared" si="13"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Josh&amp;entry.876592536=Watt</v>
       </c>
     </row>
@@ -3629,15 +3641,15 @@
         <v>108</v>
       </c>
       <c r="C132" t="str">
-        <f>_xlfn.CONCAT(A132," ",B132)</f>
+        <f t="shared" si="12"/>
         <v>David White</v>
       </c>
       <c r="D132" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A132&amp;"&amp;entry.876592536="&amp;B132&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David&amp;entry.876592536=White</v>
       </c>
       <c r="E132" t="str">
-        <f>D132</f>
+        <f t="shared" si="13"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=David&amp;entry.876592536=White</v>
       </c>
     </row>
@@ -3649,15 +3661,15 @@
         <v>106</v>
       </c>
       <c r="C133" t="str">
-        <f>_xlfn.CONCAT(A133," ",B133)</f>
+        <f t="shared" si="12"/>
         <v>Megan Zille</v>
       </c>
       <c r="D133" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A133&amp;"&amp;entry.876592536="&amp;B133&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Megan&amp;entry.876592536=Zille</v>
       </c>
       <c r="E133" t="str">
-        <f>D133</f>
+        <f t="shared" si="13"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Megan&amp;entry.876592536=Zille</v>
       </c>
     </row>
@@ -3669,16 +3681,24 @@
         <v>106</v>
       </c>
       <c r="C134" t="str">
-        <f>_xlfn.CONCAT(A134," ",B134)</f>
+        <f t="shared" si="12"/>
         <v>Peter Zille</v>
       </c>
       <c r="D134" s="2" t="str">
-        <f>HYPERLINK("https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285="&amp;A134&amp;"&amp;entry.876592536="&amp;B134&amp;"")</f>
+        <f t="shared" si="10"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Peter&amp;entry.876592536=Zille</v>
       </c>
       <c r="E134" t="str">
-        <f>D134</f>
+        <f t="shared" si="13"/>
         <v>https://docs.google.com/forms/d/e/1FAIpQLSebyhw6MChamoFF4aOD6_Yx_MY2Zca2dTfKLZ3IiPMuo_Nsfw/viewform?usp=pp_url&amp;entry.1137904285=Peter&amp;entry.876592536=Zille</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B135" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
